--- a/SisConv/src/SisConvDocs/Pasta de Habilitados.xlsx
+++ b/SisConv/src/SisConvDocs/Pasta de Habilitados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18805"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Ckmserver-novo\arquivos\Operacional\FRANCO DA ROCHA\Franco da Rocha 2017\Estágio 2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8D4B78F607C333E265D8355D3361199BC7926EAE" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{47B77EC5-1490-4F22-8439-DBC0CA3A3379}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE30910D-B2BD-426E-AD89-4DBBD3C965A2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7080"/>
   </bookViews>
   <sheets>
     <sheet name="Dados-Classificados-Conc-6" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dados-Classificados-Conc-6'!$A$1:$U$616</definedName>
   </definedNames>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="179016"/>
 </workbook>
 </file>
 
@@ -11797,7 +11797,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -12275,9 +12275,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -12632,11 +12634,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U616"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="K1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12644,8 +12646,8 @@
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="40.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="5" max="5" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14" style="1" bestFit="1" customWidth="1"/>
@@ -12672,7 +12674,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -12734,8 +12736,8 @@
       <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1">
-        <v>35170</v>
+      <c r="E2" s="3">
+        <v>29140</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>23</v>
@@ -12796,8 +12798,8 @@
       <c r="D3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="1">
-        <v>33302</v>
+      <c r="E3" s="3">
+        <v>29141</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>36</v>
@@ -12858,8 +12860,8 @@
       <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1">
-        <v>30244</v>
+      <c r="E4" s="3">
+        <v>29142</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>45</v>
@@ -12917,8 +12919,8 @@
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1">
-        <v>34820</v>
+      <c r="E5" s="3">
+        <v>29143</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>52</v>
@@ -12976,8 +12978,8 @@
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1">
-        <v>31675</v>
+      <c r="E6" s="3">
+        <v>29144</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>59</v>
@@ -13041,8 +13043,8 @@
       <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="1">
-        <v>34667</v>
+      <c r="E7" s="3">
+        <v>29145</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>69</v>
@@ -13100,8 +13102,8 @@
       <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="1">
-        <v>28121</v>
+      <c r="E8" s="3">
+        <v>29146</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>75</v>
@@ -13159,8 +13161,8 @@
       <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="1">
-        <v>34794</v>
+      <c r="E9" s="3">
+        <v>29147</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>83</v>
@@ -13221,8 +13223,8 @@
       <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="1">
-        <v>30650</v>
+      <c r="E10" s="3">
+        <v>29148</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>91</v>
@@ -13280,8 +13282,8 @@
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="1">
-        <v>35674</v>
+      <c r="E11" s="3">
+        <v>29149</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>98</v>
@@ -13342,8 +13344,8 @@
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="1">
-        <v>35790</v>
+      <c r="E12" s="3">
+        <v>29150</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>106</v>
@@ -13401,8 +13403,8 @@
       <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="1">
-        <v>33182</v>
+      <c r="E13" s="3">
+        <v>29151</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>112</v>
@@ -13460,8 +13462,8 @@
       <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="1">
-        <v>34578</v>
+      <c r="E14" s="3">
+        <v>29152</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>118</v>
@@ -13522,8 +13524,8 @@
       <c r="D15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="1">
-        <v>35499</v>
+      <c r="E15" s="3">
+        <v>29153</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>125</v>
@@ -13581,8 +13583,8 @@
       <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="1">
-        <v>36014</v>
+      <c r="E16" s="3">
+        <v>29154</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>132</v>
@@ -13643,8 +13645,8 @@
       <c r="D17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="1">
-        <v>36413</v>
+      <c r="E17" s="3">
+        <v>29155</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>140</v>
@@ -13705,8 +13707,8 @@
       <c r="D18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="1">
-        <v>35378</v>
+      <c r="E18" s="3">
+        <v>29156</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>148</v>
@@ -13764,8 +13766,8 @@
       <c r="D19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="1">
-        <v>35577</v>
+      <c r="E19" s="3">
+        <v>29157</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>155</v>
@@ -13823,8 +13825,8 @@
       <c r="D20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="1">
-        <v>33336</v>
+      <c r="E20" s="3">
+        <v>29158</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>162</v>
@@ -13885,8 +13887,8 @@
       <c r="D21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="1">
-        <v>34039</v>
+      <c r="E21" s="3">
+        <v>29159</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>168</v>
@@ -13947,8 +13949,8 @@
       <c r="D22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="1">
-        <v>36238</v>
+      <c r="E22" s="3">
+        <v>29160</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>175</v>
@@ -14006,8 +14008,8 @@
       <c r="D23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="1">
-        <v>35305</v>
+      <c r="E23" s="3">
+        <v>29161</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>182</v>
@@ -14062,8 +14064,8 @@
       <c r="D24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="1">
-        <v>35573</v>
+      <c r="E24" s="3">
+        <v>29162</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>189</v>
@@ -14121,8 +14123,8 @@
       <c r="D25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="1">
-        <v>33907</v>
+      <c r="E25" s="3">
+        <v>29163</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>195</v>
@@ -14180,8 +14182,8 @@
       <c r="D26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="1">
-        <v>35118</v>
+      <c r="E26" s="3">
+        <v>29164</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>202</v>
@@ -14245,8 +14247,8 @@
       <c r="D27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="1">
-        <v>35560</v>
+      <c r="E27" s="3">
+        <v>29165</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>211</v>
@@ -14304,8 +14306,8 @@
       <c r="D28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="1">
-        <v>36393</v>
+      <c r="E28" s="3">
+        <v>29166</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>218</v>
@@ -14363,8 +14365,8 @@
       <c r="D29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="1">
-        <v>36434</v>
+      <c r="E29" s="3">
+        <v>29167</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>225</v>
@@ -14422,8 +14424,8 @@
       <c r="D30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="1">
-        <v>34784</v>
+      <c r="E30" s="3">
+        <v>29168</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>231</v>
@@ -14481,8 +14483,8 @@
       <c r="D31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="1">
-        <v>35017</v>
+      <c r="E31" s="3">
+        <v>29169</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>237</v>
@@ -14540,8 +14542,8 @@
       <c r="D32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="1">
-        <v>35129</v>
+      <c r="E32" s="3">
+        <v>29170</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>244</v>
@@ -14602,8 +14604,8 @@
       <c r="D33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="1">
-        <v>36061</v>
+      <c r="E33" s="3">
+        <v>29171</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>251</v>
@@ -14664,8 +14666,8 @@
       <c r="D34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="1">
-        <v>34621</v>
+      <c r="E34" s="3">
+        <v>29172</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>259</v>
@@ -14723,8 +14725,8 @@
       <c r="D35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="1">
-        <v>34891</v>
+      <c r="E35" s="3">
+        <v>29173</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>265</v>
@@ -14785,8 +14787,8 @@
       <c r="D36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="1">
-        <v>35647</v>
+      <c r="E36" s="3">
+        <v>29174</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>272</v>
@@ -14847,8 +14849,8 @@
       <c r="D37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="1">
-        <v>36099</v>
+      <c r="E37" s="3">
+        <v>29175</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>280</v>
@@ -14906,8 +14908,8 @@
       <c r="D38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="1">
-        <v>34565</v>
+      <c r="E38" s="3">
+        <v>29176</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>286</v>
@@ -14968,8 +14970,8 @@
       <c r="D39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="1">
-        <v>35822</v>
+      <c r="E39" s="3">
+        <v>29177</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>293</v>
@@ -15030,8 +15032,8 @@
       <c r="D40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="1">
-        <v>34764</v>
+      <c r="E40" s="3">
+        <v>29178</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>301</v>
@@ -15089,8 +15091,8 @@
       <c r="D41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="1">
-        <v>35066</v>
+      <c r="E41" s="3">
+        <v>29179</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>305</v>
@@ -15148,8 +15150,8 @@
       <c r="D42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="1">
-        <v>35385</v>
+      <c r="E42" s="3">
+        <v>29180</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>312</v>
@@ -15207,8 +15209,8 @@
       <c r="D43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="1">
-        <v>35450</v>
+      <c r="E43" s="3">
+        <v>29181</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>319</v>
@@ -15269,8 +15271,8 @@
       <c r="D44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="1">
-        <v>33288</v>
+      <c r="E44" s="3">
+        <v>29182</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>326</v>
@@ -15328,8 +15330,8 @@
       <c r="D45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="1">
-        <v>34158</v>
+      <c r="E45" s="3">
+        <v>29183</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>334</v>
@@ -15390,8 +15392,8 @@
       <c r="D46" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="1">
-        <v>34367</v>
+      <c r="E46" s="3">
+        <v>29184</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>340</v>
@@ -15452,8 +15454,8 @@
       <c r="D47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="1">
-        <v>35555</v>
+      <c r="E47" s="3">
+        <v>29185</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>347</v>
@@ -15511,8 +15513,8 @@
       <c r="D48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="1">
-        <v>35700</v>
+      <c r="E48" s="3">
+        <v>29186</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>354</v>
@@ -15570,8 +15572,8 @@
       <c r="D49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="1">
-        <v>36055</v>
+      <c r="E49" s="3">
+        <v>29187</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>360</v>
@@ -15632,8 +15634,8 @@
       <c r="D50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="1">
-        <v>36103</v>
+      <c r="E50" s="3">
+        <v>29188</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>367</v>
@@ -15688,8 +15690,8 @@
       <c r="D51" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="1">
-        <v>28103</v>
+      <c r="E51" s="3">
+        <v>29189</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>373</v>
@@ -15750,8 +15752,8 @@
       <c r="D52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="1">
-        <v>31919</v>
+      <c r="E52" s="3">
+        <v>29190</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>382</v>
@@ -15812,8 +15814,8 @@
       <c r="D53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="1">
-        <v>34043</v>
+      <c r="E53" s="3">
+        <v>29191</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>390</v>
@@ -15871,8 +15873,8 @@
       <c r="D54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="1">
-        <v>34439</v>
+      <c r="E54" s="3">
+        <v>29192</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>395</v>
@@ -15930,8 +15932,8 @@
       <c r="D55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="1">
-        <v>35241</v>
+      <c r="E55" s="3">
+        <v>29193</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>402</v>
@@ -15989,8 +15991,8 @@
       <c r="D56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="1">
-        <v>35428</v>
+      <c r="E56" s="3">
+        <v>29194</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>409</v>
@@ -16051,8 +16053,8 @@
       <c r="D57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="1">
-        <v>35919</v>
+      <c r="E57" s="3">
+        <v>29195</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>418</v>
@@ -16107,8 +16109,8 @@
       <c r="D58" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E58" s="1">
-        <v>32956</v>
+      <c r="E58" s="3">
+        <v>29196</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>424</v>
@@ -16169,8 +16171,8 @@
       <c r="D59" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E59" s="1">
-        <v>33292</v>
+      <c r="E59" s="3">
+        <v>29197</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>431</v>
@@ -16225,8 +16227,8 @@
       <c r="D60" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E60" s="1">
-        <v>33508</v>
+      <c r="E60" s="3">
+        <v>29198</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>436</v>
@@ -16284,8 +16286,8 @@
       <c r="D61" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E61" s="1">
-        <v>35534</v>
+      <c r="E61" s="3">
+        <v>29199</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>442</v>
@@ -16346,8 +16348,8 @@
       <c r="D62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="1">
-        <v>36065</v>
+      <c r="E62" s="3">
+        <v>29200</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>449</v>
@@ -16408,8 +16410,8 @@
       <c r="D63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E63" s="1">
-        <v>35463</v>
+      <c r="E63" s="3">
+        <v>29201</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>457</v>
@@ -16470,8 +16472,8 @@
       <c r="D64" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="1">
-        <v>34696</v>
+      <c r="E64" s="3">
+        <v>29202</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>465</v>
@@ -16526,8 +16528,8 @@
       <c r="D65" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="1">
-        <v>35221</v>
+      <c r="E65" s="3">
+        <v>29203</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>472</v>
@@ -16582,8 +16584,8 @@
       <c r="D66" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E66" s="1">
-        <v>33550</v>
+      <c r="E66" s="3">
+        <v>29204</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>478</v>
@@ -16644,8 +16646,8 @@
       <c r="D67" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E67" s="1">
-        <v>26583</v>
+      <c r="E67" s="3">
+        <v>29205</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>487</v>
@@ -16703,8 +16705,8 @@
       <c r="D68" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E68" s="1">
-        <v>32840</v>
+      <c r="E68" s="3">
+        <v>29206</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>494</v>
@@ -16762,8 +16764,8 @@
       <c r="D69" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E69" s="1">
-        <v>36079</v>
+      <c r="E69" s="3">
+        <v>29207</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>501</v>
@@ -16824,8 +16826,8 @@
       <c r="D70" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E70" s="1">
-        <v>33831</v>
+      <c r="E70" s="3">
+        <v>29208</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>508</v>
@@ -16883,8 +16885,8 @@
       <c r="D71" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="1">
-        <v>31902</v>
+      <c r="E71" s="3">
+        <v>29209</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>515</v>
@@ -16942,8 +16944,8 @@
       <c r="D72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="1">
-        <v>29988</v>
+      <c r="E72" s="3">
+        <v>29210</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>522</v>
@@ -17004,8 +17006,8 @@
       <c r="D73" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E73" s="1">
-        <v>34160</v>
+      <c r="E73" s="3">
+        <v>29211</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>530</v>
@@ -17066,8 +17068,8 @@
       <c r="D74" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E74" s="1">
-        <v>31853</v>
+      <c r="E74" s="3">
+        <v>29212</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>539</v>
@@ -17125,8 +17127,8 @@
       <c r="D75" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="1">
-        <v>29339</v>
+      <c r="E75" s="3">
+        <v>29213</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>546</v>
@@ -17184,8 +17186,8 @@
       <c r="D76" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E76" s="1">
-        <v>36112</v>
+      <c r="E76" s="3">
+        <v>29214</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>553</v>
@@ -17243,8 +17245,8 @@
       <c r="D77" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E77" s="1">
-        <v>36413</v>
+      <c r="E77" s="3">
+        <v>29215</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>560</v>
@@ -17305,8 +17307,8 @@
       <c r="D78" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E78" s="1">
-        <v>34040</v>
+      <c r="E78" s="3">
+        <v>29216</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>568</v>
@@ -17367,8 +17369,8 @@
       <c r="D79" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="1">
-        <v>34422</v>
+      <c r="E79" s="3">
+        <v>29217</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>575</v>
@@ -17426,8 +17428,8 @@
       <c r="D80" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E80" s="1">
-        <v>35211</v>
+      <c r="E80" s="3">
+        <v>29218</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>581</v>
@@ -17485,8 +17487,8 @@
       <c r="D81" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E81" s="1">
-        <v>35950</v>
+      <c r="E81" s="3">
+        <v>29219</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>588</v>
@@ -17544,8 +17546,8 @@
       <c r="D82" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E82" s="1">
-        <v>35963</v>
+      <c r="E82" s="3">
+        <v>29220</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>594</v>
@@ -17603,8 +17605,8 @@
       <c r="D83" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E83" s="1">
-        <v>36045</v>
+      <c r="E83" s="3">
+        <v>29221</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>601</v>
@@ -17659,8 +17661,8 @@
       <c r="D84" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E84" s="1">
-        <v>32588</v>
+      <c r="E84" s="3">
+        <v>29222</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>606</v>
@@ -17718,8 +17720,8 @@
       <c r="D85" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E85" s="1">
-        <v>35302</v>
+      <c r="E85" s="3">
+        <v>29223</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>612</v>
@@ -17777,8 +17779,8 @@
       <c r="D86" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E86" s="1">
-        <v>30459</v>
+      <c r="E86" s="3">
+        <v>29224</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>618</v>
@@ -17836,8 +17838,8 @@
       <c r="D87" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E87" s="1">
-        <v>36163</v>
+      <c r="E87" s="3">
+        <v>29225</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>625</v>
@@ -17895,8 +17897,8 @@
       <c r="D88" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="1">
-        <v>31189</v>
+      <c r="E88" s="3">
+        <v>29226</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>631</v>
@@ -17954,8 +17956,8 @@
       <c r="D89" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="1">
-        <v>34645</v>
+      <c r="E89" s="3">
+        <v>29227</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>638</v>
@@ -18013,8 +18015,8 @@
       <c r="D90" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E90" s="1">
-        <v>36376</v>
+      <c r="E90" s="3">
+        <v>29228</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>645</v>
@@ -18078,8 +18080,8 @@
       <c r="D91" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E91" s="1">
-        <v>29447</v>
+      <c r="E91" s="3">
+        <v>29229</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>653</v>
@@ -18137,8 +18139,8 @@
       <c r="D92" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E92" s="1">
-        <v>34126</v>
+      <c r="E92" s="3">
+        <v>29230</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>659</v>
@@ -18199,8 +18201,8 @@
       <c r="D93" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E93" s="1">
-        <v>34498</v>
+      <c r="E93" s="3">
+        <v>29231</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>665</v>
@@ -18258,8 +18260,8 @@
       <c r="D94" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E94" s="1">
-        <v>34940</v>
+      <c r="E94" s="3">
+        <v>29232</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>672</v>
@@ -18320,8 +18322,8 @@
       <c r="D95" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E95" s="1">
-        <v>35075</v>
+      <c r="E95" s="3">
+        <v>29233</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>679</v>
@@ -18376,8 +18378,8 @@
       <c r="D96" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E96" s="1">
-        <v>35181</v>
+      <c r="E96" s="3">
+        <v>29234</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>685</v>
@@ -18435,8 +18437,8 @@
       <c r="D97" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E97" s="1">
-        <v>32691</v>
+      <c r="E97" s="3">
+        <v>29235</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>692</v>
@@ -18491,8 +18493,8 @@
       <c r="D98" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E98" s="1">
-        <v>34060</v>
+      <c r="E98" s="3">
+        <v>29236</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>698</v>
@@ -18547,8 +18549,8 @@
       <c r="D99" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E99" s="1">
-        <v>35636</v>
+      <c r="E99" s="3">
+        <v>29237</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>705</v>
@@ -18606,8 +18608,8 @@
       <c r="D100" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E100" s="1">
-        <v>34049</v>
+      <c r="E100" s="3">
+        <v>29238</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>712</v>
@@ -18665,8 +18667,8 @@
       <c r="D101" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E101" s="1">
-        <v>35041</v>
+      <c r="E101" s="3">
+        <v>29239</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>720</v>
@@ -18727,8 +18729,8 @@
       <c r="D102" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E102" s="1">
-        <v>36027</v>
+      <c r="E102" s="3">
+        <v>29240</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>726</v>
@@ -18786,8 +18788,8 @@
       <c r="D103" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E103" s="1">
-        <v>36430</v>
+      <c r="E103" s="3">
+        <v>29241</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>732</v>
@@ -18848,8 +18850,8 @@
       <c r="D104" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E104" s="1">
-        <v>36499</v>
+      <c r="E104" s="3">
+        <v>29242</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>738</v>
@@ -18907,8 +18909,8 @@
       <c r="D105" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="1">
-        <v>35579</v>
+      <c r="E105" s="3">
+        <v>29243</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>745</v>
@@ -18966,8 +18968,8 @@
       <c r="D106" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E106" s="1">
-        <v>35703</v>
+      <c r="E106" s="3">
+        <v>29244</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>752</v>
@@ -19028,8 +19030,8 @@
       <c r="D107" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E107" s="1">
-        <v>36181</v>
+      <c r="E107" s="3">
+        <v>29245</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>759</v>
@@ -19090,8 +19092,8 @@
       <c r="D108" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E108" s="1">
-        <v>33408</v>
+      <c r="E108" s="3">
+        <v>29246</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>767</v>
@@ -19149,8 +19151,8 @@
       <c r="D109" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E109" s="1">
-        <v>36235</v>
+      <c r="E109" s="3">
+        <v>29247</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>775</v>
@@ -19208,8 +19210,8 @@
       <c r="D110" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E110" s="1">
-        <v>32587</v>
+      <c r="E110" s="3">
+        <v>29248</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>782</v>
@@ -19270,8 +19272,8 @@
       <c r="D111" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E111" s="1">
-        <v>36258</v>
+      <c r="E111" s="3">
+        <v>29249</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>790</v>
@@ -19329,8 +19331,8 @@
       <c r="D112" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E112" s="1">
-        <v>36442</v>
+      <c r="E112" s="3">
+        <v>29250</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>796</v>
@@ -19388,8 +19390,8 @@
       <c r="D113" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E113" s="1">
-        <v>34474</v>
+      <c r="E113" s="3">
+        <v>29251</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>803</v>
@@ -19447,8 +19449,8 @@
       <c r="D114" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E114" s="1">
-        <v>35247</v>
+      <c r="E114" s="3">
+        <v>29252</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>809</v>
@@ -19503,8 +19505,8 @@
       <c r="D115" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E115" s="1">
-        <v>36111</v>
+      <c r="E115" s="3">
+        <v>29253</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>813</v>
@@ -19562,8 +19564,8 @@
       <c r="D116" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E116" s="1">
-        <v>32324</v>
+      <c r="E116" s="3">
+        <v>29254</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>819</v>
@@ -19621,8 +19623,8 @@
       <c r="D117" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E117" s="1">
-        <v>35380</v>
+      <c r="E117" s="3">
+        <v>29255</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>826</v>
@@ -19683,8 +19685,8 @@
       <c r="D118" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E118" s="1">
-        <v>35538</v>
+      <c r="E118" s="3">
+        <v>29256</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>832</v>
@@ -19745,8 +19747,8 @@
       <c r="D119" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E119" s="1">
-        <v>35799</v>
+      <c r="E119" s="3">
+        <v>29257</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>840</v>
@@ -19804,8 +19806,8 @@
       <c r="D120" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E120" s="1">
-        <v>36146</v>
+      <c r="E120" s="3">
+        <v>29258</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>845</v>
@@ -19863,8 +19865,8 @@
       <c r="D121" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E121" s="1">
-        <v>36262</v>
+      <c r="E121" s="3">
+        <v>29259</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>849</v>
@@ -19922,8 +19924,8 @@
       <c r="D122" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E122" s="1">
-        <v>35892</v>
+      <c r="E122" s="3">
+        <v>29260</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>855</v>
@@ -19984,8 +19986,8 @@
       <c r="D123" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="1">
-        <v>34360</v>
+      <c r="E123" s="3">
+        <v>29261</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>861</v>
@@ -20043,8 +20045,8 @@
       <c r="D124" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E124" s="1">
-        <v>35107</v>
+      <c r="E124" s="3">
+        <v>29262</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>868</v>
@@ -20105,8 +20107,8 @@
       <c r="D125" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E125" s="1">
-        <v>36450</v>
+      <c r="E125" s="3">
+        <v>29263</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>876</v>
@@ -20167,8 +20169,8 @@
       <c r="D126" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E126" s="1">
-        <v>33495</v>
+      <c r="E126" s="3">
+        <v>29264</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>882</v>
@@ -20229,8 +20231,8 @@
       <c r="D127" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E127" s="1">
-        <v>35433</v>
+      <c r="E127" s="3">
+        <v>29265</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>888</v>
@@ -20288,8 +20290,8 @@
       <c r="D128" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E128" s="1">
-        <v>36022</v>
+      <c r="E128" s="3">
+        <v>29266</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>893</v>
@@ -20350,8 +20352,8 @@
       <c r="D129" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E129" s="1">
-        <v>36119</v>
+      <c r="E129" s="3">
+        <v>29267</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>900</v>
@@ -20409,8 +20411,8 @@
       <c r="D130" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E130" s="1">
-        <v>36370</v>
+      <c r="E130" s="3">
+        <v>29268</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>906</v>
@@ -20468,8 +20470,8 @@
       <c r="D131" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E131" s="1">
-        <v>31857</v>
+      <c r="E131" s="3">
+        <v>29269</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>912</v>
@@ -20527,8 +20529,8 @@
       <c r="D132" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E132" s="1">
-        <v>36070</v>
+      <c r="E132" s="3">
+        <v>29270</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>919</v>
@@ -20586,8 +20588,8 @@
       <c r="D133" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E133" s="1">
-        <v>36118</v>
+      <c r="E133" s="3">
+        <v>29271</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>925</v>
@@ -20645,8 +20647,8 @@
       <c r="D134" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E134" s="1">
-        <v>36252</v>
+      <c r="E134" s="3">
+        <v>29272</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>931</v>
@@ -20704,8 +20706,8 @@
       <c r="D135" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E135" s="1">
-        <v>35316</v>
+      <c r="E135" s="3">
+        <v>29273</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>938</v>
@@ -20763,8 +20765,8 @@
       <c r="D136" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E136" s="1">
-        <v>35767</v>
+      <c r="E136" s="3">
+        <v>29274</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>944</v>
@@ -20822,8 +20824,8 @@
       <c r="D137" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E137" s="1">
-        <v>35930</v>
+      <c r="E137" s="3">
+        <v>29275</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>950</v>
@@ -20881,8 +20883,8 @@
       <c r="D138" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E138" s="1">
-        <v>36075</v>
+      <c r="E138" s="3">
+        <v>29276</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>956</v>
@@ -20943,8 +20945,8 @@
       <c r="D139" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E139" s="1">
-        <v>36478</v>
+      <c r="E139" s="3">
+        <v>29277</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>964</v>
@@ -21005,8 +21007,8 @@
       <c r="D140" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E140" s="1">
-        <v>28323</v>
+      <c r="E140" s="3">
+        <v>29278</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>970</v>
@@ -21064,8 +21066,8 @@
       <c r="D141" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E141" s="1">
-        <v>30173</v>
+      <c r="E141" s="3">
+        <v>29279</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>975</v>
@@ -21123,8 +21125,8 @@
       <c r="D142" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E142" s="1">
-        <v>34881</v>
+      <c r="E142" s="3">
+        <v>29280</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>982</v>
@@ -21179,8 +21181,8 @@
       <c r="D143" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E143" s="1">
-        <v>35232</v>
+      <c r="E143" s="3">
+        <v>29281</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>988</v>
@@ -21241,8 +21243,8 @@
       <c r="D144" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E144" s="1">
-        <v>35611</v>
+      <c r="E144" s="3">
+        <v>29282</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>996</v>
@@ -21300,8 +21302,8 @@
       <c r="D145" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E145" s="1">
-        <v>35670</v>
+      <c r="E145" s="3">
+        <v>29283</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>1002</v>
@@ -21359,8 +21361,8 @@
       <c r="D146" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E146" s="1">
-        <v>35815</v>
+      <c r="E146" s="3">
+        <v>29284</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>1009</v>
@@ -21421,8 +21423,8 @@
       <c r="D147" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E147" s="1">
-        <v>36061</v>
+      <c r="E147" s="3">
+        <v>29285</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>1016</v>
@@ -21480,8 +21482,8 @@
       <c r="D148" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E148" s="1">
-        <v>36155</v>
+      <c r="E148" s="3">
+        <v>29286</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>1021</v>
@@ -21539,8 +21541,8 @@
       <c r="D149" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E149" s="1">
-        <v>36214</v>
+      <c r="E149" s="3">
+        <v>29287</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>1028</v>
@@ -21598,8 +21600,8 @@
       <c r="D150" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E150" s="1">
-        <v>36265</v>
+      <c r="E150" s="3">
+        <v>29288</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>1035</v>
@@ -21660,8 +21662,8 @@
       <c r="D151" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E151" s="1">
-        <v>26463</v>
+      <c r="E151" s="3">
+        <v>29289</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>1041</v>
@@ -21719,8 +21721,8 @@
       <c r="D152" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E152" s="1">
-        <v>30267</v>
+      <c r="E152" s="3">
+        <v>29290</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>1046</v>
@@ -21781,8 +21783,8 @@
       <c r="D153" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E153" s="1">
-        <v>33841</v>
+      <c r="E153" s="3">
+        <v>29291</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>1052</v>
@@ -21837,8 +21839,8 @@
       <c r="D154" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E154" s="1">
-        <v>34148</v>
+      <c r="E154" s="3">
+        <v>29292</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>1058</v>
@@ -21896,8 +21898,8 @@
       <c r="D155" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E155" s="1">
-        <v>35076</v>
+      <c r="E155" s="3">
+        <v>29293</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>1065</v>
@@ -21958,8 +21960,8 @@
       <c r="D156" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E156" s="1">
-        <v>36306</v>
+      <c r="E156" s="3">
+        <v>29294</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>1072</v>
@@ -22020,8 +22022,8 @@
       <c r="D157" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E157" s="1">
-        <v>33457</v>
+      <c r="E157" s="3">
+        <v>29295</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>1079</v>
@@ -22076,8 +22078,8 @@
       <c r="D158" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E158" s="1">
-        <v>34853</v>
+      <c r="E158" s="3">
+        <v>29296</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>1083</v>
@@ -22138,8 +22140,8 @@
       <c r="D159" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E159" s="1">
-        <v>35724</v>
+      <c r="E159" s="3">
+        <v>29297</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>1090</v>
@@ -22200,8 +22202,8 @@
       <c r="D160" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E160" s="1">
-        <v>36662</v>
+      <c r="E160" s="3">
+        <v>29298</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>1097</v>
@@ -22259,8 +22261,8 @@
       <c r="D161" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E161" s="1">
-        <v>21534</v>
+      <c r="E161" s="3">
+        <v>29299</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>1103</v>
@@ -22321,8 +22323,8 @@
       <c r="D162" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E162" s="1">
-        <v>34337</v>
+      <c r="E162" s="3">
+        <v>29300</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>1109</v>
@@ -22380,8 +22382,8 @@
       <c r="D163" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E163" s="1">
-        <v>34963</v>
+      <c r="E163" s="3">
+        <v>29301</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>1116</v>
@@ -22439,8 +22441,8 @@
       <c r="D164" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E164" s="1">
-        <v>35434</v>
+      <c r="E164" s="3">
+        <v>29302</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>1123</v>
@@ -22498,8 +22500,8 @@
       <c r="D165" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E165" s="1">
-        <v>35922</v>
+      <c r="E165" s="3">
+        <v>29303</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>1127</v>
@@ -22560,8 +22562,8 @@
       <c r="D166" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E166" s="1">
-        <v>35950</v>
+      <c r="E166" s="3">
+        <v>29304</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>1133</v>
@@ -22619,8 +22621,8 @@
       <c r="D167" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E167" s="1">
-        <v>36350</v>
+      <c r="E167" s="3">
+        <v>29305</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>1140</v>
@@ -22681,8 +22683,8 @@
       <c r="D168" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E168" s="1">
-        <v>36438</v>
+      <c r="E168" s="3">
+        <v>29306</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>1146</v>
@@ -22740,8 +22742,8 @@
       <c r="D169" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E169" s="1">
-        <v>34416</v>
+      <c r="E169" s="3">
+        <v>29307</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>1151</v>
@@ -22799,8 +22801,8 @@
       <c r="D170" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E170" s="1">
-        <v>35073</v>
+      <c r="E170" s="3">
+        <v>29308</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>1158</v>
@@ -22861,8 +22863,8 @@
       <c r="D171" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E171" s="1">
-        <v>35927</v>
+      <c r="E171" s="3">
+        <v>29309</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>1166</v>
@@ -22923,8 +22925,8 @@
       <c r="D172" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E172" s="1">
-        <v>22037</v>
+      <c r="E172" s="3">
+        <v>29310</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>1174</v>
@@ -22985,8 +22987,8 @@
       <c r="D173" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E173" s="1">
-        <v>23661</v>
+      <c r="E173" s="3">
+        <v>29311</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>1178</v>
@@ -23041,8 +23043,8 @@
       <c r="D174" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E174" s="1">
-        <v>28085</v>
+      <c r="E174" s="3">
+        <v>29312</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>1184</v>
@@ -23100,8 +23102,8 @@
       <c r="D175" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E175" s="1">
-        <v>29023</v>
+      <c r="E175" s="3">
+        <v>29313</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>1189</v>
@@ -23165,8 +23167,8 @@
       <c r="D176" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E176" s="1">
-        <v>31898</v>
+      <c r="E176" s="3">
+        <v>29314</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>1196</v>
@@ -23227,8 +23229,8 @@
       <c r="D177" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E177" s="1">
-        <v>33560</v>
+      <c r="E177" s="3">
+        <v>29315</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>1202</v>
@@ -23286,8 +23288,8 @@
       <c r="D178" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E178" s="1">
-        <v>33567</v>
+      <c r="E178" s="3">
+        <v>29316</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>1208</v>
@@ -23345,8 +23347,8 @@
       <c r="D179" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E179" s="1">
-        <v>35057</v>
+      <c r="E179" s="3">
+        <v>29317</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>1212</v>
@@ -23407,8 +23409,8 @@
       <c r="D180" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E180" s="1">
-        <v>36138</v>
+      <c r="E180" s="3">
+        <v>29318</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>1219</v>
@@ -23466,8 +23468,8 @@
       <c r="D181" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E181" s="1">
-        <v>36307</v>
+      <c r="E181" s="3">
+        <v>29319</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>1223</v>
@@ -23525,8 +23527,8 @@
       <c r="D182" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E182" s="1">
-        <v>28420</v>
+      <c r="E182" s="3">
+        <v>29320</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>1229</v>
@@ -23584,8 +23586,8 @@
       <c r="D183" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E183" s="1">
-        <v>31472</v>
+      <c r="E183" s="3">
+        <v>29321</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>1235</v>
@@ -23643,8 +23645,8 @@
       <c r="D184" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E184" s="1">
-        <v>33507</v>
+      <c r="E184" s="3">
+        <v>29322</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>1241</v>
@@ -23705,8 +23707,8 @@
       <c r="D185" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E185" s="1">
-        <v>34313</v>
+      <c r="E185" s="3">
+        <v>29323</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>1248</v>
@@ -23764,8 +23766,8 @@
       <c r="D186" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E186" s="1">
-        <v>34619</v>
+      <c r="E186" s="3">
+        <v>29324</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>1255</v>
@@ -23823,8 +23825,8 @@
       <c r="D187" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E187" s="1">
-        <v>35216</v>
+      <c r="E187" s="3">
+        <v>29325</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>1262</v>
@@ -23885,8 +23887,8 @@
       <c r="D188" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E188" s="1">
-        <v>35439</v>
+      <c r="E188" s="3">
+        <v>29326</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>1269</v>
@@ -23947,8 +23949,8 @@
       <c r="D189" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E189" s="1">
-        <v>35596</v>
+      <c r="E189" s="3">
+        <v>29327</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>1276</v>
@@ -24006,8 +24008,8 @@
       <c r="D190" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E190" s="1">
-        <v>35834</v>
+      <c r="E190" s="3">
+        <v>29328</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>1282</v>
@@ -24068,8 +24070,8 @@
       <c r="D191" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E191" s="1">
-        <v>35911</v>
+      <c r="E191" s="3">
+        <v>29329</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>1289</v>
@@ -24130,8 +24132,8 @@
       <c r="D192" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E192" s="1">
-        <v>36327</v>
+      <c r="E192" s="3">
+        <v>29330</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>1295</v>
@@ -24192,8 +24194,8 @@
       <c r="D193" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E193" s="1">
-        <v>32583</v>
+      <c r="E193" s="3">
+        <v>29331</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>1302</v>
@@ -24251,8 +24253,8 @@
       <c r="D194" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E194" s="1">
-        <v>34032</v>
+      <c r="E194" s="3">
+        <v>29332</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>1308</v>
@@ -24310,8 +24312,8 @@
       <c r="D195" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E195" s="1">
-        <v>35138</v>
+      <c r="E195" s="3">
+        <v>29333</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>1316</v>
@@ -24369,8 +24371,8 @@
       <c r="D196" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E196" s="1">
-        <v>35736</v>
+      <c r="E196" s="3">
+        <v>29334</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>1322</v>
@@ -24431,8 +24433,8 @@
       <c r="D197" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E197" s="1">
-        <v>35757</v>
+      <c r="E197" s="3">
+        <v>29335</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>1329</v>
@@ -24490,8 +24492,8 @@
       <c r="D198" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E198" s="1">
-        <v>35882</v>
+      <c r="E198" s="3">
+        <v>29336</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>1335</v>
@@ -24552,8 +24554,8 @@
       <c r="D199" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E199" s="1">
-        <v>36003</v>
+      <c r="E199" s="3">
+        <v>29337</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>1343</v>
@@ -24611,8 +24613,8 @@
       <c r="D200" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E200" s="1">
-        <v>36024</v>
+      <c r="E200" s="3">
+        <v>29338</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>1349</v>
@@ -24670,8 +24672,8 @@
       <c r="D201" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E201" s="1">
-        <v>36070</v>
+      <c r="E201" s="3">
+        <v>29339</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>1356</v>
@@ -24732,8 +24734,8 @@
       <c r="D202" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E202" s="1">
-        <v>31077</v>
+      <c r="E202" s="3">
+        <v>29340</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>1363</v>
@@ -24791,8 +24793,8 @@
       <c r="D203" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E203" s="1">
-        <v>34674</v>
+      <c r="E203" s="3">
+        <v>29341</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>1369</v>
@@ -24850,8 +24852,8 @@
       <c r="D204" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E204" s="1">
-        <v>35527</v>
+      <c r="E204" s="3">
+        <v>29342</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>1376</v>
@@ -24912,8 +24914,8 @@
       <c r="D205" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E205" s="1">
-        <v>35701</v>
+      <c r="E205" s="3">
+        <v>29343</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>1384</v>
@@ -24971,8 +24973,8 @@
       <c r="D206" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E206" s="1">
-        <v>35901</v>
+      <c r="E206" s="3">
+        <v>29344</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>1391</v>
@@ -25027,8 +25029,8 @@
       <c r="D207" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E207" s="1">
-        <v>35913</v>
+      <c r="E207" s="3">
+        <v>29345</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>1395</v>
@@ -25086,8 +25088,8 @@
       <c r="D208" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E208" s="1">
-        <v>36078</v>
+      <c r="E208" s="3">
+        <v>29346</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>1401</v>
@@ -25148,8 +25150,8 @@
       <c r="D209" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E209" s="1">
-        <v>36290</v>
+      <c r="E209" s="3">
+        <v>29347</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>1407</v>
@@ -25210,8 +25212,8 @@
       <c r="D210" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E210" s="1">
-        <v>36371</v>
+      <c r="E210" s="3">
+        <v>29348</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>1416</v>
@@ -25269,8 +25271,8 @@
       <c r="D211" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E211" s="1">
-        <v>36451</v>
+      <c r="E211" s="3">
+        <v>29349</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>1423</v>
@@ -25328,8 +25330,8 @@
       <c r="D212" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E212" s="1">
-        <v>35692</v>
+      <c r="E212" s="3">
+        <v>29350</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>1431</v>
@@ -25390,8 +25392,8 @@
       <c r="D213" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E213" s="1">
-        <v>35901</v>
+      <c r="E213" s="3">
+        <v>29351</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>1437</v>
@@ -25449,8 +25451,8 @@
       <c r="D214" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E214" s="1">
-        <v>35852</v>
+      <c r="E214" s="3">
+        <v>29352</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>1442</v>
@@ -25511,8 +25513,8 @@
       <c r="D215" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E215" s="1">
-        <v>34138</v>
+      <c r="E215" s="3">
+        <v>29353</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>1448</v>
@@ -25570,8 +25572,8 @@
       <c r="D216" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E216" s="1">
-        <v>35876</v>
+      <c r="E216" s="3">
+        <v>29354</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>1455</v>
@@ -25629,8 +25631,8 @@
       <c r="D217" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E217" s="1">
-        <v>28096</v>
+      <c r="E217" s="3">
+        <v>29355</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>1463</v>
@@ -25688,8 +25690,8 @@
       <c r="D218" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E218" s="1">
-        <v>28459</v>
+      <c r="E218" s="3">
+        <v>29356</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>1469</v>
@@ -25747,8 +25749,8 @@
       <c r="D219" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E219" s="1">
-        <v>31471</v>
+      <c r="E219" s="3">
+        <v>29357</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>1475</v>
@@ -25806,8 +25808,8 @@
       <c r="D220" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E220" s="1">
-        <v>34513</v>
+      <c r="E220" s="3">
+        <v>29358</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>1482</v>
@@ -25868,8 +25870,8 @@
       <c r="D221" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E221" s="1">
-        <v>28466</v>
+      <c r="E221" s="3">
+        <v>29359</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>1489</v>
@@ -25930,8 +25932,8 @@
       <c r="D222" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E222" s="1">
-        <v>33525</v>
+      <c r="E222" s="3">
+        <v>29360</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>1496</v>
@@ -25989,8 +25991,8 @@
       <c r="D223" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E223" s="1">
-        <v>33541</v>
+      <c r="E223" s="3">
+        <v>29361</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>1502</v>
@@ -26048,8 +26050,8 @@
       <c r="D224" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E224" s="1">
-        <v>35541</v>
+      <c r="E224" s="3">
+        <v>29362</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>1508</v>
@@ -26107,8 +26109,8 @@
       <c r="D225" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E225" s="1">
-        <v>35876</v>
+      <c r="E225" s="3">
+        <v>29363</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>1515</v>
@@ -26166,8 +26168,8 @@
       <c r="D226" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E226" s="1">
-        <v>32187</v>
+      <c r="E226" s="3">
+        <v>29364</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>1522</v>
@@ -26228,8 +26230,8 @@
       <c r="D227" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E227" s="1">
-        <v>35836</v>
+      <c r="E227" s="3">
+        <v>29365</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>1530</v>
@@ -26290,8 +26292,8 @@
       <c r="D228" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E228" s="1">
-        <v>33377</v>
+      <c r="E228" s="3">
+        <v>29366</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>1536</v>
@@ -26352,8 +26354,8 @@
       <c r="D229" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E229" s="1">
-        <v>36343</v>
+      <c r="E229" s="3">
+        <v>29367</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>1542</v>
@@ -26411,8 +26413,8 @@
       <c r="D230" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E230" s="1">
-        <v>36572</v>
+      <c r="E230" s="3">
+        <v>29368</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>1549</v>
@@ -26470,8 +26472,8 @@
       <c r="D231" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E231" s="1">
-        <v>35382</v>
+      <c r="E231" s="3">
+        <v>29369</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>1555</v>
@@ -26529,8 +26531,8 @@
       <c r="D232" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E232" s="1">
-        <v>35616</v>
+      <c r="E232" s="3">
+        <v>29370</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>1561</v>
@@ -26591,8 +26593,8 @@
       <c r="D233" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E233" s="1">
-        <v>35708</v>
+      <c r="E233" s="3">
+        <v>29371</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>1567</v>
@@ -26650,8 +26652,8 @@
       <c r="D234" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E234" s="1">
-        <v>36275</v>
+      <c r="E234" s="3">
+        <v>29372</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>1573</v>
@@ -26709,8 +26711,8 @@
       <c r="D235" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E235" s="1">
-        <v>35972</v>
+      <c r="E235" s="3">
+        <v>29373</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>1579</v>
@@ -26768,8 +26770,8 @@
       <c r="D236" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E236" s="1">
-        <v>35606</v>
+      <c r="E236" s="3">
+        <v>29374</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>1584</v>
@@ -26827,8 +26829,8 @@
       <c r="D237" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E237" s="1">
-        <v>35665</v>
+      <c r="E237" s="3">
+        <v>29375</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>1591</v>
@@ -26889,8 +26891,8 @@
       <c r="D238" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E238" s="1">
-        <v>35089</v>
+      <c r="E238" s="3">
+        <v>29376</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>1598</v>
@@ -26945,8 +26947,8 @@
       <c r="D239" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E239" s="1">
-        <v>35662</v>
+      <c r="E239" s="3">
+        <v>29377</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>1605</v>
@@ -27004,8 +27006,8 @@
       <c r="D240" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E240" s="1">
-        <v>36491</v>
+      <c r="E240" s="3">
+        <v>29378</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>1612</v>
@@ -27060,8 +27062,8 @@
       <c r="D241" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E241" s="1">
-        <v>31495</v>
+      <c r="E241" s="3">
+        <v>29379</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>1618</v>
@@ -27122,8 +27124,8 @@
       <c r="D242" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E242" s="1">
-        <v>35522</v>
+      <c r="E242" s="3">
+        <v>29380</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>1624</v>
@@ -27181,8 +27183,8 @@
       <c r="D243" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E243" s="1">
-        <v>30233</v>
+      <c r="E243" s="3">
+        <v>29381</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>1631</v>
@@ -27240,8 +27242,8 @@
       <c r="D244" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E244" s="1">
-        <v>33929</v>
+      <c r="E244" s="3">
+        <v>29382</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>1636</v>
@@ -27302,8 +27304,8 @@
       <c r="D245" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E245" s="1">
-        <v>35470</v>
+      <c r="E245" s="3">
+        <v>29383</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>1643</v>
@@ -27361,8 +27363,8 @@
       <c r="D246" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E246" s="1">
-        <v>29826</v>
+      <c r="E246" s="3">
+        <v>29384</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>1649</v>
@@ -27423,8 +27425,8 @@
       <c r="D247" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E247" s="1">
-        <v>32861</v>
+      <c r="E247" s="3">
+        <v>29385</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>1654</v>
@@ -27482,8 +27484,8 @@
       <c r="D248" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E248" s="1">
-        <v>35404</v>
+      <c r="E248" s="3">
+        <v>29386</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>1661</v>
@@ -27541,8 +27543,8 @@
       <c r="D249" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E249" s="1">
-        <v>35674</v>
+      <c r="E249" s="3">
+        <v>29387</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>1666</v>
@@ -27597,8 +27599,8 @@
       <c r="D250" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E250" s="1">
-        <v>34717</v>
+      <c r="E250" s="3">
+        <v>29388</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>1672</v>
@@ -27656,8 +27658,8 @@
       <c r="D251" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E251" s="1">
-        <v>34813</v>
+      <c r="E251" s="3">
+        <v>29389</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>1679</v>
@@ -27718,8 +27720,8 @@
       <c r="D252" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E252" s="1">
-        <v>35691</v>
+      <c r="E252" s="3">
+        <v>29390</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>1686</v>
@@ -27777,8 +27779,8 @@
       <c r="D253" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E253" s="1">
-        <v>36118</v>
+      <c r="E253" s="3">
+        <v>29391</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>1693</v>
@@ -27836,8 +27838,8 @@
       <c r="D254" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E254" s="1">
-        <v>36041</v>
+      <c r="E254" s="3">
+        <v>29392</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>1698</v>
@@ -27895,8 +27897,8 @@
       <c r="D255" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E255" s="1">
-        <v>35039</v>
+      <c r="E255" s="3">
+        <v>29393</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>1702</v>
@@ -27957,8 +27959,8 @@
       <c r="D256" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E256" s="1">
-        <v>34897</v>
+      <c r="E256" s="3">
+        <v>29394</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>1710</v>
@@ -28019,8 +28021,8 @@
       <c r="D257" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E257" s="1">
-        <v>35269</v>
+      <c r="E257" s="3">
+        <v>29395</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>1716</v>
@@ -28075,8 +28077,8 @@
       <c r="D258" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E258" s="1">
-        <v>32557</v>
+      <c r="E258" s="3">
+        <v>29396</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>1721</v>
@@ -28137,8 +28139,8 @@
       <c r="D259" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E259" s="1">
-        <v>32562</v>
+      <c r="E259" s="3">
+        <v>29397</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>1730</v>
@@ -28196,8 +28198,8 @@
       <c r="D260" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E260" s="1">
-        <v>34020</v>
+      <c r="E260" s="3">
+        <v>29398</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>1736</v>
@@ -28255,8 +28257,8 @@
       <c r="D261" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E261" s="1">
-        <v>34123</v>
+      <c r="E261" s="3">
+        <v>29399</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>1743</v>
@@ -28314,8 +28316,8 @@
       <c r="D262" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E262" s="1">
-        <v>34230</v>
+      <c r="E262" s="3">
+        <v>29400</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>1749</v>
@@ -28373,8 +28375,8 @@
       <c r="D263" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E263" s="1">
-        <v>34676</v>
+      <c r="E263" s="3">
+        <v>29401</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>1756</v>
@@ -28435,8 +28437,8 @@
       <c r="D264" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E264" s="1">
-        <v>34787</v>
+      <c r="E264" s="3">
+        <v>29402</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>1763</v>
@@ -28494,8 +28496,8 @@
       <c r="D265" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E265" s="1">
-        <v>35075</v>
+      <c r="E265" s="3">
+        <v>29403</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>1768</v>
@@ -28553,8 +28555,8 @@
       <c r="D266" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E266" s="1">
-        <v>35119</v>
+      <c r="E266" s="3">
+        <v>29404</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>1775</v>
@@ -28612,8 +28614,8 @@
       <c r="D267" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E267" s="1">
-        <v>35420</v>
+      <c r="E267" s="3">
+        <v>29405</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>1782</v>
@@ -28671,8 +28673,8 @@
       <c r="D268" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E268" s="1">
-        <v>35449</v>
+      <c r="E268" s="3">
+        <v>29406</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>1789</v>
@@ -28733,8 +28735,8 @@
       <c r="D269" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E269" s="1">
-        <v>36148</v>
+      <c r="E269" s="3">
+        <v>29407</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>1794</v>
@@ -28795,8 +28797,8 @@
       <c r="D270" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E270" s="1">
-        <v>36448</v>
+      <c r="E270" s="3">
+        <v>29408</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>1802</v>
@@ -28857,8 +28859,8 @@
       <c r="D271" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E271" s="1">
-        <v>31823</v>
+      <c r="E271" s="3">
+        <v>29409</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>1808</v>
@@ -28916,8 +28918,8 @@
       <c r="D272" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E272" s="1">
-        <v>35131</v>
+      <c r="E272" s="3">
+        <v>29410</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>1814</v>
@@ -28975,8 +28977,8 @@
       <c r="D273" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E273" s="1">
-        <v>35272</v>
+      <c r="E273" s="3">
+        <v>29411</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>1821</v>
@@ -29034,8 +29036,8 @@
       <c r="D274" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E274" s="1">
-        <v>35568</v>
+      <c r="E274" s="3">
+        <v>29412</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>1828</v>
@@ -29093,8 +29095,8 @@
       <c r="D275" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E275" s="1">
-        <v>35599</v>
+      <c r="E275" s="3">
+        <v>29413</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>1835</v>
@@ -29152,8 +29154,8 @@
       <c r="D276" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E276" s="1">
-        <v>35808</v>
+      <c r="E276" s="3">
+        <v>29414</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>1842</v>
@@ -29214,8 +29216,8 @@
       <c r="D277" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E277" s="1">
-        <v>36013</v>
+      <c r="E277" s="3">
+        <v>29415</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>1848</v>
@@ -29273,8 +29275,8 @@
       <c r="D278" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E278" s="1">
-        <v>30051</v>
+      <c r="E278" s="3">
+        <v>29416</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>1855</v>
@@ -29329,8 +29331,8 @@
       <c r="D279" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E279" s="1">
-        <v>30899</v>
+      <c r="E279" s="3">
+        <v>29417</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>1860</v>
@@ -29388,8 +29390,8 @@
       <c r="D280" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E280" s="1">
-        <v>32641</v>
+      <c r="E280" s="3">
+        <v>29418</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>1866</v>
@@ -29450,8 +29452,8 @@
       <c r="D281" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E281" s="1">
-        <v>32940</v>
+      <c r="E281" s="3">
+        <v>29419</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>1873</v>
@@ -29509,8 +29511,8 @@
       <c r="D282" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E282" s="1">
-        <v>32962</v>
+      <c r="E282" s="3">
+        <v>29420</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>1880</v>
@@ -29568,8 +29570,8 @@
       <c r="D283" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E283" s="1">
-        <v>34525</v>
+      <c r="E283" s="3">
+        <v>29421</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>1887</v>
@@ -29627,8 +29629,8 @@
       <c r="D284" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E284" s="1">
-        <v>34701</v>
+      <c r="E284" s="3">
+        <v>29422</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>1894</v>
@@ -29689,8 +29691,8 @@
       <c r="D285" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E285" s="1">
-        <v>34762</v>
+      <c r="E285" s="3">
+        <v>29423</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>1900</v>
@@ -29748,8 +29750,8 @@
       <c r="D286" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E286" s="1">
-        <v>34784</v>
+      <c r="E286" s="3">
+        <v>29424</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>1907</v>
@@ -29807,8 +29809,8 @@
       <c r="D287" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E287" s="1">
-        <v>34962</v>
+      <c r="E287" s="3">
+        <v>29425</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>1913</v>
@@ -29869,8 +29871,8 @@
       <c r="D288" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E288" s="1">
-        <v>35069</v>
+      <c r="E288" s="3">
+        <v>29426</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>1919</v>
@@ -29925,8 +29927,8 @@
       <c r="D289" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E289" s="1">
-        <v>35319</v>
+      <c r="E289" s="3">
+        <v>29427</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>1924</v>
@@ -29987,8 +29989,8 @@
       <c r="D290" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E290" s="1">
-        <v>29400</v>
+      <c r="E290" s="3">
+        <v>29428</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>1930</v>
@@ -30043,8 +30045,8 @@
       <c r="D291" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E291" s="1">
-        <v>32156</v>
+      <c r="E291" s="3">
+        <v>29429</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>1934</v>
@@ -30102,8 +30104,8 @@
       <c r="D292" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E292" s="1">
-        <v>32796</v>
+      <c r="E292" s="3">
+        <v>29430</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>1942</v>
@@ -30164,8 +30166,8 @@
       <c r="D293" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E293" s="1">
-        <v>34197</v>
+      <c r="E293" s="3">
+        <v>29431</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>1948</v>
@@ -30226,8 +30228,8 @@
       <c r="D294" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E294" s="1">
-        <v>34680</v>
+      <c r="E294" s="3">
+        <v>29432</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>1953</v>
@@ -30282,8 +30284,8 @@
       <c r="D295" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E295" s="1">
-        <v>34819</v>
+      <c r="E295" s="3">
+        <v>29433</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>1959</v>
@@ -30341,8 +30343,8 @@
       <c r="D296" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E296" s="1">
-        <v>34876</v>
+      <c r="E296" s="3">
+        <v>29434</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>1965</v>
@@ -30403,8 +30405,8 @@
       <c r="D297" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E297" s="1">
-        <v>34878</v>
+      <c r="E297" s="3">
+        <v>29435</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>1972</v>
@@ -30462,8 +30464,8 @@
       <c r="D298" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E298" s="1">
-        <v>35241</v>
+      <c r="E298" s="3">
+        <v>29436</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>1979</v>
@@ -30521,8 +30523,8 @@
       <c r="D299" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E299" s="1">
-        <v>35579</v>
+      <c r="E299" s="3">
+        <v>29437</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>1986</v>
@@ -30580,8 +30582,8 @@
       <c r="D300" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E300" s="1">
-        <v>35793</v>
+      <c r="E300" s="3">
+        <v>29438</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>1991</v>
@@ -30639,8 +30641,8 @@
       <c r="D301" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E301" s="1">
-        <v>35794</v>
+      <c r="E301" s="3">
+        <v>29439</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>1997</v>
@@ -30698,8 +30700,8 @@
       <c r="D302" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E302" s="1">
-        <v>36214</v>
+      <c r="E302" s="3">
+        <v>29440</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>2004</v>
@@ -30757,8 +30759,8 @@
       <c r="D303" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E303" s="1">
-        <v>36426</v>
+      <c r="E303" s="3">
+        <v>29441</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>2009</v>
@@ -30816,8 +30818,8 @@
       <c r="D304" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E304" s="1">
-        <v>34376</v>
+      <c r="E304" s="3">
+        <v>29442</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>2015</v>
@@ -30875,8 +30877,8 @@
       <c r="D305" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E305" s="1">
-        <v>34411</v>
+      <c r="E305" s="3">
+        <v>29443</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>2021</v>
@@ -30934,8 +30936,8 @@
       <c r="D306" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E306" s="1">
-        <v>34927</v>
+      <c r="E306" s="3">
+        <v>29444</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>2027</v>
@@ -30993,8 +30995,8 @@
       <c r="D307" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E307" s="1">
-        <v>35488</v>
+      <c r="E307" s="3">
+        <v>29445</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>2034</v>
@@ -31052,8 +31054,8 @@
       <c r="D308" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E308" s="1">
-        <v>35535</v>
+      <c r="E308" s="3">
+        <v>29446</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>2040</v>
@@ -31111,8 +31113,8 @@
       <c r="D309" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E309" s="1">
-        <v>35595</v>
+      <c r="E309" s="3">
+        <v>29447</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>2045</v>
@@ -31170,8 +31172,8 @@
       <c r="D310" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E310" s="1">
-        <v>35972</v>
+      <c r="E310" s="3">
+        <v>29448</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>2051</v>
@@ -31229,8 +31231,8 @@
       <c r="D311" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E311" s="1">
-        <v>33061</v>
+      <c r="E311" s="3">
+        <v>29449</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>2057</v>
@@ -31288,8 +31290,8 @@
       <c r="D312" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E312" s="1">
-        <v>34832</v>
+      <c r="E312" s="3">
+        <v>29450</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>2062</v>
@@ -31347,8 +31349,8 @@
       <c r="D313" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E313" s="1">
-        <v>34916</v>
+      <c r="E313" s="3">
+        <v>29451</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>2067</v>
@@ -31409,8 +31411,8 @@
       <c r="D314" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E314" s="1">
-        <v>34922</v>
+      <c r="E314" s="3">
+        <v>29452</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>2074</v>
@@ -31468,8 +31470,8 @@
       <c r="D315" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E315" s="1">
-        <v>35093</v>
+      <c r="E315" s="3">
+        <v>29453</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>2081</v>
@@ -31530,8 +31532,8 @@
       <c r="D316" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E316" s="1">
-        <v>35230</v>
+      <c r="E316" s="3">
+        <v>29454</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>2086</v>
@@ -31589,8 +31591,8 @@
       <c r="D317" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E317" s="1">
-        <v>35696</v>
+      <c r="E317" s="3">
+        <v>29455</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>2093</v>
@@ -31648,8 +31650,8 @@
       <c r="D318" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E318" s="1">
-        <v>36112</v>
+      <c r="E318" s="3">
+        <v>29456</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>2098</v>
@@ -31710,8 +31712,8 @@
       <c r="D319" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E319" s="1">
-        <v>31547</v>
+      <c r="E319" s="3">
+        <v>29457</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>2104</v>
@@ -31772,8 +31774,8 @@
       <c r="D320" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E320" s="1">
-        <v>31907</v>
+      <c r="E320" s="3">
+        <v>29458</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>2110</v>
@@ -31831,8 +31833,8 @@
       <c r="D321" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E321" s="1">
-        <v>32823</v>
+      <c r="E321" s="3">
+        <v>29459</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>2115</v>
@@ -31890,8 +31892,8 @@
       <c r="D322" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E322" s="1">
-        <v>33924</v>
+      <c r="E322" s="3">
+        <v>29460</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>2121</v>
@@ -31946,8 +31948,8 @@
       <c r="D323" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E323" s="1">
-        <v>34822</v>
+      <c r="E323" s="3">
+        <v>29461</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>2127</v>
@@ -32005,8 +32007,8 @@
       <c r="D324" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E324" s="1">
-        <v>35019</v>
+      <c r="E324" s="3">
+        <v>29462</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>2133</v>
@@ -32064,8 +32066,8 @@
       <c r="D325" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E325" s="1">
-        <v>35618</v>
+      <c r="E325" s="3">
+        <v>29463</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>2139</v>
@@ -32123,8 +32125,8 @@
       <c r="D326" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E326" s="1">
-        <v>34023</v>
+      <c r="E326" s="3">
+        <v>29464</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>2146</v>
@@ -32185,8 +32187,8 @@
       <c r="D327" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E327" s="1">
-        <v>34779</v>
+      <c r="E327" s="3">
+        <v>29465</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>2154</v>
@@ -32241,8 +32243,8 @@
       <c r="D328" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E328" s="1">
-        <v>35264</v>
+      <c r="E328" s="3">
+        <v>29466</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>2158</v>
@@ -32297,8 +32299,8 @@
       <c r="D329" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E329" s="1">
-        <v>30360</v>
+      <c r="E329" s="3">
+        <v>29467</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>2163</v>
@@ -32356,8 +32358,8 @@
       <c r="D330" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E330" s="1">
-        <v>32071</v>
+      <c r="E330" s="3">
+        <v>29468</v>
       </c>
       <c r="F330" s="1" t="s">
         <v>2170</v>
@@ -32418,8 +32420,8 @@
       <c r="D331" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E331" s="1">
-        <v>35436</v>
+      <c r="E331" s="3">
+        <v>29469</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>2176</v>
@@ -32483,8 +32485,8 @@
       <c r="D332" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E332" s="1">
-        <v>35940</v>
+      <c r="E332" s="3">
+        <v>29470</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>2183</v>
@@ -32545,8 +32547,8 @@
       <c r="D333" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E333" s="1">
-        <v>36183</v>
+      <c r="E333" s="3">
+        <v>29471</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>2191</v>
@@ -32601,8 +32603,8 @@
       <c r="D334" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E334" s="1">
-        <v>35594</v>
+      <c r="E334" s="3">
+        <v>29472</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>2197</v>
@@ -32660,8 +32662,8 @@
       <c r="D335" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E335" s="1">
-        <v>35822</v>
+      <c r="E335" s="3">
+        <v>29473</v>
       </c>
       <c r="F335" s="1" t="s">
         <v>2204</v>
@@ -32719,8 +32721,8 @@
       <c r="D336" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E336" s="1">
-        <v>35803</v>
+      <c r="E336" s="3">
+        <v>29474</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>2210</v>
@@ -32778,8 +32780,8 @@
       <c r="D337" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E337" s="1">
-        <v>32788</v>
+      <c r="E337" s="3">
+        <v>29475</v>
       </c>
       <c r="F337" s="1" t="s">
         <v>2217</v>
@@ -32834,8 +32836,8 @@
       <c r="D338" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E338" s="1">
-        <v>35582</v>
+      <c r="E338" s="3">
+        <v>29476</v>
       </c>
       <c r="F338" s="1" t="s">
         <v>2222</v>
@@ -32896,8 +32898,8 @@
       <c r="D339" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E339" s="1">
-        <v>35850</v>
+      <c r="E339" s="3">
+        <v>29477</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>2230</v>
@@ -32958,8 +32960,8 @@
       <c r="D340" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E340" s="1">
-        <v>36405</v>
+      <c r="E340" s="3">
+        <v>29478</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>2237</v>
@@ -33017,8 +33019,8 @@
       <c r="D341" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E341" s="1">
-        <v>33252</v>
+      <c r="E341" s="3">
+        <v>29479</v>
       </c>
       <c r="F341" s="1" t="s">
         <v>2243</v>
@@ -33076,8 +33078,8 @@
       <c r="D342" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E342" s="1">
-        <v>34538</v>
+      <c r="E342" s="3">
+        <v>29480</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>2250</v>
@@ -33135,8 +33137,8 @@
       <c r="D343" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E343" s="1">
-        <v>30786</v>
+      <c r="E343" s="3">
+        <v>29481</v>
       </c>
       <c r="F343" s="1" t="s">
         <v>2257</v>
@@ -33194,8 +33196,8 @@
       <c r="D344" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E344" s="1">
-        <v>26498</v>
+      <c r="E344" s="3">
+        <v>29482</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>2265</v>
@@ -33256,8 +33258,8 @@
       <c r="D345" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E345" s="1">
-        <v>35583</v>
+      <c r="E345" s="3">
+        <v>29483</v>
       </c>
       <c r="F345" s="1" t="s">
         <v>2270</v>
@@ -33315,8 +33317,8 @@
       <c r="D346" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E346" s="1">
-        <v>33997</v>
+      <c r="E346" s="3">
+        <v>29484</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>2277</v>
@@ -33374,8 +33376,8 @@
       <c r="D347" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E347" s="1">
-        <v>35020</v>
+      <c r="E347" s="3">
+        <v>29485</v>
       </c>
       <c r="F347" s="1" t="s">
         <v>2284</v>
@@ -33433,8 +33435,8 @@
       <c r="D348" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E348" s="1">
-        <v>35753</v>
+      <c r="E348" s="3">
+        <v>29486</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>2291</v>
@@ -33489,8 +33491,8 @@
       <c r="D349" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E349" s="1">
-        <v>35656</v>
+      <c r="E349" s="3">
+        <v>29487</v>
       </c>
       <c r="F349" s="1" t="s">
         <v>2296</v>
@@ -33548,8 +33550,8 @@
       <c r="D350" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E350" s="1">
-        <v>24674</v>
+      <c r="E350" s="3">
+        <v>29488</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>2303</v>
@@ -33607,8 +33609,8 @@
       <c r="D351" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E351" s="1">
-        <v>35067</v>
+      <c r="E351" s="3">
+        <v>29489</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>2309</v>
@@ -33669,8 +33671,8 @@
       <c r="D352" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E352" s="1">
-        <v>35746</v>
+      <c r="E352" s="3">
+        <v>29490</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>2315</v>
@@ -33728,8 +33730,8 @@
       <c r="D353" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E353" s="1">
-        <v>35177</v>
+      <c r="E353" s="3">
+        <v>29491</v>
       </c>
       <c r="F353" s="1" t="s">
         <v>2320</v>
@@ -33787,8 +33789,8 @@
       <c r="D354" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E354" s="1">
-        <v>35197</v>
+      <c r="E354" s="3">
+        <v>29492</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>2327</v>
@@ -33846,8 +33848,8 @@
       <c r="D355" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E355" s="1">
-        <v>35470</v>
+      <c r="E355" s="3">
+        <v>29493</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>2334</v>
@@ -33905,8 +33907,8 @@
       <c r="D356" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E356" s="1">
-        <v>33307</v>
+      <c r="E356" s="3">
+        <v>29494</v>
       </c>
       <c r="F356" s="1" t="s">
         <v>2339</v>
@@ -33964,8 +33966,8 @@
       <c r="D357" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E357" s="1">
-        <v>35919</v>
+      <c r="E357" s="3">
+        <v>29495</v>
       </c>
       <c r="F357" s="1" t="s">
         <v>2345</v>
@@ -34023,8 +34025,8 @@
       <c r="D358" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E358" s="1">
-        <v>35476</v>
+      <c r="E358" s="3">
+        <v>29496</v>
       </c>
       <c r="F358" s="1" t="s">
         <v>2352</v>
@@ -34082,8 +34084,8 @@
       <c r="D359" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E359" s="1">
-        <v>33114</v>
+      <c r="E359" s="3">
+        <v>29497</v>
       </c>
       <c r="F359" s="1" t="s">
         <v>2358</v>
@@ -34144,8 +34146,8 @@
       <c r="D360" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E360" s="1">
-        <v>31186</v>
+      <c r="E360" s="3">
+        <v>29498</v>
       </c>
       <c r="F360" s="1" t="s">
         <v>2364</v>
@@ -34203,8 +34205,8 @@
       <c r="D361" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E361" s="1">
-        <v>34564</v>
+      <c r="E361" s="3">
+        <v>29499</v>
       </c>
       <c r="F361" s="1" t="s">
         <v>2370</v>
@@ -34265,8 +34267,8 @@
       <c r="D362" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E362" s="1">
-        <v>35513</v>
+      <c r="E362" s="3">
+        <v>29500</v>
       </c>
       <c r="F362" s="1" t="s">
         <v>2378</v>
@@ -34324,8 +34326,8 @@
       <c r="D363" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E363" s="1">
-        <v>34262</v>
+      <c r="E363" s="3">
+        <v>29501</v>
       </c>
       <c r="F363" s="1" t="s">
         <v>2384</v>
@@ -34380,8 +34382,8 @@
       <c r="D364" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E364" s="1">
-        <v>35381</v>
+      <c r="E364" s="3">
+        <v>29502</v>
       </c>
       <c r="F364" s="1" t="s">
         <v>2390</v>
@@ -34442,8 +34444,8 @@
       <c r="D365" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E365" s="1">
-        <v>28573</v>
+      <c r="E365" s="3">
+        <v>29503</v>
       </c>
       <c r="F365" s="1" t="s">
         <v>2394</v>
@@ -34504,8 +34506,8 @@
       <c r="D366" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E366" s="1">
-        <v>35213</v>
+      <c r="E366" s="3">
+        <v>29504</v>
       </c>
       <c r="F366" s="1" t="s">
         <v>2402</v>
@@ -34563,8 +34565,8 @@
       <c r="D367" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E367" s="1">
-        <v>35629</v>
+      <c r="E367" s="3">
+        <v>29505</v>
       </c>
       <c r="F367" s="1" t="s">
         <v>2409</v>
@@ -34622,8 +34624,8 @@
       <c r="D368" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E368" s="1">
-        <v>36262</v>
+      <c r="E368" s="3">
+        <v>29506</v>
       </c>
       <c r="F368" s="1" t="s">
         <v>2414</v>
@@ -34678,8 +34680,8 @@
       <c r="D369" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E369" s="1">
-        <v>35591</v>
+      <c r="E369" s="3">
+        <v>29507</v>
       </c>
       <c r="F369" s="1" t="s">
         <v>2418</v>
@@ -34734,8 +34736,8 @@
       <c r="D370" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E370" s="1">
-        <v>34680</v>
+      <c r="E370" s="3">
+        <v>29508</v>
       </c>
       <c r="F370" s="1" t="s">
         <v>2424</v>
@@ -34796,8 +34798,8 @@
       <c r="D371" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E371" s="1">
-        <v>35695</v>
+      <c r="E371" s="3">
+        <v>29509</v>
       </c>
       <c r="F371" s="1" t="s">
         <v>2430</v>
@@ -34852,8 +34854,8 @@
       <c r="D372" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E372" s="1">
-        <v>32201</v>
+      <c r="E372" s="3">
+        <v>29510</v>
       </c>
       <c r="F372" s="1" t="s">
         <v>2435</v>
@@ -34911,8 +34913,8 @@
       <c r="D373" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E373" s="1">
-        <v>35672</v>
+      <c r="E373" s="3">
+        <v>29511</v>
       </c>
       <c r="F373" s="1" t="s">
         <v>2442</v>
@@ -34970,8 +34972,8 @@
       <c r="D374" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E374" s="1">
-        <v>36103</v>
+      <c r="E374" s="3">
+        <v>29512</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>2448</v>
@@ -35032,8 +35034,8 @@
       <c r="D375" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E375" s="1">
-        <v>36409</v>
+      <c r="E375" s="3">
+        <v>29513</v>
       </c>
       <c r="F375" s="1" t="s">
         <v>2454</v>
@@ -35094,8 +35096,8 @@
       <c r="D376" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E376" s="1">
-        <v>34440</v>
+      <c r="E376" s="3">
+        <v>29514</v>
       </c>
       <c r="F376" s="1" t="s">
         <v>2458</v>
@@ -35156,8 +35158,8 @@
       <c r="D377" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E377" s="1">
-        <v>35489</v>
+      <c r="E377" s="3">
+        <v>29515</v>
       </c>
       <c r="F377" s="1" t="s">
         <v>2464</v>
@@ -35212,8 +35214,8 @@
       <c r="D378" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E378" s="1">
-        <v>36167</v>
+      <c r="E378" s="3">
+        <v>29516</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>2469</v>
@@ -35274,8 +35276,8 @@
       <c r="D379" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E379" s="1">
-        <v>35868</v>
+      <c r="E379" s="3">
+        <v>29517</v>
       </c>
       <c r="F379" s="1" t="s">
         <v>2474</v>
@@ -35333,8 +35335,8 @@
       <c r="D380" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E380" s="1">
-        <v>33706</v>
+      <c r="E380" s="3">
+        <v>29518</v>
       </c>
       <c r="F380" s="1" t="s">
         <v>2481</v>
@@ -35392,8 +35394,8 @@
       <c r="D381" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E381" s="1">
-        <v>28703</v>
+      <c r="E381" s="3">
+        <v>29519</v>
       </c>
       <c r="F381" s="1" t="s">
         <v>2487</v>
@@ -35448,8 +35450,8 @@
       <c r="D382" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E382" s="1">
-        <v>34128</v>
+      <c r="E382" s="3">
+        <v>29520</v>
       </c>
       <c r="F382" s="1" t="s">
         <v>2492</v>
@@ -35513,8 +35515,8 @@
       <c r="D383" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E383" s="1">
-        <v>35005</v>
+      <c r="E383" s="3">
+        <v>29521</v>
       </c>
       <c r="F383" s="1" t="s">
         <v>2498</v>
@@ -35572,8 +35574,8 @@
       <c r="D384" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E384" s="1">
-        <v>35074</v>
+      <c r="E384" s="3">
+        <v>29522</v>
       </c>
       <c r="F384" s="1" t="s">
         <v>2505</v>
@@ -35634,8 +35636,8 @@
       <c r="D385" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E385" s="1">
-        <v>34600</v>
+      <c r="E385" s="3">
+        <v>29523</v>
       </c>
       <c r="F385" s="1" t="s">
         <v>2511</v>
@@ -35693,8 +35695,8 @@
       <c r="D386" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E386" s="1">
-        <v>35658</v>
+      <c r="E386" s="3">
+        <v>29524</v>
       </c>
       <c r="F386" s="1" t="s">
         <v>2518</v>
@@ -35752,8 +35754,8 @@
       <c r="D387" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E387" s="1">
-        <v>35845</v>
+      <c r="E387" s="3">
+        <v>29525</v>
       </c>
       <c r="F387" s="1" t="s">
         <v>2524</v>
@@ -35814,8 +35816,8 @@
       <c r="D388" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E388" s="1">
-        <v>35880</v>
+      <c r="E388" s="3">
+        <v>29526</v>
       </c>
       <c r="F388" s="1" t="s">
         <v>2531</v>
@@ -35873,8 +35875,8 @@
       <c r="D389" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E389" s="1">
-        <v>33181</v>
+      <c r="E389" s="3">
+        <v>29527</v>
       </c>
       <c r="F389" s="1" t="s">
         <v>2537</v>
@@ -35932,8 +35934,8 @@
       <c r="D390" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E390" s="1">
-        <v>34781</v>
+      <c r="E390" s="3">
+        <v>29528</v>
       </c>
       <c r="F390" s="1" t="s">
         <v>2543</v>
@@ -35991,8 +35993,8 @@
       <c r="D391" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E391" s="1">
-        <v>35332</v>
+      <c r="E391" s="3">
+        <v>29529</v>
       </c>
       <c r="F391" s="1" t="s">
         <v>2550</v>
@@ -36050,8 +36052,8 @@
       <c r="D392" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E392" s="1">
-        <v>35387</v>
+      <c r="E392" s="3">
+        <v>29530</v>
       </c>
       <c r="F392" s="1" t="s">
         <v>2555</v>
@@ -36106,8 +36108,8 @@
       <c r="D393" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E393" s="1">
-        <v>36510</v>
+      <c r="E393" s="3">
+        <v>29531</v>
       </c>
       <c r="F393" s="1" t="s">
         <v>2560</v>
@@ -36165,8 +36167,8 @@
       <c r="D394" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E394" s="1">
-        <v>35951</v>
+      <c r="E394" s="3">
+        <v>29532</v>
       </c>
       <c r="F394" s="1" t="s">
         <v>2565</v>
@@ -36227,8 +36229,8 @@
       <c r="D395" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E395" s="1">
-        <v>35471</v>
+      <c r="E395" s="3">
+        <v>29533</v>
       </c>
       <c r="F395" s="1" t="s">
         <v>2572</v>
@@ -36286,8 +36288,8 @@
       <c r="D396" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E396" s="1">
-        <v>34501</v>
+      <c r="E396" s="3">
+        <v>29534</v>
       </c>
       <c r="F396" s="1" t="s">
         <v>2577</v>
@@ -36345,8 +36347,8 @@
       <c r="D397" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E397" s="1">
-        <v>34979</v>
+      <c r="E397" s="3">
+        <v>29535</v>
       </c>
       <c r="F397" s="1" t="s">
         <v>2584</v>
@@ -36404,8 +36406,8 @@
       <c r="D398" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E398" s="1">
-        <v>36140</v>
+      <c r="E398" s="3">
+        <v>29536</v>
       </c>
       <c r="F398" s="1" t="s">
         <v>2590</v>
@@ -36463,8 +36465,8 @@
       <c r="D399" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E399" s="1">
-        <v>35937</v>
+      <c r="E399" s="3">
+        <v>29537</v>
       </c>
       <c r="F399" s="1" t="s">
         <v>2597</v>
@@ -36522,8 +36524,8 @@
       <c r="D400" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E400" s="1">
-        <v>35990</v>
+      <c r="E400" s="3">
+        <v>29538</v>
       </c>
       <c r="F400" s="1" t="s">
         <v>2604</v>
@@ -36578,8 +36580,8 @@
       <c r="D401" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E401" s="1">
-        <v>35622</v>
+      <c r="E401" s="3">
+        <v>29539</v>
       </c>
       <c r="F401" s="1" t="s">
         <v>2610</v>
@@ -36637,8 +36639,8 @@
       <c r="D402" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E402" s="1">
-        <v>26532</v>
+      <c r="E402" s="3">
+        <v>29540</v>
       </c>
       <c r="F402" s="1" t="s">
         <v>2617</v>
@@ -36699,8 +36701,8 @@
       <c r="D403" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E403" s="1">
-        <v>36344</v>
+      <c r="E403" s="3">
+        <v>29541</v>
       </c>
       <c r="F403" s="1" t="s">
         <v>2624</v>
@@ -36761,8 +36763,8 @@
       <c r="D404" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E404" s="1">
-        <v>32034</v>
+      <c r="E404" s="3">
+        <v>29542</v>
       </c>
       <c r="F404" s="1" t="s">
         <v>2630</v>
@@ -36823,8 +36825,8 @@
       <c r="D405" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E405" s="1">
-        <v>35914</v>
+      <c r="E405" s="3">
+        <v>29543</v>
       </c>
       <c r="F405" s="1" t="s">
         <v>2636</v>
@@ -36879,8 +36881,8 @@
       <c r="D406" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E406" s="1">
-        <v>32498</v>
+      <c r="E406" s="3">
+        <v>29544</v>
       </c>
       <c r="F406" s="1" t="s">
         <v>2642</v>
@@ -36938,8 +36940,8 @@
       <c r="D407" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E407" s="1">
-        <v>34398</v>
+      <c r="E407" s="3">
+        <v>29545</v>
       </c>
       <c r="F407" s="1" t="s">
         <v>2647</v>
@@ -36997,8 +36999,8 @@
       <c r="D408" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E408" s="1">
-        <v>36107</v>
+      <c r="E408" s="3">
+        <v>29546</v>
       </c>
       <c r="F408" s="1" t="s">
         <v>2654</v>
@@ -37053,8 +37055,8 @@
       <c r="D409" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E409" s="1">
-        <v>35480</v>
+      <c r="E409" s="3">
+        <v>29547</v>
       </c>
       <c r="F409" s="1" t="s">
         <v>2659</v>
@@ -37115,8 +37117,8 @@
       <c r="D410" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E410" s="1">
-        <v>36462</v>
+      <c r="E410" s="3">
+        <v>29548</v>
       </c>
       <c r="F410" s="1" t="s">
         <v>2665</v>
@@ -37174,8 +37176,8 @@
       <c r="D411" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E411" s="1">
-        <v>34423</v>
+      <c r="E411" s="3">
+        <v>29549</v>
       </c>
       <c r="F411" s="1" t="s">
         <v>2670</v>
@@ -37233,8 +37235,8 @@
       <c r="D412" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E412" s="1">
-        <v>35176</v>
+      <c r="E412" s="3">
+        <v>29550</v>
       </c>
       <c r="F412" s="1" t="s">
         <v>2676</v>
@@ -37292,8 +37294,8 @@
       <c r="D413" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E413" s="1">
-        <v>36191</v>
+      <c r="E413" s="3">
+        <v>29551</v>
       </c>
       <c r="F413" s="1" t="s">
         <v>2682</v>
@@ -37351,8 +37353,8 @@
       <c r="D414" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E414" s="1">
-        <v>36276</v>
+      <c r="E414" s="3">
+        <v>29552</v>
       </c>
       <c r="F414" s="1" t="s">
         <v>2689</v>
@@ -37413,8 +37415,8 @@
       <c r="D415" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E415" s="1">
-        <v>32027</v>
+      <c r="E415" s="3">
+        <v>29553</v>
       </c>
       <c r="F415" s="1" t="s">
         <v>2696</v>
@@ -37472,8 +37474,8 @@
       <c r="D416" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E416" s="1">
-        <v>34982</v>
+      <c r="E416" s="3">
+        <v>29554</v>
       </c>
       <c r="F416" s="1" t="s">
         <v>2702</v>
@@ -37534,8 +37536,8 @@
       <c r="D417" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E417" s="1">
-        <v>34927</v>
+      <c r="E417" s="3">
+        <v>29555</v>
       </c>
       <c r="F417" s="1" t="s">
         <v>2708</v>
@@ -37596,8 +37598,8 @@
       <c r="D418" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E418" s="1">
-        <v>35927</v>
+      <c r="E418" s="3">
+        <v>29556</v>
       </c>
       <c r="F418" s="1" t="s">
         <v>2714</v>
@@ -37655,8 +37657,8 @@
       <c r="D419" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E419" s="1">
-        <v>27185</v>
+      <c r="E419" s="3">
+        <v>29557</v>
       </c>
       <c r="F419" s="1" t="s">
         <v>2720</v>
@@ -37714,8 +37716,8 @@
       <c r="D420" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E420" s="1">
-        <v>36351</v>
+      <c r="E420" s="3">
+        <v>29558</v>
       </c>
       <c r="F420" s="1" t="s">
         <v>2726</v>
@@ -37776,8 +37778,8 @@
       <c r="D421" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E421" s="1">
-        <v>35297</v>
+      <c r="E421" s="3">
+        <v>29559</v>
       </c>
       <c r="F421" s="1" t="s">
         <v>2733</v>
@@ -37835,8 +37837,8 @@
       <c r="D422" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E422" s="1">
-        <v>35700</v>
+      <c r="E422" s="3">
+        <v>29560</v>
       </c>
       <c r="F422" s="1" t="s">
         <v>2738</v>
@@ -37894,8 +37896,8 @@
       <c r="D423" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E423" s="1">
-        <v>36343</v>
+      <c r="E423" s="3">
+        <v>29561</v>
       </c>
       <c r="F423" s="1" t="s">
         <v>2745</v>
@@ -37953,8 +37955,8 @@
       <c r="D424" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E424" s="1">
-        <v>34808</v>
+      <c r="E424" s="3">
+        <v>29562</v>
       </c>
       <c r="F424" s="1" t="s">
         <v>2752</v>
@@ -38012,8 +38014,8 @@
       <c r="D425" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E425" s="1">
-        <v>32944</v>
+      <c r="E425" s="3">
+        <v>29563</v>
       </c>
       <c r="F425" s="1" t="s">
         <v>2759</v>
@@ -38071,8 +38073,8 @@
       <c r="D426" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E426" s="1">
-        <v>31913</v>
+      <c r="E426" s="3">
+        <v>29564</v>
       </c>
       <c r="F426" s="1" t="s">
         <v>2765</v>
@@ -38127,8 +38129,8 @@
       <c r="D427" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E427" s="1">
-        <v>36538</v>
+      <c r="E427" s="3">
+        <v>29565</v>
       </c>
       <c r="F427" s="1" t="s">
         <v>2770</v>
@@ -38189,8 +38191,8 @@
       <c r="D428" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E428" s="1">
-        <v>31587</v>
+      <c r="E428" s="3">
+        <v>29566</v>
       </c>
       <c r="F428" s="1" t="s">
         <v>2778</v>
@@ -38251,8 +38253,8 @@
       <c r="D429" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E429" s="1">
-        <v>32839</v>
+      <c r="E429" s="3">
+        <v>29567</v>
       </c>
       <c r="F429" s="1" t="s">
         <v>2783</v>
@@ -38310,8 +38312,8 @@
       <c r="D430" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E430" s="1">
-        <v>33646</v>
+      <c r="E430" s="3">
+        <v>29568</v>
       </c>
       <c r="F430" s="1" t="s">
         <v>2788</v>
@@ -38369,8 +38371,8 @@
       <c r="D431" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E431" s="1">
-        <v>36234</v>
+      <c r="E431" s="3">
+        <v>29569</v>
       </c>
       <c r="F431" s="1" t="s">
         <v>2795</v>
@@ -38428,8 +38430,8 @@
       <c r="D432" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E432" s="1">
-        <v>30218</v>
+      <c r="E432" s="3">
+        <v>29570</v>
       </c>
       <c r="F432" s="1" t="s">
         <v>2801</v>
@@ -38487,8 +38489,8 @@
       <c r="D433" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E433" s="1">
-        <v>33581</v>
+      <c r="E433" s="3">
+        <v>29571</v>
       </c>
       <c r="F433" s="1" t="s">
         <v>2808</v>
@@ -38546,8 +38548,8 @@
       <c r="D434" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E434" s="1">
-        <v>35130</v>
+      <c r="E434" s="3">
+        <v>29572</v>
       </c>
       <c r="F434" s="1" t="s">
         <v>2814</v>
@@ -38602,8 +38604,8 @@
       <c r="D435" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E435" s="1">
-        <v>35250</v>
+      <c r="E435" s="3">
+        <v>29573</v>
       </c>
       <c r="F435" s="1" t="s">
         <v>2819</v>
@@ -38661,8 +38663,8 @@
       <c r="D436" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E436" s="1">
-        <v>35481</v>
+      <c r="E436" s="3">
+        <v>29574</v>
       </c>
       <c r="F436" s="1" t="s">
         <v>2826</v>
@@ -38720,8 +38722,8 @@
       <c r="D437" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E437" s="1">
-        <v>36455</v>
+      <c r="E437" s="3">
+        <v>29575</v>
       </c>
       <c r="F437" s="1" t="s">
         <v>2832</v>
@@ -38782,8 +38784,8 @@
       <c r="D438" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E438" s="1">
-        <v>26498</v>
+      <c r="E438" s="3">
+        <v>29576</v>
       </c>
       <c r="F438" s="1" t="s">
         <v>2838</v>
@@ -38844,8 +38846,8 @@
       <c r="D439" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E439" s="1">
-        <v>30860</v>
+      <c r="E439" s="3">
+        <v>29577</v>
       </c>
       <c r="F439" s="1" t="s">
         <v>2846</v>
@@ -38903,8 +38905,8 @@
       <c r="D440" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E440" s="1">
-        <v>31865</v>
+      <c r="E440" s="3">
+        <v>29578</v>
       </c>
       <c r="F440" s="1" t="s">
         <v>2851</v>
@@ -38962,8 +38964,8 @@
       <c r="D441" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E441" s="1">
-        <v>32683</v>
+      <c r="E441" s="3">
+        <v>29579</v>
       </c>
       <c r="F441" s="1" t="s">
         <v>2858</v>
@@ -39018,8 +39020,8 @@
       <c r="D442" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E442" s="1">
-        <v>33067</v>
+      <c r="E442" s="3">
+        <v>29580</v>
       </c>
       <c r="F442" s="1" t="s">
         <v>2863</v>
@@ -39080,8 +39082,8 @@
       <c r="D443" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E443" s="1">
-        <v>33198</v>
+      <c r="E443" s="3">
+        <v>29581</v>
       </c>
       <c r="F443" s="1" t="s">
         <v>2871</v>
@@ -39139,8 +39141,8 @@
       <c r="D444" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E444" s="1">
-        <v>33795</v>
+      <c r="E444" s="3">
+        <v>29582</v>
       </c>
       <c r="F444" s="1" t="s">
         <v>2877</v>
@@ -39198,8 +39200,8 @@
       <c r="D445" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E445" s="1">
-        <v>33840</v>
+      <c r="E445" s="3">
+        <v>29583</v>
       </c>
       <c r="F445" s="1" t="s">
         <v>2884</v>
@@ -39260,8 +39262,8 @@
       <c r="D446" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E446" s="1">
-        <v>33973</v>
+      <c r="E446" s="3">
+        <v>29584</v>
       </c>
       <c r="F446" s="1" t="s">
         <v>2891</v>
@@ -39322,8 +39324,8 @@
       <c r="D447" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E447" s="1">
-        <v>34556</v>
+      <c r="E447" s="3">
+        <v>29585</v>
       </c>
       <c r="F447" s="1" t="s">
         <v>2895</v>
@@ -39381,8 +39383,8 @@
       <c r="D448" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E448" s="1">
-        <v>34729</v>
+      <c r="E448" s="3">
+        <v>29586</v>
       </c>
       <c r="F448" s="1" t="s">
         <v>2901</v>
@@ -39443,8 +39445,8 @@
       <c r="D449" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E449" s="1">
-        <v>36388</v>
+      <c r="E449" s="3">
+        <v>29587</v>
       </c>
       <c r="F449" s="1" t="s">
         <v>2907</v>
@@ -39505,8 +39507,8 @@
       <c r="D450" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E450" s="1">
-        <v>27547</v>
+      <c r="E450" s="3">
+        <v>29588</v>
       </c>
       <c r="F450" s="1" t="s">
         <v>2913</v>
@@ -39567,8 +39569,8 @@
       <c r="D451" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E451" s="1">
-        <v>29624</v>
+      <c r="E451" s="3">
+        <v>29589</v>
       </c>
       <c r="F451" s="1" t="s">
         <v>2920</v>
@@ -39626,8 +39628,8 @@
       <c r="D452" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E452" s="1">
-        <v>29732</v>
+      <c r="E452" s="3">
+        <v>29590</v>
       </c>
       <c r="F452" s="1" t="s">
         <v>2926</v>
@@ -39685,8 +39687,8 @@
       <c r="D453" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E453" s="1">
-        <v>30506</v>
+      <c r="E453" s="3">
+        <v>29591</v>
       </c>
       <c r="F453" s="1" t="s">
         <v>2932</v>
@@ -39744,8 +39746,8 @@
       <c r="D454" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E454" s="1">
-        <v>30646</v>
+      <c r="E454" s="3">
+        <v>29592</v>
       </c>
       <c r="F454" s="1" t="s">
         <v>2938</v>
@@ -39803,8 +39805,8 @@
       <c r="D455" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E455" s="1">
-        <v>31757</v>
+      <c r="E455" s="3">
+        <v>29593</v>
       </c>
       <c r="F455" s="1" t="s">
         <v>2943</v>
@@ -39865,8 +39867,8 @@
       <c r="D456" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E456" s="1">
-        <v>32195</v>
+      <c r="E456" s="3">
+        <v>29594</v>
       </c>
       <c r="F456" s="1" t="s">
         <v>2948</v>
@@ -39924,8 +39926,8 @@
       <c r="D457" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E457" s="1">
-        <v>32616</v>
+      <c r="E457" s="3">
+        <v>29595</v>
       </c>
       <c r="F457" s="1" t="s">
         <v>2954</v>
@@ -39983,8 +39985,8 @@
       <c r="D458" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E458" s="1">
-        <v>33472</v>
+      <c r="E458" s="3">
+        <v>29596</v>
       </c>
       <c r="F458" s="1" t="s">
         <v>2960</v>
@@ -40045,8 +40047,8 @@
       <c r="D459" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E459" s="1">
-        <v>33722</v>
+      <c r="E459" s="3">
+        <v>29597</v>
       </c>
       <c r="F459" s="1" t="s">
         <v>2966</v>
@@ -40104,8 +40106,8 @@
       <c r="D460" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E460" s="1">
-        <v>34305</v>
+      <c r="E460" s="3">
+        <v>29598</v>
       </c>
       <c r="F460" s="1" t="s">
         <v>2971</v>
@@ -40166,8 +40168,8 @@
       <c r="D461" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E461" s="1">
-        <v>34929</v>
+      <c r="E461" s="3">
+        <v>29599</v>
       </c>
       <c r="F461" s="1" t="s">
         <v>2976</v>
@@ -40225,8 +40227,8 @@
       <c r="D462" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E462" s="1">
-        <v>35271</v>
+      <c r="E462" s="3">
+        <v>29600</v>
       </c>
       <c r="F462" s="1" t="s">
         <v>2982</v>
@@ -40284,8 +40286,8 @@
       <c r="D463" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E463" s="1">
-        <v>35632</v>
+      <c r="E463" s="3">
+        <v>29601</v>
       </c>
       <c r="F463" s="1" t="s">
         <v>2986</v>
@@ -40343,8 +40345,8 @@
       <c r="D464" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E464" s="1">
-        <v>35873</v>
+      <c r="E464" s="3">
+        <v>29602</v>
       </c>
       <c r="F464" s="1" t="s">
         <v>2990</v>
@@ -40402,8 +40404,8 @@
       <c r="D465" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E465" s="1">
-        <v>29478</v>
+      <c r="E465" s="3">
+        <v>29603</v>
       </c>
       <c r="F465" s="1" t="s">
         <v>2995</v>
@@ -40461,8 +40463,8 @@
       <c r="D466" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E466" s="1">
-        <v>29628</v>
+      <c r="E466" s="3">
+        <v>29604</v>
       </c>
       <c r="F466" s="1" t="s">
         <v>3002</v>
@@ -40520,8 +40522,8 @@
       <c r="D467" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E467" s="1">
-        <v>30546</v>
+      <c r="E467" s="3">
+        <v>29605</v>
       </c>
       <c r="F467" s="1" t="s">
         <v>3008</v>
@@ -40579,8 +40581,8 @@
       <c r="D468" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E468" s="1">
-        <v>31551</v>
+      <c r="E468" s="3">
+        <v>29606</v>
       </c>
       <c r="F468" s="1" t="s">
         <v>3015</v>
@@ -40641,8 +40643,8 @@
       <c r="D469" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E469" s="1">
-        <v>31591</v>
+      <c r="E469" s="3">
+        <v>29607</v>
       </c>
       <c r="F469" s="1" t="s">
         <v>3021</v>
@@ -40700,8 +40702,8 @@
       <c r="D470" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E470" s="1">
-        <v>31939</v>
+      <c r="E470" s="3">
+        <v>29608</v>
       </c>
       <c r="F470" s="1" t="s">
         <v>3027</v>
@@ -40762,8 +40764,8 @@
       <c r="D471" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E471" s="1">
-        <v>32879</v>
+      <c r="E471" s="3">
+        <v>29609</v>
       </c>
       <c r="F471" s="1" t="s">
         <v>3033</v>
@@ -40821,8 +40823,8 @@
       <c r="D472" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E472" s="1">
-        <v>32898</v>
+      <c r="E472" s="3">
+        <v>29610</v>
       </c>
       <c r="F472" s="1" t="s">
         <v>3038</v>
@@ -40880,8 +40882,8 @@
       <c r="D473" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E473" s="1">
-        <v>33682</v>
+      <c r="E473" s="3">
+        <v>29611</v>
       </c>
       <c r="F473" s="1" t="s">
         <v>3045</v>
@@ -40942,8 +40944,8 @@
       <c r="D474" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E474" s="1">
-        <v>35411</v>
+      <c r="E474" s="3">
+        <v>29612</v>
       </c>
       <c r="F474" s="1" t="s">
         <v>3052</v>
@@ -41001,8 +41003,8 @@
       <c r="D475" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E475" s="1">
-        <v>35435</v>
+      <c r="E475" s="3">
+        <v>29613</v>
       </c>
       <c r="F475" s="1" t="s">
         <v>3058</v>
@@ -41060,8 +41062,8 @@
       <c r="D476" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E476" s="1">
-        <v>35749</v>
+      <c r="E476" s="3">
+        <v>29614</v>
       </c>
       <c r="F476" s="1" t="s">
         <v>3064</v>
@@ -41119,8 +41121,8 @@
       <c r="D477" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E477" s="1">
-        <v>36016</v>
+      <c r="E477" s="3">
+        <v>29615</v>
       </c>
       <c r="F477" s="1" t="s">
         <v>3071</v>
@@ -41178,8 +41180,8 @@
       <c r="D478" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E478" s="1">
-        <v>36127</v>
+      <c r="E478" s="3">
+        <v>29616</v>
       </c>
       <c r="F478" s="1" t="s">
         <v>3076</v>
@@ -41240,8 +41242,8 @@
       <c r="D479" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E479" s="1">
-        <v>36180</v>
+      <c r="E479" s="3">
+        <v>29617</v>
       </c>
       <c r="F479" s="1" t="s">
         <v>3083</v>
@@ -41302,8 +41304,8 @@
       <c r="D480" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E480" s="1">
-        <v>36453</v>
+      <c r="E480" s="3">
+        <v>29618</v>
       </c>
       <c r="F480" s="1" t="s">
         <v>3089</v>
@@ -41364,8 +41366,8 @@
       <c r="D481" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E481" s="1">
-        <v>20997</v>
+      <c r="E481" s="3">
+        <v>29619</v>
       </c>
       <c r="F481" s="1" t="s">
         <v>3097</v>
@@ -41423,8 +41425,8 @@
       <c r="D482" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E482" s="1">
-        <v>24402</v>
+      <c r="E482" s="3">
+        <v>29620</v>
       </c>
       <c r="F482" s="1" t="s">
         <v>3104</v>
@@ -41485,8 +41487,8 @@
       <c r="D483" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E483" s="1">
-        <v>26554</v>
+      <c r="E483" s="3">
+        <v>29621</v>
       </c>
       <c r="F483" s="1" t="s">
         <v>3112</v>
@@ -41547,8 +41549,8 @@
       <c r="D484" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E484" s="1">
-        <v>29540</v>
+      <c r="E484" s="3">
+        <v>29622</v>
       </c>
       <c r="F484" s="1" t="s">
         <v>3118</v>
@@ -41609,8 +41611,8 @@
       <c r="D485" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E485" s="1">
-        <v>30305</v>
+      <c r="E485" s="3">
+        <v>29623</v>
       </c>
       <c r="F485" s="1" t="s">
         <v>3125</v>
@@ -41668,8 +41670,8 @@
       <c r="D486" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E486" s="1">
-        <v>30631</v>
+      <c r="E486" s="3">
+        <v>29624</v>
       </c>
       <c r="F486" s="1" t="s">
         <v>3131</v>
@@ -41733,8 +41735,8 @@
       <c r="D487" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E487" s="1">
-        <v>30782</v>
+      <c r="E487" s="3">
+        <v>29625</v>
       </c>
       <c r="F487" s="1" t="s">
         <v>3139</v>
@@ -41792,8 +41794,8 @@
       <c r="D488" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E488" s="1">
-        <v>31107</v>
+      <c r="E488" s="3">
+        <v>29626</v>
       </c>
       <c r="F488" s="1" t="s">
         <v>3146</v>
@@ -41854,8 +41856,8 @@
       <c r="D489" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E489" s="1">
-        <v>31836</v>
+      <c r="E489" s="3">
+        <v>29627</v>
       </c>
       <c r="F489" s="1" t="s">
         <v>3153</v>
@@ -41913,8 +41915,8 @@
       <c r="D490" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E490" s="1">
-        <v>32823</v>
+      <c r="E490" s="3">
+        <v>29628</v>
       </c>
       <c r="F490" s="1" t="s">
         <v>3158</v>
@@ -41972,8 +41974,8 @@
       <c r="D491" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E491" s="1">
-        <v>33597</v>
+      <c r="E491" s="3">
+        <v>29629</v>
       </c>
       <c r="F491" s="1" t="s">
         <v>3163</v>
@@ -42031,8 +42033,8 @@
       <c r="D492" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E492" s="1">
-        <v>34604</v>
+      <c r="E492" s="3">
+        <v>29630</v>
       </c>
       <c r="F492" s="1" t="s">
         <v>3168</v>
@@ -42090,8 +42092,8 @@
       <c r="D493" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E493" s="1">
-        <v>34646</v>
+      <c r="E493" s="3">
+        <v>29631</v>
       </c>
       <c r="F493" s="1" t="s">
         <v>3175</v>
@@ -42152,8 +42154,8 @@
       <c r="D494" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E494" s="1">
-        <v>35014</v>
+      <c r="E494" s="3">
+        <v>29632</v>
       </c>
       <c r="F494" s="1" t="s">
         <v>3181</v>
@@ -42214,8 +42216,8 @@
       <c r="D495" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E495" s="1">
-        <v>35035</v>
+      <c r="E495" s="3">
+        <v>29633</v>
       </c>
       <c r="F495" s="1" t="s">
         <v>3187</v>
@@ -42273,8 +42275,8 @@
       <c r="D496" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E496" s="1">
-        <v>35901</v>
+      <c r="E496" s="3">
+        <v>29634</v>
       </c>
       <c r="F496" s="1" t="s">
         <v>3194</v>
@@ -42329,8 +42331,8 @@
       <c r="D497" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E497" s="1">
-        <v>36380</v>
+      <c r="E497" s="3">
+        <v>29635</v>
       </c>
       <c r="F497" s="1" t="s">
         <v>3199</v>
@@ -42388,8 +42390,8 @@
       <c r="D498" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E498" s="1">
-        <v>25651</v>
+      <c r="E498" s="3">
+        <v>29636</v>
       </c>
       <c r="F498" s="1" t="s">
         <v>3206</v>
@@ -42450,8 +42452,8 @@
       <c r="D499" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E499" s="1">
-        <v>28706</v>
+      <c r="E499" s="3">
+        <v>29637</v>
       </c>
       <c r="F499" s="1" t="s">
         <v>3212</v>
@@ -42512,8 +42514,8 @@
       <c r="D500" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E500" s="1">
-        <v>29958</v>
+      <c r="E500" s="3">
+        <v>29638</v>
       </c>
       <c r="F500" s="1" t="s">
         <v>3220</v>
@@ -42574,8 +42576,8 @@
       <c r="D501" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E501" s="1">
-        <v>31214</v>
+      <c r="E501" s="3">
+        <v>29639</v>
       </c>
       <c r="F501" s="1" t="s">
         <v>3226</v>
@@ -42636,8 +42638,8 @@
       <c r="D502" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E502" s="1">
-        <v>33014</v>
+      <c r="E502" s="3">
+        <v>29640</v>
       </c>
       <c r="F502" s="1" t="s">
         <v>3232</v>
@@ -42698,8 +42700,8 @@
       <c r="D503" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E503" s="1">
-        <v>34503</v>
+      <c r="E503" s="3">
+        <v>29641</v>
       </c>
       <c r="F503" s="1" t="s">
         <v>3238</v>
@@ -42757,8 +42759,8 @@
       <c r="D504" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E504" s="1">
-        <v>34860</v>
+      <c r="E504" s="3">
+        <v>29642</v>
       </c>
       <c r="F504" s="1" t="s">
         <v>3244</v>
@@ -42819,8 +42821,8 @@
       <c r="D505" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E505" s="1">
-        <v>34946</v>
+      <c r="E505" s="3">
+        <v>29643</v>
       </c>
       <c r="F505" s="1" t="s">
         <v>3249</v>
@@ -42875,8 +42877,8 @@
       <c r="D506" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E506" s="1">
-        <v>35079</v>
+      <c r="E506" s="3">
+        <v>29644</v>
       </c>
       <c r="F506" s="1" t="s">
         <v>3254</v>
@@ -42937,8 +42939,8 @@
       <c r="D507" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E507" s="1">
-        <v>35753</v>
+      <c r="E507" s="3">
+        <v>29645</v>
       </c>
       <c r="F507" s="1" t="s">
         <v>3261</v>
@@ -42996,8 +42998,8 @@
       <c r="D508" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E508" s="1">
-        <v>35833</v>
+      <c r="E508" s="3">
+        <v>29646</v>
       </c>
       <c r="F508" s="1" t="s">
         <v>3267</v>
@@ -43058,8 +43060,8 @@
       <c r="D509" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E509" s="1">
-        <v>36031</v>
+      <c r="E509" s="3">
+        <v>29647</v>
       </c>
       <c r="F509" s="1" t="s">
         <v>3274</v>
@@ -43120,8 +43122,8 @@
       <c r="D510" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E510" s="1">
-        <v>36128</v>
+      <c r="E510" s="3">
+        <v>29648</v>
       </c>
       <c r="F510" s="1" t="s">
         <v>3282</v>
@@ -43182,8 +43184,8 @@
       <c r="D511" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E511" s="1">
-        <v>23664</v>
+      <c r="E511" s="3">
+        <v>29649</v>
       </c>
       <c r="F511" s="1" t="s">
         <v>3290</v>
@@ -43244,8 +43246,8 @@
       <c r="D512" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E512" s="1">
-        <v>28753</v>
+      <c r="E512" s="3">
+        <v>29650</v>
       </c>
       <c r="F512" s="1" t="s">
         <v>3297</v>
@@ -43303,8 +43305,8 @@
       <c r="D513" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E513" s="1">
-        <v>29817</v>
+      <c r="E513" s="3">
+        <v>29651</v>
       </c>
       <c r="F513" s="1" t="s">
         <v>3303</v>
@@ -43362,8 +43364,8 @@
       <c r="D514" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E514" s="1">
-        <v>29877</v>
+      <c r="E514" s="3">
+        <v>29652</v>
       </c>
       <c r="F514" s="1" t="s">
         <v>3309</v>
@@ -43421,8 +43423,8 @@
       <c r="D515" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E515" s="1">
-        <v>30514</v>
+      <c r="E515" s="3">
+        <v>29653</v>
       </c>
       <c r="F515" s="1" t="s">
         <v>3314</v>
@@ -43480,8 +43482,8 @@
       <c r="D516" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E516" s="1">
-        <v>30526</v>
+      <c r="E516" s="3">
+        <v>29654</v>
       </c>
       <c r="F516" s="1" t="s">
         <v>3319</v>
@@ -43539,8 +43541,8 @@
       <c r="D517" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E517" s="1">
-        <v>31561</v>
+      <c r="E517" s="3">
+        <v>29655</v>
       </c>
       <c r="F517" s="1" t="s">
         <v>3325</v>
@@ -43598,8 +43600,8 @@
       <c r="D518" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E518" s="1">
-        <v>31636</v>
+      <c r="E518" s="3">
+        <v>29656</v>
       </c>
       <c r="F518" s="1" t="s">
         <v>3330</v>
@@ -43660,8 +43662,8 @@
       <c r="D519" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E519" s="1">
-        <v>32156</v>
+      <c r="E519" s="3">
+        <v>29657</v>
       </c>
       <c r="F519" s="1" t="s">
         <v>3336</v>
@@ -43719,8 +43721,8 @@
       <c r="D520" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E520" s="1">
-        <v>32760</v>
+      <c r="E520" s="3">
+        <v>29658</v>
       </c>
       <c r="F520" s="1" t="s">
         <v>3343</v>
@@ -43778,8 +43780,8 @@
       <c r="D521" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E521" s="1">
-        <v>33233</v>
+      <c r="E521" s="3">
+        <v>29659</v>
       </c>
       <c r="F521" s="1" t="s">
         <v>3349</v>
@@ -43840,8 +43842,8 @@
       <c r="D522" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E522" s="1">
-        <v>34128</v>
+      <c r="E522" s="3">
+        <v>29660</v>
       </c>
       <c r="F522" s="1" t="s">
         <v>3356</v>
@@ -43902,8 +43904,8 @@
       <c r="D523" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E523" s="1">
-        <v>34388</v>
+      <c r="E523" s="3">
+        <v>29661</v>
       </c>
       <c r="F523" s="1" t="s">
         <v>3363</v>
@@ -43964,8 +43966,8 @@
       <c r="D524" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E524" s="1">
-        <v>34556</v>
+      <c r="E524" s="3">
+        <v>29662</v>
       </c>
       <c r="F524" s="1" t="s">
         <v>3369</v>
@@ -44020,8 +44022,8 @@
       <c r="D525" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E525" s="1">
-        <v>34606</v>
+      <c r="E525" s="3">
+        <v>29663</v>
       </c>
       <c r="F525" s="1" t="s">
         <v>3373</v>
@@ -44079,8 +44081,8 @@
       <c r="D526" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E526" s="1">
-        <v>34626</v>
+      <c r="E526" s="3">
+        <v>29664</v>
       </c>
       <c r="F526" s="1" t="s">
         <v>3379</v>
@@ -44141,8 +44143,8 @@
       <c r="D527" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E527" s="1">
-        <v>34996</v>
+      <c r="E527" s="3">
+        <v>29665</v>
       </c>
       <c r="F527" s="1" t="s">
         <v>3384</v>
@@ -44197,8 +44199,8 @@
       <c r="D528" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E528" s="1">
-        <v>35433</v>
+      <c r="E528" s="3">
+        <v>29666</v>
       </c>
       <c r="F528" s="1" t="s">
         <v>3389</v>
@@ -44256,8 +44258,8 @@
       <c r="D529" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E529" s="1">
-        <v>35516</v>
+      <c r="E529" s="3">
+        <v>29667</v>
       </c>
       <c r="F529" s="1" t="s">
         <v>3396</v>
@@ -44315,8 +44317,8 @@
       <c r="D530" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E530" s="1">
-        <v>35821</v>
+      <c r="E530" s="3">
+        <v>29668</v>
       </c>
       <c r="F530" s="1" t="s">
         <v>3402</v>
@@ -44377,8 +44379,8 @@
       <c r="D531" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E531" s="1">
-        <v>35933</v>
+      <c r="E531" s="3">
+        <v>29669</v>
       </c>
       <c r="F531" s="1" t="s">
         <v>3410</v>
@@ -44436,8 +44438,8 @@
       <c r="D532" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E532" s="1">
-        <v>36123</v>
+      <c r="E532" s="3">
+        <v>29670</v>
       </c>
       <c r="F532" s="1" t="s">
         <v>3417</v>
@@ -44495,8 +44497,8 @@
       <c r="D533" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E533" s="1">
-        <v>13909</v>
+      <c r="E533" s="3">
+        <v>29671</v>
       </c>
       <c r="F533" s="1" t="s">
         <v>3424</v>
@@ -44554,8 +44556,8 @@
       <c r="D534" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E534" s="1">
-        <v>28900</v>
+      <c r="E534" s="3">
+        <v>29672</v>
       </c>
       <c r="F534" s="1" t="s">
         <v>3428</v>
@@ -44613,8 +44615,8 @@
       <c r="D535" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E535" s="1">
-        <v>29653</v>
+      <c r="E535" s="3">
+        <v>29673</v>
       </c>
       <c r="F535" s="1" t="s">
         <v>3434</v>
@@ -44669,8 +44671,8 @@
       <c r="D536" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E536" s="1">
-        <v>29795</v>
+      <c r="E536" s="3">
+        <v>29674</v>
       </c>
       <c r="F536" s="1" t="s">
         <v>3440</v>
@@ -44728,8 +44730,8 @@
       <c r="D537" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E537" s="1">
-        <v>29993</v>
+      <c r="E537" s="3">
+        <v>29675</v>
       </c>
       <c r="F537" s="1" t="s">
         <v>3446</v>
@@ -44787,8 +44789,8 @@
       <c r="D538" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E538" s="1">
-        <v>30090</v>
+      <c r="E538" s="3">
+        <v>29676</v>
       </c>
       <c r="F538" s="1" t="s">
         <v>3452</v>
@@ -44846,8 +44848,8 @@
       <c r="D539" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E539" s="1">
-        <v>30134</v>
+      <c r="E539" s="3">
+        <v>29677</v>
       </c>
       <c r="F539" s="1" t="s">
         <v>3458</v>
@@ -44911,8 +44913,8 @@
       <c r="D540" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E540" s="1">
-        <v>30138</v>
+      <c r="E540" s="3">
+        <v>29678</v>
       </c>
       <c r="F540" s="1" t="s">
         <v>3464</v>
@@ -44970,8 +44972,8 @@
       <c r="D541" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E541" s="1">
-        <v>30910</v>
+      <c r="E541" s="3">
+        <v>29679</v>
       </c>
       <c r="F541" s="1" t="s">
         <v>3470</v>
@@ -45032,8 +45034,8 @@
       <c r="D542" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E542" s="1">
-        <v>31670</v>
+      <c r="E542" s="3">
+        <v>29680</v>
       </c>
       <c r="F542" s="1" t="s">
         <v>3477</v>
@@ -45091,8 +45093,8 @@
       <c r="D543" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E543" s="1">
-        <v>32129</v>
+      <c r="E543" s="3">
+        <v>29681</v>
       </c>
       <c r="F543" s="1" t="s">
         <v>3481</v>
@@ -45153,8 +45155,8 @@
       <c r="D544" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E544" s="1">
-        <v>32131</v>
+      <c r="E544" s="3">
+        <v>29682</v>
       </c>
       <c r="F544" s="1" t="s">
         <v>3486</v>
@@ -45212,8 +45214,8 @@
       <c r="D545" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E545" s="1">
-        <v>32288</v>
+      <c r="E545" s="3">
+        <v>29683</v>
       </c>
       <c r="F545" s="1" t="s">
         <v>3492</v>
@@ -45274,8 +45276,8 @@
       <c r="D546" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E546" s="1">
-        <v>33022</v>
+      <c r="E546" s="3">
+        <v>29684</v>
       </c>
       <c r="F546" s="1" t="s">
         <v>3499</v>
@@ -45336,8 +45338,8 @@
       <c r="D547" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E547" s="1">
-        <v>33197</v>
+      <c r="E547" s="3">
+        <v>29685</v>
       </c>
       <c r="F547" s="1" t="s">
         <v>3505</v>
@@ -45395,8 +45397,8 @@
       <c r="D548" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E548" s="1">
-        <v>33743</v>
+      <c r="E548" s="3">
+        <v>29686</v>
       </c>
       <c r="F548" s="1" t="s">
         <v>3509</v>
@@ -45454,8 +45456,8 @@
       <c r="D549" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E549" s="1">
-        <v>35097</v>
+      <c r="E549" s="3">
+        <v>29687</v>
       </c>
       <c r="F549" s="1" t="s">
         <v>3515</v>
@@ -45516,8 +45518,8 @@
       <c r="D550" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E550" s="1">
-        <v>35630</v>
+      <c r="E550" s="3">
+        <v>29688</v>
       </c>
       <c r="F550" s="1" t="s">
         <v>3520</v>
@@ -45578,8 +45580,8 @@
       <c r="D551" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E551" s="1">
-        <v>35988</v>
+      <c r="E551" s="3">
+        <v>29689</v>
       </c>
       <c r="F551" s="1" t="s">
         <v>3526</v>
@@ -45640,8 +45642,8 @@
       <c r="D552" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E552" s="1">
-        <v>36172</v>
+      <c r="E552" s="3">
+        <v>29690</v>
       </c>
       <c r="F552" s="1" t="s">
         <v>3532</v>
@@ -45702,8 +45704,8 @@
       <c r="D553" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E553" s="1">
-        <v>36202</v>
+      <c r="E553" s="3">
+        <v>29691</v>
       </c>
       <c r="F553" s="1" t="s">
         <v>3539</v>
@@ -45764,8 +45766,8 @@
       <c r="D554" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E554" s="1">
-        <v>36347</v>
+      <c r="E554" s="3">
+        <v>29692</v>
       </c>
       <c r="F554" s="1" t="s">
         <v>3547</v>
@@ -45826,8 +45828,8 @@
       <c r="D555" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E555" s="1">
-        <v>36390</v>
+      <c r="E555" s="3">
+        <v>29693</v>
       </c>
       <c r="F555" s="1" t="s">
         <v>3553</v>
@@ -45885,8 +45887,8 @@
       <c r="D556" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E556" s="1">
-        <v>32223</v>
+      <c r="E556" s="3">
+        <v>29694</v>
       </c>
       <c r="F556" s="1" t="s">
         <v>3557</v>
@@ -45944,8 +45946,8 @@
       <c r="D557" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E557" s="1">
-        <v>32161</v>
+      <c r="E557" s="3">
+        <v>29695</v>
       </c>
       <c r="F557" s="1" t="s">
         <v>3562</v>
@@ -46006,8 +46008,8 @@
       <c r="D558" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E558" s="1">
-        <v>34529</v>
+      <c r="E558" s="3">
+        <v>29696</v>
       </c>
       <c r="F558" s="1" t="s">
         <v>3567</v>
@@ -46065,8 +46067,8 @@
       <c r="D559" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E559" s="1">
-        <v>34768</v>
+      <c r="E559" s="3">
+        <v>29697</v>
       </c>
       <c r="F559" s="1" t="s">
         <v>3572</v>
@@ -46124,8 +46126,8 @@
       <c r="D560" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E560" s="1">
-        <v>35289</v>
+      <c r="E560" s="3">
+        <v>29698</v>
       </c>
       <c r="F560" s="1" t="s">
         <v>3579</v>
@@ -46183,8 +46185,8 @@
       <c r="D561" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E561" s="1">
-        <v>32658</v>
+      <c r="E561" s="3">
+        <v>29699</v>
       </c>
       <c r="F561" s="1" t="s">
         <v>3585</v>
@@ -46242,8 +46244,8 @@
       <c r="D562" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E562" s="1">
-        <v>35779</v>
+      <c r="E562" s="3">
+        <v>29700</v>
       </c>
       <c r="F562" s="1" t="s">
         <v>3590</v>
@@ -46304,8 +46306,8 @@
       <c r="D563" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E563" s="1">
-        <v>35171</v>
+      <c r="E563" s="3">
+        <v>29701</v>
       </c>
       <c r="F563" s="1" t="s">
         <v>3595</v>
@@ -46363,8 +46365,8 @@
       <c r="D564" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E564" s="1">
-        <v>30077</v>
+      <c r="E564" s="3">
+        <v>29702</v>
       </c>
       <c r="F564" s="1" t="s">
         <v>3601</v>
@@ -46422,8 +46424,8 @@
       <c r="D565" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E565" s="1">
-        <v>36450</v>
+      <c r="E565" s="3">
+        <v>29703</v>
       </c>
       <c r="F565" s="1" t="s">
         <v>3608</v>
@@ -46484,8 +46486,8 @@
       <c r="D566" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E566" s="1">
-        <v>35139</v>
+      <c r="E566" s="3">
+        <v>29704</v>
       </c>
       <c r="F566" s="1" t="s">
         <v>3614</v>
@@ -46546,8 +46548,8 @@
       <c r="D567" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E567" s="1">
-        <v>35458</v>
+      <c r="E567" s="3">
+        <v>29705</v>
       </c>
       <c r="F567" s="1" t="s">
         <v>3620</v>
@@ -46608,8 +46610,8 @@
       <c r="D568" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E568" s="1">
-        <v>35841</v>
+      <c r="E568" s="3">
+        <v>29706</v>
       </c>
       <c r="F568" s="1" t="s">
         <v>3626</v>
@@ -46667,8 +46669,8 @@
       <c r="D569" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E569" s="1">
-        <v>34828</v>
+      <c r="E569" s="3">
+        <v>29707</v>
       </c>
       <c r="F569" s="1" t="s">
         <v>3632</v>
@@ -46726,8 +46728,8 @@
       <c r="D570" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E570" s="1">
-        <v>35506</v>
+      <c r="E570" s="3">
+        <v>29708</v>
       </c>
       <c r="F570" s="1" t="s">
         <v>3637</v>
@@ -46788,8 +46790,8 @@
       <c r="D571" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E571" s="1">
-        <v>27104</v>
+      <c r="E571" s="3">
+        <v>29709</v>
       </c>
       <c r="F571" s="1" t="s">
         <v>3644</v>
@@ -46844,8 +46846,8 @@
       <c r="D572" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E572" s="1">
-        <v>29696</v>
+      <c r="E572" s="3">
+        <v>29710</v>
       </c>
       <c r="F572" s="1" t="s">
         <v>3650</v>
@@ -46903,8 +46905,8 @@
       <c r="D573" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E573" s="1">
-        <v>31747</v>
+      <c r="E573" s="3">
+        <v>29711</v>
       </c>
       <c r="F573" s="1" t="s">
         <v>3655</v>
@@ -46965,8 +46967,8 @@
       <c r="D574" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E574" s="1">
-        <v>34036</v>
+      <c r="E574" s="3">
+        <v>29712</v>
       </c>
       <c r="F574" s="1" t="s">
         <v>3663</v>
@@ -47024,8 +47026,8 @@
       <c r="D575" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E575" s="1">
-        <v>35533</v>
+      <c r="E575" s="3">
+        <v>29713</v>
       </c>
       <c r="F575" s="1" t="s">
         <v>3668</v>
@@ -47083,8 +47085,8 @@
       <c r="D576" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E576" s="1">
-        <v>35872</v>
+      <c r="E576" s="3">
+        <v>29714</v>
       </c>
       <c r="F576" s="1" t="s">
         <v>3674</v>
@@ -47142,8 +47144,8 @@
       <c r="D577" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E577" s="1">
-        <v>36270</v>
+      <c r="E577" s="3">
+        <v>29715</v>
       </c>
       <c r="F577" s="1" t="s">
         <v>3678</v>
@@ -47201,8 +47203,8 @@
       <c r="D578" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E578" s="1">
-        <v>32366</v>
+      <c r="E578" s="3">
+        <v>29716</v>
       </c>
       <c r="F578" s="1" t="s">
         <v>3685</v>
@@ -47257,8 +47259,8 @@
       <c r="D579" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E579" s="1">
-        <v>32463</v>
+      <c r="E579" s="3">
+        <v>29717</v>
       </c>
       <c r="F579" s="1" t="s">
         <v>3690</v>
@@ -47316,8 +47318,8 @@
       <c r="D580" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E580" s="1">
-        <v>33496</v>
+      <c r="E580" s="3">
+        <v>29718</v>
       </c>
       <c r="F580" s="1" t="s">
         <v>3697</v>
@@ -47375,8 +47377,8 @@
       <c r="D581" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E581" s="1">
-        <v>33662</v>
+      <c r="E581" s="3">
+        <v>29719</v>
       </c>
       <c r="F581" s="1" t="s">
         <v>3703</v>
@@ -47434,8 +47436,8 @@
       <c r="D582" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E582" s="1">
-        <v>34775</v>
+      <c r="E582" s="3">
+        <v>29720</v>
       </c>
       <c r="F582" s="1" t="s">
         <v>3709</v>
@@ -47490,8 +47492,8 @@
       <c r="D583" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E583" s="1">
-        <v>35240</v>
+      <c r="E583" s="3">
+        <v>29721</v>
       </c>
       <c r="F583" s="1" t="s">
         <v>3715</v>
@@ -47552,8 +47554,8 @@
       <c r="D584" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E584" s="1">
-        <v>35794</v>
+      <c r="E584" s="3">
+        <v>29722</v>
       </c>
       <c r="F584" s="1" t="s">
         <v>3723</v>
@@ -47614,8 +47616,8 @@
       <c r="D585" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E585" s="1">
-        <v>36115</v>
+      <c r="E585" s="3">
+        <v>29723</v>
       </c>
       <c r="F585" s="1" t="s">
         <v>3730</v>
@@ -47676,8 +47678,8 @@
       <c r="D586" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E586" s="1">
-        <v>36458</v>
+      <c r="E586" s="3">
+        <v>29724</v>
       </c>
       <c r="F586" s="1" t="s">
         <v>3736</v>
@@ -47735,8 +47737,8 @@
       <c r="D587" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E587" s="1">
-        <v>32118</v>
+      <c r="E587" s="3">
+        <v>29725</v>
       </c>
       <c r="F587" s="1" t="s">
         <v>3742</v>
@@ -47794,8 +47796,8 @@
       <c r="D588" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E588" s="1">
-        <v>33679</v>
+      <c r="E588" s="3">
+        <v>29726</v>
       </c>
       <c r="F588" s="1" t="s">
         <v>3748</v>
@@ -47853,8 +47855,8 @@
       <c r="D589" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E589" s="1">
-        <v>33922</v>
+      <c r="E589" s="3">
+        <v>29727</v>
       </c>
       <c r="F589" s="1" t="s">
         <v>3753</v>
@@ -47912,8 +47914,8 @@
       <c r="D590" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E590" s="1">
-        <v>35088</v>
+      <c r="E590" s="3">
+        <v>29728</v>
       </c>
       <c r="F590" s="1" t="s">
         <v>3758</v>
@@ -47971,8 +47973,8 @@
       <c r="D591" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E591" s="1">
-        <v>35137</v>
+      <c r="E591" s="3">
+        <v>29729</v>
       </c>
       <c r="F591" s="1" t="s">
         <v>3763</v>
@@ -48033,8 +48035,8 @@
       <c r="D592" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E592" s="1">
-        <v>36091</v>
+      <c r="E592" s="3">
+        <v>29730</v>
       </c>
       <c r="F592" s="1" t="s">
         <v>3769</v>
@@ -48089,8 +48091,8 @@
       <c r="D593" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E593" s="1">
-        <v>35292</v>
+      <c r="E593" s="3">
+        <v>29731</v>
       </c>
       <c r="F593" s="1" t="s">
         <v>3774</v>
@@ -48148,8 +48150,8 @@
       <c r="D594" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E594" s="1">
-        <v>34938</v>
+      <c r="E594" s="3">
+        <v>29732</v>
       </c>
       <c r="F594" s="1" t="s">
         <v>3781</v>
@@ -48207,8 +48209,8 @@
       <c r="D595" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E595" s="1">
-        <v>34646</v>
+      <c r="E595" s="3">
+        <v>29733</v>
       </c>
       <c r="F595" s="1" t="s">
         <v>3787</v>
@@ -48266,8 +48268,8 @@
       <c r="D596" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E596" s="1">
-        <v>30859</v>
+      <c r="E596" s="3">
+        <v>29734</v>
       </c>
       <c r="F596" s="1" t="s">
         <v>3794</v>
@@ -48325,8 +48327,8 @@
       <c r="D597" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E597" s="1">
-        <v>31059</v>
+      <c r="E597" s="3">
+        <v>29735</v>
       </c>
       <c r="F597" s="1" t="s">
         <v>3798</v>
@@ -48390,8 +48392,8 @@
       <c r="D598" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E598" s="1">
-        <v>35476</v>
+      <c r="E598" s="3">
+        <v>29736</v>
       </c>
       <c r="F598" s="1" t="s">
         <v>3805</v>
@@ -48452,8 +48454,8 @@
       <c r="D599" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E599" s="1">
-        <v>35444</v>
+      <c r="E599" s="3">
+        <v>29737</v>
       </c>
       <c r="F599" s="1" t="s">
         <v>3811</v>
@@ -48514,8 +48516,8 @@
       <c r="D600" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E600" s="1">
-        <v>29544</v>
+      <c r="E600" s="3">
+        <v>29738</v>
       </c>
       <c r="F600" s="1" t="s">
         <v>3821</v>
@@ -48573,8 +48575,8 @@
       <c r="D601" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E601" s="1">
-        <v>29808</v>
+      <c r="E601" s="3">
+        <v>29739</v>
       </c>
       <c r="F601" s="1" t="s">
         <v>3827</v>
@@ -48632,8 +48634,8 @@
       <c r="D602" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E602" s="1">
-        <v>36524</v>
+      <c r="E602" s="3">
+        <v>29740</v>
       </c>
       <c r="F602" s="1" t="s">
         <v>3834</v>
@@ -48691,8 +48693,8 @@
       <c r="D603" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E603" s="1">
-        <v>34045</v>
+      <c r="E603" s="3">
+        <v>29741</v>
       </c>
       <c r="F603" s="1" t="s">
         <v>3840</v>
@@ -48753,8 +48755,8 @@
       <c r="D604" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E604" s="1">
-        <v>28368</v>
+      <c r="E604" s="3">
+        <v>29742</v>
       </c>
       <c r="F604" s="1" t="s">
         <v>3847</v>
@@ -48812,8 +48814,8 @@
       <c r="D605" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E605" s="1">
-        <v>27646</v>
+      <c r="E605" s="3">
+        <v>29743</v>
       </c>
       <c r="F605" s="1" t="s">
         <v>3853</v>
@@ -48871,8 +48873,8 @@
       <c r="D606" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E606" s="1">
-        <v>35923</v>
+      <c r="E606" s="3">
+        <v>29744</v>
       </c>
       <c r="F606" s="1" t="s">
         <v>3859</v>
@@ -48933,8 +48935,8 @@
       <c r="D607" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E607" s="1">
-        <v>30428</v>
+      <c r="E607" s="3">
+        <v>29745</v>
       </c>
       <c r="F607" s="1" t="s">
         <v>3867</v>
@@ -48992,8 +48994,8 @@
       <c r="D608" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E608" s="1">
-        <v>28956</v>
+      <c r="E608" s="3">
+        <v>29746</v>
       </c>
       <c r="F608" s="1" t="s">
         <v>3872</v>
@@ -49051,8 +49053,8 @@
       <c r="D609" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E609" s="1">
-        <v>35859</v>
+      <c r="E609" s="3">
+        <v>29747</v>
       </c>
       <c r="F609" s="1" t="s">
         <v>3878</v>
@@ -49113,8 +49115,8 @@
       <c r="D610" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E610" s="1">
-        <v>36810</v>
+      <c r="E610" s="3">
+        <v>29748</v>
       </c>
       <c r="F610" s="1" t="s">
         <v>3885</v>
@@ -49172,8 +49174,8 @@
       <c r="D611" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E611" s="1">
-        <v>33468</v>
+      <c r="E611" s="3">
+        <v>29749</v>
       </c>
       <c r="F611" s="1" t="s">
         <v>3890</v>
@@ -49234,8 +49236,8 @@
       <c r="D612" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E612" s="1">
-        <v>36430</v>
+      <c r="E612" s="3">
+        <v>29750</v>
       </c>
       <c r="F612" s="1" t="s">
         <v>3896</v>
@@ -49290,8 +49292,8 @@
       <c r="D613" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E613" s="1">
-        <v>33704</v>
+      <c r="E613" s="3">
+        <v>29751</v>
       </c>
       <c r="F613" s="1" t="s">
         <v>3900</v>
@@ -49352,8 +49354,8 @@
       <c r="D614" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E614" s="1">
-        <v>35713</v>
+      <c r="E614" s="3">
+        <v>29752</v>
       </c>
       <c r="F614" s="1" t="s">
         <v>3908</v>
@@ -49414,8 +49416,8 @@
       <c r="D615" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E615" s="1">
-        <v>35247</v>
+      <c r="E615" s="3">
+        <v>29753</v>
       </c>
       <c r="F615" s="1" t="s">
         <v>3913</v>
@@ -49476,8 +49478,8 @@
       <c r="D616" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E616" s="1">
-        <v>33342</v>
+      <c r="E616" s="3">
+        <v>29754</v>
       </c>
       <c r="F616" s="1" t="s">
         <v>3919</v>
@@ -49526,7 +49528,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U616" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:U616"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/SisConv/src/SisConvDocs/Pasta de Habilitados.xlsx
+++ b/SisConv/src/SisConvDocs/Pasta de Habilitados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Ckmserver-novo\arquivos\Operacional\FRANCO DA ROCHA\Franco da Rocha 2017\Estágio 2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE30910D-B2BD-426E-AD89-4DBBD3C965A2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3755431-5DE1-4A62-A6D0-79E47255242C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7080"/>
   </bookViews>
@@ -12275,11 +12275,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -12637,8 +12635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U616"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12646,8 +12644,8 @@
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="40.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14" style="1" bestFit="1" customWidth="1"/>
@@ -12674,7 +12672,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -12736,8 +12734,8 @@
       <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="3">
-        <v>29140</v>
+      <c r="E2" s="1">
+        <v>35170</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>23</v>
@@ -12798,8 +12796,8 @@
       <c r="D3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="3">
-        <v>29141</v>
+      <c r="E3" s="1">
+        <v>33302</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>36</v>
@@ -12860,8 +12858,8 @@
       <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3">
-        <v>29142</v>
+      <c r="E4" s="1">
+        <v>30244</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>45</v>
@@ -12919,8 +12917,8 @@
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3">
-        <v>29143</v>
+      <c r="E5" s="1">
+        <v>34820</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>52</v>
@@ -12978,8 +12976,8 @@
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3">
-        <v>29144</v>
+      <c r="E6" s="1">
+        <v>31675</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>59</v>
@@ -13043,8 +13041,8 @@
       <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="3">
-        <v>29145</v>
+      <c r="E7" s="1">
+        <v>34667</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>69</v>
@@ -13102,8 +13100,8 @@
       <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="3">
-        <v>29146</v>
+      <c r="E8" s="1">
+        <v>28121</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>75</v>
@@ -13161,8 +13159,8 @@
       <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="3">
-        <v>29147</v>
+      <c r="E9" s="1">
+        <v>34794</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>83</v>
@@ -13223,8 +13221,8 @@
       <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>29148</v>
+      <c r="E10" s="1">
+        <v>30650</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>91</v>
@@ -13282,8 +13280,8 @@
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="3">
-        <v>29149</v>
+      <c r="E11" s="1">
+        <v>35674</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>98</v>
@@ -13344,8 +13342,8 @@
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="3">
-        <v>29150</v>
+      <c r="E12" s="1">
+        <v>35790</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>106</v>
@@ -13403,8 +13401,8 @@
       <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="3">
-        <v>29151</v>
+      <c r="E13" s="1">
+        <v>33182</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>112</v>
@@ -13462,8 +13460,8 @@
       <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="3">
-        <v>29152</v>
+      <c r="E14" s="1">
+        <v>34578</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>118</v>
@@ -13524,8 +13522,8 @@
       <c r="D15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="3">
-        <v>29153</v>
+      <c r="E15" s="1">
+        <v>35499</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>125</v>
@@ -13583,8 +13581,8 @@
       <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="3">
-        <v>29154</v>
+      <c r="E16" s="1">
+        <v>36014</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>132</v>
@@ -13645,8 +13643,8 @@
       <c r="D17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="3">
-        <v>29155</v>
+      <c r="E17" s="1">
+        <v>36413</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>140</v>
@@ -13707,8 +13705,8 @@
       <c r="D18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="3">
-        <v>29156</v>
+      <c r="E18" s="1">
+        <v>35378</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>148</v>
@@ -13766,8 +13764,8 @@
       <c r="D19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="3">
-        <v>29157</v>
+      <c r="E19" s="1">
+        <v>35577</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>155</v>
@@ -13825,8 +13823,8 @@
       <c r="D20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="3">
-        <v>29158</v>
+      <c r="E20" s="1">
+        <v>33336</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>162</v>
@@ -13887,8 +13885,8 @@
       <c r="D21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="3">
-        <v>29159</v>
+      <c r="E21" s="1">
+        <v>34039</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>168</v>
@@ -13949,8 +13947,8 @@
       <c r="D22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="3">
-        <v>29160</v>
+      <c r="E22" s="1">
+        <v>36238</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>175</v>
@@ -14008,8 +14006,8 @@
       <c r="D23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="3">
-        <v>29161</v>
+      <c r="E23" s="1">
+        <v>35305</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>182</v>
@@ -14064,8 +14062,8 @@
       <c r="D24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="3">
-        <v>29162</v>
+      <c r="E24" s="1">
+        <v>35573</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>189</v>
@@ -14123,8 +14121,8 @@
       <c r="D25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="3">
-        <v>29163</v>
+      <c r="E25" s="1">
+        <v>33907</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>195</v>
@@ -14182,8 +14180,8 @@
       <c r="D26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="3">
-        <v>29164</v>
+      <c r="E26" s="1">
+        <v>35118</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>202</v>
@@ -14247,8 +14245,8 @@
       <c r="D27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="3">
-        <v>29165</v>
+      <c r="E27" s="1">
+        <v>35560</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>211</v>
@@ -14306,8 +14304,8 @@
       <c r="D28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="3">
-        <v>29166</v>
+      <c r="E28" s="1">
+        <v>36393</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>218</v>
@@ -14365,8 +14363,8 @@
       <c r="D29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="3">
-        <v>29167</v>
+      <c r="E29" s="1">
+        <v>36434</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>225</v>
@@ -14424,8 +14422,8 @@
       <c r="D30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="3">
-        <v>29168</v>
+      <c r="E30" s="1">
+        <v>34784</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>231</v>
@@ -14483,8 +14481,8 @@
       <c r="D31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="3">
-        <v>29169</v>
+      <c r="E31" s="1">
+        <v>35017</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>237</v>
@@ -14542,8 +14540,8 @@
       <c r="D32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="3">
-        <v>29170</v>
+      <c r="E32" s="1">
+        <v>35129</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>244</v>
@@ -14604,8 +14602,8 @@
       <c r="D33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="3">
-        <v>29171</v>
+      <c r="E33" s="1">
+        <v>36061</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>251</v>
@@ -14666,8 +14664,8 @@
       <c r="D34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="3">
-        <v>29172</v>
+      <c r="E34" s="1">
+        <v>34621</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>259</v>
@@ -14725,8 +14723,8 @@
       <c r="D35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="3">
-        <v>29173</v>
+      <c r="E35" s="1">
+        <v>34891</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>265</v>
@@ -14787,8 +14785,8 @@
       <c r="D36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="3">
-        <v>29174</v>
+      <c r="E36" s="1">
+        <v>35647</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>272</v>
@@ -14849,8 +14847,8 @@
       <c r="D37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="3">
-        <v>29175</v>
+      <c r="E37" s="1">
+        <v>36099</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>280</v>
@@ -14908,8 +14906,8 @@
       <c r="D38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="3">
-        <v>29176</v>
+      <c r="E38" s="1">
+        <v>34565</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>286</v>
@@ -14970,8 +14968,8 @@
       <c r="D39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="3">
-        <v>29177</v>
+      <c r="E39" s="1">
+        <v>35822</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>293</v>
@@ -15032,8 +15030,8 @@
       <c r="D40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="3">
-        <v>29178</v>
+      <c r="E40" s="1">
+        <v>34764</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>301</v>
@@ -15091,8 +15089,8 @@
       <c r="D41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="3">
-        <v>29179</v>
+      <c r="E41" s="1">
+        <v>35066</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>305</v>
@@ -15150,8 +15148,8 @@
       <c r="D42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="3">
-        <v>29180</v>
+      <c r="E42" s="1">
+        <v>35385</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>312</v>
@@ -15209,8 +15207,8 @@
       <c r="D43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="3">
-        <v>29181</v>
+      <c r="E43" s="1">
+        <v>35450</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>319</v>
@@ -15271,8 +15269,8 @@
       <c r="D44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="3">
-        <v>29182</v>
+      <c r="E44" s="1">
+        <v>33288</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>326</v>
@@ -15330,8 +15328,8 @@
       <c r="D45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="3">
-        <v>29183</v>
+      <c r="E45" s="1">
+        <v>34158</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>334</v>
@@ -15392,8 +15390,8 @@
       <c r="D46" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="3">
-        <v>29184</v>
+      <c r="E46" s="1">
+        <v>34367</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>340</v>
@@ -15454,8 +15452,8 @@
       <c r="D47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="3">
-        <v>29185</v>
+      <c r="E47" s="1">
+        <v>35555</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>347</v>
@@ -15513,8 +15511,8 @@
       <c r="D48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="3">
-        <v>29186</v>
+      <c r="E48" s="1">
+        <v>35700</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>354</v>
@@ -15572,8 +15570,8 @@
       <c r="D49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="3">
-        <v>29187</v>
+      <c r="E49" s="1">
+        <v>36055</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>360</v>
@@ -15634,8 +15632,8 @@
       <c r="D50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="3">
-        <v>29188</v>
+      <c r="E50" s="1">
+        <v>36103</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>367</v>
@@ -15690,8 +15688,8 @@
       <c r="D51" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="3">
-        <v>29189</v>
+      <c r="E51" s="1">
+        <v>28103</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>373</v>
@@ -15752,8 +15750,8 @@
       <c r="D52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="3">
-        <v>29190</v>
+      <c r="E52" s="1">
+        <v>31919</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>382</v>
@@ -15814,8 +15812,8 @@
       <c r="D53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="3">
-        <v>29191</v>
+      <c r="E53" s="1">
+        <v>34043</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>390</v>
@@ -15873,8 +15871,8 @@
       <c r="D54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="3">
-        <v>29192</v>
+      <c r="E54" s="1">
+        <v>34439</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>395</v>
@@ -15932,8 +15930,8 @@
       <c r="D55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="3">
-        <v>29193</v>
+      <c r="E55" s="1">
+        <v>35241</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>402</v>
@@ -15991,8 +15989,8 @@
       <c r="D56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="3">
-        <v>29194</v>
+      <c r="E56" s="1">
+        <v>35428</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>409</v>
@@ -16053,8 +16051,8 @@
       <c r="D57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="3">
-        <v>29195</v>
+      <c r="E57" s="1">
+        <v>35919</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>418</v>
@@ -16109,8 +16107,8 @@
       <c r="D58" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E58" s="3">
-        <v>29196</v>
+      <c r="E58" s="1">
+        <v>32956</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>424</v>
@@ -16171,8 +16169,8 @@
       <c r="D59" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E59" s="3">
-        <v>29197</v>
+      <c r="E59" s="1">
+        <v>33292</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>431</v>
@@ -16227,8 +16225,8 @@
       <c r="D60" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E60" s="3">
-        <v>29198</v>
+      <c r="E60" s="1">
+        <v>33508</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>436</v>
@@ -16286,8 +16284,8 @@
       <c r="D61" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E61" s="3">
-        <v>29199</v>
+      <c r="E61" s="1">
+        <v>35534</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>442</v>
@@ -16348,8 +16346,8 @@
       <c r="D62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="3">
-        <v>29200</v>
+      <c r="E62" s="1">
+        <v>36065</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>449</v>
@@ -16410,8 +16408,8 @@
       <c r="D63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E63" s="3">
-        <v>29201</v>
+      <c r="E63" s="1">
+        <v>35463</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>457</v>
@@ -16472,8 +16470,8 @@
       <c r="D64" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="3">
-        <v>29202</v>
+      <c r="E64" s="1">
+        <v>34696</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>465</v>
@@ -16528,8 +16526,8 @@
       <c r="D65" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="3">
-        <v>29203</v>
+      <c r="E65" s="1">
+        <v>35221</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>472</v>
@@ -16584,8 +16582,8 @@
       <c r="D66" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E66" s="3">
-        <v>29204</v>
+      <c r="E66" s="1">
+        <v>33550</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>478</v>
@@ -16646,8 +16644,8 @@
       <c r="D67" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E67" s="3">
-        <v>29205</v>
+      <c r="E67" s="1">
+        <v>26583</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>487</v>
@@ -16705,8 +16703,8 @@
       <c r="D68" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E68" s="3">
-        <v>29206</v>
+      <c r="E68" s="1">
+        <v>32840</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>494</v>
@@ -16764,8 +16762,8 @@
       <c r="D69" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E69" s="3">
-        <v>29207</v>
+      <c r="E69" s="1">
+        <v>36079</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>501</v>
@@ -16826,8 +16824,8 @@
       <c r="D70" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E70" s="3">
-        <v>29208</v>
+      <c r="E70" s="1">
+        <v>33831</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>508</v>
@@ -16885,8 +16883,8 @@
       <c r="D71" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="3">
-        <v>29209</v>
+      <c r="E71" s="1">
+        <v>31902</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>515</v>
@@ -16944,8 +16942,8 @@
       <c r="D72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="3">
-        <v>29210</v>
+      <c r="E72" s="1">
+        <v>29988</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>522</v>
@@ -17006,8 +17004,8 @@
       <c r="D73" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E73" s="3">
-        <v>29211</v>
+      <c r="E73" s="1">
+        <v>34160</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>530</v>
@@ -17068,8 +17066,8 @@
       <c r="D74" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E74" s="3">
-        <v>29212</v>
+      <c r="E74" s="1">
+        <v>31853</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>539</v>
@@ -17127,8 +17125,8 @@
       <c r="D75" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="3">
-        <v>29213</v>
+      <c r="E75" s="1">
+        <v>29339</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>546</v>
@@ -17186,8 +17184,8 @@
       <c r="D76" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E76" s="3">
-        <v>29214</v>
+      <c r="E76" s="1">
+        <v>36112</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>553</v>
@@ -17245,8 +17243,8 @@
       <c r="D77" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E77" s="3">
-        <v>29215</v>
+      <c r="E77" s="1">
+        <v>36413</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>560</v>
@@ -17307,8 +17305,8 @@
       <c r="D78" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E78" s="3">
-        <v>29216</v>
+      <c r="E78" s="1">
+        <v>34040</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>568</v>
@@ -17369,8 +17367,8 @@
       <c r="D79" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="3">
-        <v>29217</v>
+      <c r="E79" s="1">
+        <v>34422</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>575</v>
@@ -17428,8 +17426,8 @@
       <c r="D80" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E80" s="3">
-        <v>29218</v>
+      <c r="E80" s="1">
+        <v>35211</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>581</v>
@@ -17487,8 +17485,8 @@
       <c r="D81" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E81" s="3">
-        <v>29219</v>
+      <c r="E81" s="1">
+        <v>35950</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>588</v>
@@ -17546,8 +17544,8 @@
       <c r="D82" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E82" s="3">
-        <v>29220</v>
+      <c r="E82" s="1">
+        <v>35963</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>594</v>
@@ -17605,8 +17603,8 @@
       <c r="D83" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E83" s="3">
-        <v>29221</v>
+      <c r="E83" s="1">
+        <v>36045</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>601</v>
@@ -17661,8 +17659,8 @@
       <c r="D84" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E84" s="3">
-        <v>29222</v>
+      <c r="E84" s="1">
+        <v>32588</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>606</v>
@@ -17720,8 +17718,8 @@
       <c r="D85" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E85" s="3">
-        <v>29223</v>
+      <c r="E85" s="1">
+        <v>35302</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>612</v>
@@ -17779,8 +17777,8 @@
       <c r="D86" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E86" s="3">
-        <v>29224</v>
+      <c r="E86" s="1">
+        <v>30459</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>618</v>
@@ -17838,8 +17836,8 @@
       <c r="D87" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E87" s="3">
-        <v>29225</v>
+      <c r="E87" s="1">
+        <v>36163</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>625</v>
@@ -17897,8 +17895,8 @@
       <c r="D88" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="3">
-        <v>29226</v>
+      <c r="E88" s="1">
+        <v>31189</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>631</v>
@@ -17956,8 +17954,8 @@
       <c r="D89" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="3">
-        <v>29227</v>
+      <c r="E89" s="1">
+        <v>34645</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>638</v>
@@ -18015,8 +18013,8 @@
       <c r="D90" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E90" s="3">
-        <v>29228</v>
+      <c r="E90" s="1">
+        <v>36376</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>645</v>
@@ -18080,8 +18078,8 @@
       <c r="D91" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E91" s="3">
-        <v>29229</v>
+      <c r="E91" s="1">
+        <v>29447</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>653</v>
@@ -18139,8 +18137,8 @@
       <c r="D92" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E92" s="3">
-        <v>29230</v>
+      <c r="E92" s="1">
+        <v>34126</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>659</v>
@@ -18201,8 +18199,8 @@
       <c r="D93" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E93" s="3">
-        <v>29231</v>
+      <c r="E93" s="1">
+        <v>34498</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>665</v>
@@ -18260,8 +18258,8 @@
       <c r="D94" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E94" s="3">
-        <v>29232</v>
+      <c r="E94" s="1">
+        <v>34940</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>672</v>
@@ -18322,8 +18320,8 @@
       <c r="D95" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E95" s="3">
-        <v>29233</v>
+      <c r="E95" s="1">
+        <v>35075</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>679</v>
@@ -18378,8 +18376,8 @@
       <c r="D96" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E96" s="3">
-        <v>29234</v>
+      <c r="E96" s="1">
+        <v>35181</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>685</v>
@@ -18437,8 +18435,8 @@
       <c r="D97" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E97" s="3">
-        <v>29235</v>
+      <c r="E97" s="1">
+        <v>32691</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>692</v>
@@ -18493,8 +18491,8 @@
       <c r="D98" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E98" s="3">
-        <v>29236</v>
+      <c r="E98" s="1">
+        <v>34060</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>698</v>
@@ -18549,8 +18547,8 @@
       <c r="D99" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E99" s="3">
-        <v>29237</v>
+      <c r="E99" s="1">
+        <v>35636</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>705</v>
@@ -18608,8 +18606,8 @@
       <c r="D100" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E100" s="3">
-        <v>29238</v>
+      <c r="E100" s="1">
+        <v>34049</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>712</v>
@@ -18667,8 +18665,8 @@
       <c r="D101" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E101" s="3">
-        <v>29239</v>
+      <c r="E101" s="1">
+        <v>35041</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>720</v>
@@ -18729,8 +18727,8 @@
       <c r="D102" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E102" s="3">
-        <v>29240</v>
+      <c r="E102" s="1">
+        <v>36027</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>726</v>
@@ -18788,8 +18786,8 @@
       <c r="D103" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E103" s="3">
-        <v>29241</v>
+      <c r="E103" s="1">
+        <v>36430</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>732</v>
@@ -18850,8 +18848,8 @@
       <c r="D104" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E104" s="3">
-        <v>29242</v>
+      <c r="E104" s="1">
+        <v>36499</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>738</v>
@@ -18909,8 +18907,8 @@
       <c r="D105" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="3">
-        <v>29243</v>
+      <c r="E105" s="1">
+        <v>35579</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>745</v>
@@ -18968,8 +18966,8 @@
       <c r="D106" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E106" s="3">
-        <v>29244</v>
+      <c r="E106" s="1">
+        <v>35703</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>752</v>
@@ -19030,8 +19028,8 @@
       <c r="D107" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E107" s="3">
-        <v>29245</v>
+      <c r="E107" s="1">
+        <v>36181</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>759</v>
@@ -19092,8 +19090,8 @@
       <c r="D108" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E108" s="3">
-        <v>29246</v>
+      <c r="E108" s="1">
+        <v>33408</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>767</v>
@@ -19151,8 +19149,8 @@
       <c r="D109" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E109" s="3">
-        <v>29247</v>
+      <c r="E109" s="1">
+        <v>36235</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>775</v>
@@ -19210,8 +19208,8 @@
       <c r="D110" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E110" s="3">
-        <v>29248</v>
+      <c r="E110" s="1">
+        <v>32587</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>782</v>
@@ -19272,8 +19270,8 @@
       <c r="D111" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E111" s="3">
-        <v>29249</v>
+      <c r="E111" s="1">
+        <v>36258</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>790</v>
@@ -19331,8 +19329,8 @@
       <c r="D112" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E112" s="3">
-        <v>29250</v>
+      <c r="E112" s="1">
+        <v>36442</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>796</v>
@@ -19390,8 +19388,8 @@
       <c r="D113" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E113" s="3">
-        <v>29251</v>
+      <c r="E113" s="1">
+        <v>34474</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>803</v>
@@ -19449,8 +19447,8 @@
       <c r="D114" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E114" s="3">
-        <v>29252</v>
+      <c r="E114" s="1">
+        <v>35247</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>809</v>
@@ -19505,8 +19503,8 @@
       <c r="D115" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E115" s="3">
-        <v>29253</v>
+      <c r="E115" s="1">
+        <v>36111</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>813</v>
@@ -19564,8 +19562,8 @@
       <c r="D116" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E116" s="3">
-        <v>29254</v>
+      <c r="E116" s="1">
+        <v>32324</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>819</v>
@@ -19623,8 +19621,8 @@
       <c r="D117" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E117" s="3">
-        <v>29255</v>
+      <c r="E117" s="1">
+        <v>35380</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>826</v>
@@ -19685,8 +19683,8 @@
       <c r="D118" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E118" s="3">
-        <v>29256</v>
+      <c r="E118" s="1">
+        <v>35538</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>832</v>
@@ -19747,8 +19745,8 @@
       <c r="D119" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E119" s="3">
-        <v>29257</v>
+      <c r="E119" s="1">
+        <v>35799</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>840</v>
@@ -19806,8 +19804,8 @@
       <c r="D120" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E120" s="3">
-        <v>29258</v>
+      <c r="E120" s="1">
+        <v>36146</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>845</v>
@@ -19865,8 +19863,8 @@
       <c r="D121" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E121" s="3">
-        <v>29259</v>
+      <c r="E121" s="1">
+        <v>36262</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>849</v>
@@ -19924,8 +19922,8 @@
       <c r="D122" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E122" s="3">
-        <v>29260</v>
+      <c r="E122" s="1">
+        <v>35892</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>855</v>
@@ -19986,8 +19984,8 @@
       <c r="D123" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="3">
-        <v>29261</v>
+      <c r="E123" s="1">
+        <v>34360</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>861</v>
@@ -20045,8 +20043,8 @@
       <c r="D124" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E124" s="3">
-        <v>29262</v>
+      <c r="E124" s="1">
+        <v>35107</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>868</v>
@@ -20107,8 +20105,8 @@
       <c r="D125" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E125" s="3">
-        <v>29263</v>
+      <c r="E125" s="1">
+        <v>36450</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>876</v>
@@ -20169,8 +20167,8 @@
       <c r="D126" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E126" s="3">
-        <v>29264</v>
+      <c r="E126" s="1">
+        <v>33495</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>882</v>
@@ -20231,8 +20229,8 @@
       <c r="D127" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E127" s="3">
-        <v>29265</v>
+      <c r="E127" s="1">
+        <v>35433</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>888</v>
@@ -20290,8 +20288,8 @@
       <c r="D128" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E128" s="3">
-        <v>29266</v>
+      <c r="E128" s="1">
+        <v>36022</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>893</v>
@@ -20352,8 +20350,8 @@
       <c r="D129" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E129" s="3">
-        <v>29267</v>
+      <c r="E129" s="1">
+        <v>36119</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>900</v>
@@ -20411,8 +20409,8 @@
       <c r="D130" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E130" s="3">
-        <v>29268</v>
+      <c r="E130" s="1">
+        <v>36370</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>906</v>
@@ -20470,8 +20468,8 @@
       <c r="D131" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E131" s="3">
-        <v>29269</v>
+      <c r="E131" s="1">
+        <v>31857</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>912</v>
@@ -20529,8 +20527,8 @@
       <c r="D132" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E132" s="3">
-        <v>29270</v>
+      <c r="E132" s="1">
+        <v>36070</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>919</v>
@@ -20588,8 +20586,8 @@
       <c r="D133" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E133" s="3">
-        <v>29271</v>
+      <c r="E133" s="1">
+        <v>36118</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>925</v>
@@ -20647,8 +20645,8 @@
       <c r="D134" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E134" s="3">
-        <v>29272</v>
+      <c r="E134" s="1">
+        <v>36252</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>931</v>
@@ -20706,8 +20704,8 @@
       <c r="D135" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E135" s="3">
-        <v>29273</v>
+      <c r="E135" s="1">
+        <v>35316</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>938</v>
@@ -20765,8 +20763,8 @@
       <c r="D136" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E136" s="3">
-        <v>29274</v>
+      <c r="E136" s="1">
+        <v>35767</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>944</v>
@@ -20824,8 +20822,8 @@
       <c r="D137" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E137" s="3">
-        <v>29275</v>
+      <c r="E137" s="1">
+        <v>35930</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>950</v>
@@ -20883,8 +20881,8 @@
       <c r="D138" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E138" s="3">
-        <v>29276</v>
+      <c r="E138" s="1">
+        <v>36075</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>956</v>
@@ -20945,8 +20943,8 @@
       <c r="D139" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E139" s="3">
-        <v>29277</v>
+      <c r="E139" s="1">
+        <v>36478</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>964</v>
@@ -21007,8 +21005,8 @@
       <c r="D140" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E140" s="3">
-        <v>29278</v>
+      <c r="E140" s="1">
+        <v>28323</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>970</v>
@@ -21066,8 +21064,8 @@
       <c r="D141" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E141" s="3">
-        <v>29279</v>
+      <c r="E141" s="1">
+        <v>30173</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>975</v>
@@ -21125,8 +21123,8 @@
       <c r="D142" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E142" s="3">
-        <v>29280</v>
+      <c r="E142" s="1">
+        <v>34881</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>982</v>
@@ -21181,8 +21179,8 @@
       <c r="D143" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E143" s="3">
-        <v>29281</v>
+      <c r="E143" s="1">
+        <v>35232</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>988</v>
@@ -21243,8 +21241,8 @@
       <c r="D144" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E144" s="3">
-        <v>29282</v>
+      <c r="E144" s="1">
+        <v>35611</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>996</v>
@@ -21302,8 +21300,8 @@
       <c r="D145" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E145" s="3">
-        <v>29283</v>
+      <c r="E145" s="1">
+        <v>35670</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>1002</v>
@@ -21361,8 +21359,8 @@
       <c r="D146" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E146" s="3">
-        <v>29284</v>
+      <c r="E146" s="1">
+        <v>35815</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>1009</v>
@@ -21423,8 +21421,8 @@
       <c r="D147" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E147" s="3">
-        <v>29285</v>
+      <c r="E147" s="1">
+        <v>36061</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>1016</v>
@@ -21482,8 +21480,8 @@
       <c r="D148" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E148" s="3">
-        <v>29286</v>
+      <c r="E148" s="1">
+        <v>36155</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>1021</v>
@@ -21541,8 +21539,8 @@
       <c r="D149" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E149" s="3">
-        <v>29287</v>
+      <c r="E149" s="1">
+        <v>36214</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>1028</v>
@@ -21600,8 +21598,8 @@
       <c r="D150" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E150" s="3">
-        <v>29288</v>
+      <c r="E150" s="1">
+        <v>36265</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>1035</v>
@@ -21662,8 +21660,8 @@
       <c r="D151" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E151" s="3">
-        <v>29289</v>
+      <c r="E151" s="1">
+        <v>26463</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>1041</v>
@@ -21721,8 +21719,8 @@
       <c r="D152" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E152" s="3">
-        <v>29290</v>
+      <c r="E152" s="1">
+        <v>30267</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>1046</v>
@@ -21783,8 +21781,8 @@
       <c r="D153" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E153" s="3">
-        <v>29291</v>
+      <c r="E153" s="1">
+        <v>33841</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>1052</v>
@@ -21839,8 +21837,8 @@
       <c r="D154" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E154" s="3">
-        <v>29292</v>
+      <c r="E154" s="1">
+        <v>34148</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>1058</v>
@@ -21898,8 +21896,8 @@
       <c r="D155" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E155" s="3">
-        <v>29293</v>
+      <c r="E155" s="1">
+        <v>35076</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>1065</v>
@@ -21960,8 +21958,8 @@
       <c r="D156" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E156" s="3">
-        <v>29294</v>
+      <c r="E156" s="1">
+        <v>36306</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>1072</v>
@@ -22022,8 +22020,8 @@
       <c r="D157" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E157" s="3">
-        <v>29295</v>
+      <c r="E157" s="1">
+        <v>33457</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>1079</v>
@@ -22078,8 +22076,8 @@
       <c r="D158" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E158" s="3">
-        <v>29296</v>
+      <c r="E158" s="1">
+        <v>34853</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>1083</v>
@@ -22140,8 +22138,8 @@
       <c r="D159" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E159" s="3">
-        <v>29297</v>
+      <c r="E159" s="1">
+        <v>35724</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>1090</v>
@@ -22202,8 +22200,8 @@
       <c r="D160" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E160" s="3">
-        <v>29298</v>
+      <c r="E160" s="1">
+        <v>36662</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>1097</v>
@@ -22261,8 +22259,8 @@
       <c r="D161" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E161" s="3">
-        <v>29299</v>
+      <c r="E161" s="1">
+        <v>21534</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>1103</v>
@@ -22323,8 +22321,8 @@
       <c r="D162" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E162" s="3">
-        <v>29300</v>
+      <c r="E162" s="1">
+        <v>34337</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>1109</v>
@@ -22382,8 +22380,8 @@
       <c r="D163" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E163" s="3">
-        <v>29301</v>
+      <c r="E163" s="1">
+        <v>34963</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>1116</v>
@@ -22441,8 +22439,8 @@
       <c r="D164" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E164" s="3">
-        <v>29302</v>
+      <c r="E164" s="1">
+        <v>35434</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>1123</v>
@@ -22500,8 +22498,8 @@
       <c r="D165" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E165" s="3">
-        <v>29303</v>
+      <c r="E165" s="1">
+        <v>35922</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>1127</v>
@@ -22562,8 +22560,8 @@
       <c r="D166" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E166" s="3">
-        <v>29304</v>
+      <c r="E166" s="1">
+        <v>35950</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>1133</v>
@@ -22621,8 +22619,8 @@
       <c r="D167" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E167" s="3">
-        <v>29305</v>
+      <c r="E167" s="1">
+        <v>36350</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>1140</v>
@@ -22683,8 +22681,8 @@
       <c r="D168" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E168" s="3">
-        <v>29306</v>
+      <c r="E168" s="1">
+        <v>36438</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>1146</v>
@@ -22742,8 +22740,8 @@
       <c r="D169" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E169" s="3">
-        <v>29307</v>
+      <c r="E169" s="1">
+        <v>34416</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>1151</v>
@@ -22801,8 +22799,8 @@
       <c r="D170" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E170" s="3">
-        <v>29308</v>
+      <c r="E170" s="1">
+        <v>35073</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>1158</v>
@@ -22863,8 +22861,8 @@
       <c r="D171" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E171" s="3">
-        <v>29309</v>
+      <c r="E171" s="1">
+        <v>35927</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>1166</v>
@@ -22925,8 +22923,8 @@
       <c r="D172" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E172" s="3">
-        <v>29310</v>
+      <c r="E172" s="1">
+        <v>22037</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>1174</v>
@@ -22987,8 +22985,8 @@
       <c r="D173" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E173" s="3">
-        <v>29311</v>
+      <c r="E173" s="1">
+        <v>23661</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>1178</v>
@@ -23043,8 +23041,8 @@
       <c r="D174" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E174" s="3">
-        <v>29312</v>
+      <c r="E174" s="1">
+        <v>28085</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>1184</v>
@@ -23102,8 +23100,8 @@
       <c r="D175" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E175" s="3">
-        <v>29313</v>
+      <c r="E175" s="1">
+        <v>29023</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>1189</v>
@@ -23167,8 +23165,8 @@
       <c r="D176" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E176" s="3">
-        <v>29314</v>
+      <c r="E176" s="1">
+        <v>31898</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>1196</v>
@@ -23229,8 +23227,8 @@
       <c r="D177" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E177" s="3">
-        <v>29315</v>
+      <c r="E177" s="1">
+        <v>33560</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>1202</v>
@@ -23288,8 +23286,8 @@
       <c r="D178" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E178" s="3">
-        <v>29316</v>
+      <c r="E178" s="1">
+        <v>33567</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>1208</v>
@@ -23347,8 +23345,8 @@
       <c r="D179" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E179" s="3">
-        <v>29317</v>
+      <c r="E179" s="1">
+        <v>35057</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>1212</v>
@@ -23409,8 +23407,8 @@
       <c r="D180" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E180" s="3">
-        <v>29318</v>
+      <c r="E180" s="1">
+        <v>36138</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>1219</v>
@@ -23468,8 +23466,8 @@
       <c r="D181" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E181" s="3">
-        <v>29319</v>
+      <c r="E181" s="1">
+        <v>36307</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>1223</v>
@@ -23527,8 +23525,8 @@
       <c r="D182" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E182" s="3">
-        <v>29320</v>
+      <c r="E182" s="1">
+        <v>28420</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>1229</v>
@@ -23586,8 +23584,8 @@
       <c r="D183" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E183" s="3">
-        <v>29321</v>
+      <c r="E183" s="1">
+        <v>31472</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>1235</v>
@@ -23645,8 +23643,8 @@
       <c r="D184" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E184" s="3">
-        <v>29322</v>
+      <c r="E184" s="1">
+        <v>33507</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>1241</v>
@@ -23707,8 +23705,8 @@
       <c r="D185" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E185" s="3">
-        <v>29323</v>
+      <c r="E185" s="1">
+        <v>34313</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>1248</v>
@@ -23766,8 +23764,8 @@
       <c r="D186" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E186" s="3">
-        <v>29324</v>
+      <c r="E186" s="1">
+        <v>34619</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>1255</v>
@@ -23825,8 +23823,8 @@
       <c r="D187" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E187" s="3">
-        <v>29325</v>
+      <c r="E187" s="1">
+        <v>35216</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>1262</v>
@@ -23887,8 +23885,8 @@
       <c r="D188" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E188" s="3">
-        <v>29326</v>
+      <c r="E188" s="1">
+        <v>35439</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>1269</v>
@@ -23949,8 +23947,8 @@
       <c r="D189" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E189" s="3">
-        <v>29327</v>
+      <c r="E189" s="1">
+        <v>35596</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>1276</v>
@@ -24008,8 +24006,8 @@
       <c r="D190" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E190" s="3">
-        <v>29328</v>
+      <c r="E190" s="1">
+        <v>35834</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>1282</v>
@@ -24070,8 +24068,8 @@
       <c r="D191" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E191" s="3">
-        <v>29329</v>
+      <c r="E191" s="1">
+        <v>35911</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>1289</v>
@@ -24132,8 +24130,8 @@
       <c r="D192" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E192" s="3">
-        <v>29330</v>
+      <c r="E192" s="1">
+        <v>36327</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>1295</v>
@@ -24194,8 +24192,8 @@
       <c r="D193" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E193" s="3">
-        <v>29331</v>
+      <c r="E193" s="1">
+        <v>32583</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>1302</v>
@@ -24253,8 +24251,8 @@
       <c r="D194" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E194" s="3">
-        <v>29332</v>
+      <c r="E194" s="1">
+        <v>34032</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>1308</v>
@@ -24312,8 +24310,8 @@
       <c r="D195" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E195" s="3">
-        <v>29333</v>
+      <c r="E195" s="1">
+        <v>35138</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>1316</v>
@@ -24371,8 +24369,8 @@
       <c r="D196" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E196" s="3">
-        <v>29334</v>
+      <c r="E196" s="1">
+        <v>35736</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>1322</v>
@@ -24433,8 +24431,8 @@
       <c r="D197" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E197" s="3">
-        <v>29335</v>
+      <c r="E197" s="1">
+        <v>35757</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>1329</v>
@@ -24492,8 +24490,8 @@
       <c r="D198" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E198" s="3">
-        <v>29336</v>
+      <c r="E198" s="1">
+        <v>35882</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>1335</v>
@@ -24554,8 +24552,8 @@
       <c r="D199" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E199" s="3">
-        <v>29337</v>
+      <c r="E199" s="1">
+        <v>36003</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>1343</v>
@@ -24613,8 +24611,8 @@
       <c r="D200" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E200" s="3">
-        <v>29338</v>
+      <c r="E200" s="1">
+        <v>36024</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>1349</v>
@@ -24672,8 +24670,8 @@
       <c r="D201" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E201" s="3">
-        <v>29339</v>
+      <c r="E201" s="1">
+        <v>36070</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>1356</v>
@@ -24734,8 +24732,8 @@
       <c r="D202" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E202" s="3">
-        <v>29340</v>
+      <c r="E202" s="1">
+        <v>31077</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>1363</v>
@@ -24793,8 +24791,8 @@
       <c r="D203" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E203" s="3">
-        <v>29341</v>
+      <c r="E203" s="1">
+        <v>34674</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>1369</v>
@@ -24852,8 +24850,8 @@
       <c r="D204" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E204" s="3">
-        <v>29342</v>
+      <c r="E204" s="1">
+        <v>35527</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>1376</v>
@@ -24914,8 +24912,8 @@
       <c r="D205" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E205" s="3">
-        <v>29343</v>
+      <c r="E205" s="1">
+        <v>35701</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>1384</v>
@@ -24973,8 +24971,8 @@
       <c r="D206" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E206" s="3">
-        <v>29344</v>
+      <c r="E206" s="1">
+        <v>35901</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>1391</v>
@@ -25029,8 +25027,8 @@
       <c r="D207" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E207" s="3">
-        <v>29345</v>
+      <c r="E207" s="1">
+        <v>35913</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>1395</v>
@@ -25088,8 +25086,8 @@
       <c r="D208" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E208" s="3">
-        <v>29346</v>
+      <c r="E208" s="1">
+        <v>36078</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>1401</v>
@@ -25150,8 +25148,8 @@
       <c r="D209" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E209" s="3">
-        <v>29347</v>
+      <c r="E209" s="1">
+        <v>36290</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>1407</v>
@@ -25212,8 +25210,8 @@
       <c r="D210" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E210" s="3">
-        <v>29348</v>
+      <c r="E210" s="1">
+        <v>36371</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>1416</v>
@@ -25271,8 +25269,8 @@
       <c r="D211" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E211" s="3">
-        <v>29349</v>
+      <c r="E211" s="1">
+        <v>36451</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>1423</v>
@@ -25330,8 +25328,8 @@
       <c r="D212" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E212" s="3">
-        <v>29350</v>
+      <c r="E212" s="1">
+        <v>35692</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>1431</v>
@@ -25392,8 +25390,8 @@
       <c r="D213" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E213" s="3">
-        <v>29351</v>
+      <c r="E213" s="1">
+        <v>35901</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>1437</v>
@@ -25451,8 +25449,8 @@
       <c r="D214" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E214" s="3">
-        <v>29352</v>
+      <c r="E214" s="1">
+        <v>35852</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>1442</v>
@@ -25513,8 +25511,8 @@
       <c r="D215" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E215" s="3">
-        <v>29353</v>
+      <c r="E215" s="1">
+        <v>34138</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>1448</v>
@@ -25572,8 +25570,8 @@
       <c r="D216" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E216" s="3">
-        <v>29354</v>
+      <c r="E216" s="1">
+        <v>35876</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>1455</v>
@@ -25631,8 +25629,8 @@
       <c r="D217" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E217" s="3">
-        <v>29355</v>
+      <c r="E217" s="1">
+        <v>28096</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>1463</v>
@@ -25690,8 +25688,8 @@
       <c r="D218" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E218" s="3">
-        <v>29356</v>
+      <c r="E218" s="1">
+        <v>28459</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>1469</v>
@@ -25749,8 +25747,8 @@
       <c r="D219" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E219" s="3">
-        <v>29357</v>
+      <c r="E219" s="1">
+        <v>31471</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>1475</v>
@@ -25808,8 +25806,8 @@
       <c r="D220" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E220" s="3">
-        <v>29358</v>
+      <c r="E220" s="1">
+        <v>34513</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>1482</v>
@@ -25870,8 +25868,8 @@
       <c r="D221" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E221" s="3">
-        <v>29359</v>
+      <c r="E221" s="1">
+        <v>28466</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>1489</v>
@@ -25932,8 +25930,8 @@
       <c r="D222" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E222" s="3">
-        <v>29360</v>
+      <c r="E222" s="1">
+        <v>33525</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>1496</v>
@@ -25991,8 +25989,8 @@
       <c r="D223" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E223" s="3">
-        <v>29361</v>
+      <c r="E223" s="1">
+        <v>33541</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>1502</v>
@@ -26050,8 +26048,8 @@
       <c r="D224" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E224" s="3">
-        <v>29362</v>
+      <c r="E224" s="1">
+        <v>35541</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>1508</v>
@@ -26109,8 +26107,8 @@
       <c r="D225" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E225" s="3">
-        <v>29363</v>
+      <c r="E225" s="1">
+        <v>35876</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>1515</v>
@@ -26168,8 +26166,8 @@
       <c r="D226" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E226" s="3">
-        <v>29364</v>
+      <c r="E226" s="1">
+        <v>32187</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>1522</v>
@@ -26230,8 +26228,8 @@
       <c r="D227" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E227" s="3">
-        <v>29365</v>
+      <c r="E227" s="1">
+        <v>35836</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>1530</v>
@@ -26292,8 +26290,8 @@
       <c r="D228" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E228" s="3">
-        <v>29366</v>
+      <c r="E228" s="1">
+        <v>33377</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>1536</v>
@@ -26354,8 +26352,8 @@
       <c r="D229" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E229" s="3">
-        <v>29367</v>
+      <c r="E229" s="1">
+        <v>36343</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>1542</v>
@@ -26413,8 +26411,8 @@
       <c r="D230" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E230" s="3">
-        <v>29368</v>
+      <c r="E230" s="1">
+        <v>36572</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>1549</v>
@@ -26472,8 +26470,8 @@
       <c r="D231" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E231" s="3">
-        <v>29369</v>
+      <c r="E231" s="1">
+        <v>35382</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>1555</v>
@@ -26531,8 +26529,8 @@
       <c r="D232" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E232" s="3">
-        <v>29370</v>
+      <c r="E232" s="1">
+        <v>35616</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>1561</v>
@@ -26593,8 +26591,8 @@
       <c r="D233" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E233" s="3">
-        <v>29371</v>
+      <c r="E233" s="1">
+        <v>35708</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>1567</v>
@@ -26652,8 +26650,8 @@
       <c r="D234" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E234" s="3">
-        <v>29372</v>
+      <c r="E234" s="1">
+        <v>36275</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>1573</v>
@@ -26711,8 +26709,8 @@
       <c r="D235" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E235" s="3">
-        <v>29373</v>
+      <c r="E235" s="1">
+        <v>35972</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>1579</v>
@@ -26770,8 +26768,8 @@
       <c r="D236" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E236" s="3">
-        <v>29374</v>
+      <c r="E236" s="1">
+        <v>35606</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>1584</v>
@@ -26829,8 +26827,8 @@
       <c r="D237" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E237" s="3">
-        <v>29375</v>
+      <c r="E237" s="1">
+        <v>35665</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>1591</v>
@@ -26891,8 +26889,8 @@
       <c r="D238" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E238" s="3">
-        <v>29376</v>
+      <c r="E238" s="1">
+        <v>35089</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>1598</v>
@@ -26947,8 +26945,8 @@
       <c r="D239" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E239" s="3">
-        <v>29377</v>
+      <c r="E239" s="1">
+        <v>35662</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>1605</v>
@@ -27006,8 +27004,8 @@
       <c r="D240" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E240" s="3">
-        <v>29378</v>
+      <c r="E240" s="1">
+        <v>36491</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>1612</v>
@@ -27062,8 +27060,8 @@
       <c r="D241" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E241" s="3">
-        <v>29379</v>
+      <c r="E241" s="1">
+        <v>31495</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>1618</v>
@@ -27124,8 +27122,8 @@
       <c r="D242" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E242" s="3">
-        <v>29380</v>
+      <c r="E242" s="1">
+        <v>35522</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>1624</v>
@@ -27183,8 +27181,8 @@
       <c r="D243" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E243" s="3">
-        <v>29381</v>
+      <c r="E243" s="1">
+        <v>30233</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>1631</v>
@@ -27242,8 +27240,8 @@
       <c r="D244" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E244" s="3">
-        <v>29382</v>
+      <c r="E244" s="1">
+        <v>33929</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>1636</v>
@@ -27304,8 +27302,8 @@
       <c r="D245" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E245" s="3">
-        <v>29383</v>
+      <c r="E245" s="1">
+        <v>35470</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>1643</v>
@@ -27363,8 +27361,8 @@
       <c r="D246" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E246" s="3">
-        <v>29384</v>
+      <c r="E246" s="1">
+        <v>29826</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>1649</v>
@@ -27425,8 +27423,8 @@
       <c r="D247" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E247" s="3">
-        <v>29385</v>
+      <c r="E247" s="1">
+        <v>32861</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>1654</v>
@@ -27484,8 +27482,8 @@
       <c r="D248" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E248" s="3">
-        <v>29386</v>
+      <c r="E248" s="1">
+        <v>35404</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>1661</v>
@@ -27543,8 +27541,8 @@
       <c r="D249" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E249" s="3">
-        <v>29387</v>
+      <c r="E249" s="1">
+        <v>35674</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>1666</v>
@@ -27599,8 +27597,8 @@
       <c r="D250" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E250" s="3">
-        <v>29388</v>
+      <c r="E250" s="1">
+        <v>34717</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>1672</v>
@@ -27658,8 +27656,8 @@
       <c r="D251" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E251" s="3">
-        <v>29389</v>
+      <c r="E251" s="1">
+        <v>34813</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>1679</v>
@@ -27720,8 +27718,8 @@
       <c r="D252" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E252" s="3">
-        <v>29390</v>
+      <c r="E252" s="1">
+        <v>35691</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>1686</v>
@@ -27779,8 +27777,8 @@
       <c r="D253" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E253" s="3">
-        <v>29391</v>
+      <c r="E253" s="1">
+        <v>36118</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>1693</v>
@@ -27838,8 +27836,8 @@
       <c r="D254" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E254" s="3">
-        <v>29392</v>
+      <c r="E254" s="1">
+        <v>36041</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>1698</v>
@@ -27897,8 +27895,8 @@
       <c r="D255" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E255" s="3">
-        <v>29393</v>
+      <c r="E255" s="1">
+        <v>35039</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>1702</v>
@@ -27959,8 +27957,8 @@
       <c r="D256" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E256" s="3">
-        <v>29394</v>
+      <c r="E256" s="1">
+        <v>34897</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>1710</v>
@@ -28021,8 +28019,8 @@
       <c r="D257" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E257" s="3">
-        <v>29395</v>
+      <c r="E257" s="1">
+        <v>35269</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>1716</v>
@@ -28077,8 +28075,8 @@
       <c r="D258" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E258" s="3">
-        <v>29396</v>
+      <c r="E258" s="1">
+        <v>32557</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>1721</v>
@@ -28139,8 +28137,8 @@
       <c r="D259" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E259" s="3">
-        <v>29397</v>
+      <c r="E259" s="1">
+        <v>32562</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>1730</v>
@@ -28198,8 +28196,8 @@
       <c r="D260" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E260" s="3">
-        <v>29398</v>
+      <c r="E260" s="1">
+        <v>34020</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>1736</v>
@@ -28257,8 +28255,8 @@
       <c r="D261" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E261" s="3">
-        <v>29399</v>
+      <c r="E261" s="1">
+        <v>34123</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>1743</v>
@@ -28316,8 +28314,8 @@
       <c r="D262" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E262" s="3">
-        <v>29400</v>
+      <c r="E262" s="1">
+        <v>34230</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>1749</v>
@@ -28375,8 +28373,8 @@
       <c r="D263" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E263" s="3">
-        <v>29401</v>
+      <c r="E263" s="1">
+        <v>34676</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>1756</v>
@@ -28437,8 +28435,8 @@
       <c r="D264" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E264" s="3">
-        <v>29402</v>
+      <c r="E264" s="1">
+        <v>34787</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>1763</v>
@@ -28496,8 +28494,8 @@
       <c r="D265" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E265" s="3">
-        <v>29403</v>
+      <c r="E265" s="1">
+        <v>35075</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>1768</v>
@@ -28555,8 +28553,8 @@
       <c r="D266" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E266" s="3">
-        <v>29404</v>
+      <c r="E266" s="1">
+        <v>35119</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>1775</v>
@@ -28614,8 +28612,8 @@
       <c r="D267" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E267" s="3">
-        <v>29405</v>
+      <c r="E267" s="1">
+        <v>35420</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>1782</v>
@@ -28673,8 +28671,8 @@
       <c r="D268" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E268" s="3">
-        <v>29406</v>
+      <c r="E268" s="1">
+        <v>35449</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>1789</v>
@@ -28735,8 +28733,8 @@
       <c r="D269" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E269" s="3">
-        <v>29407</v>
+      <c r="E269" s="1">
+        <v>36148</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>1794</v>
@@ -28797,8 +28795,8 @@
       <c r="D270" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E270" s="3">
-        <v>29408</v>
+      <c r="E270" s="1">
+        <v>36448</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>1802</v>
@@ -28859,8 +28857,8 @@
       <c r="D271" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E271" s="3">
-        <v>29409</v>
+      <c r="E271" s="1">
+        <v>31823</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>1808</v>
@@ -28918,8 +28916,8 @@
       <c r="D272" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E272" s="3">
-        <v>29410</v>
+      <c r="E272" s="1">
+        <v>35131</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>1814</v>
@@ -28977,8 +28975,8 @@
       <c r="D273" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E273" s="3">
-        <v>29411</v>
+      <c r="E273" s="1">
+        <v>35272</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>1821</v>
@@ -29036,8 +29034,8 @@
       <c r="D274" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E274" s="3">
-        <v>29412</v>
+      <c r="E274" s="1">
+        <v>35568</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>1828</v>
@@ -29095,8 +29093,8 @@
       <c r="D275" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E275" s="3">
-        <v>29413</v>
+      <c r="E275" s="1">
+        <v>35599</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>1835</v>
@@ -29154,8 +29152,8 @@
       <c r="D276" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E276" s="3">
-        <v>29414</v>
+      <c r="E276" s="1">
+        <v>35808</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>1842</v>
@@ -29216,8 +29214,8 @@
       <c r="D277" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E277" s="3">
-        <v>29415</v>
+      <c r="E277" s="1">
+        <v>36013</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>1848</v>
@@ -29275,8 +29273,8 @@
       <c r="D278" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E278" s="3">
-        <v>29416</v>
+      <c r="E278" s="1">
+        <v>30051</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>1855</v>
@@ -29331,8 +29329,8 @@
       <c r="D279" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E279" s="3">
-        <v>29417</v>
+      <c r="E279" s="1">
+        <v>30899</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>1860</v>
@@ -29390,8 +29388,8 @@
       <c r="D280" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E280" s="3">
-        <v>29418</v>
+      <c r="E280" s="1">
+        <v>32641</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>1866</v>
@@ -29452,8 +29450,8 @@
       <c r="D281" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E281" s="3">
-        <v>29419</v>
+      <c r="E281" s="1">
+        <v>32940</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>1873</v>
@@ -29511,8 +29509,8 @@
       <c r="D282" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E282" s="3">
-        <v>29420</v>
+      <c r="E282" s="1">
+        <v>32962</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>1880</v>
@@ -29570,8 +29568,8 @@
       <c r="D283" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E283" s="3">
-        <v>29421</v>
+      <c r="E283" s="1">
+        <v>34525</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>1887</v>
@@ -29629,8 +29627,8 @@
       <c r="D284" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E284" s="3">
-        <v>29422</v>
+      <c r="E284" s="1">
+        <v>34701</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>1894</v>
@@ -29691,8 +29689,8 @@
       <c r="D285" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E285" s="3">
-        <v>29423</v>
+      <c r="E285" s="1">
+        <v>34762</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>1900</v>
@@ -29750,8 +29748,8 @@
       <c r="D286" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E286" s="3">
-        <v>29424</v>
+      <c r="E286" s="1">
+        <v>34784</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>1907</v>
@@ -29809,8 +29807,8 @@
       <c r="D287" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E287" s="3">
-        <v>29425</v>
+      <c r="E287" s="1">
+        <v>34962</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>1913</v>
@@ -29871,8 +29869,8 @@
       <c r="D288" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E288" s="3">
-        <v>29426</v>
+      <c r="E288" s="1">
+        <v>35069</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>1919</v>
@@ -29927,8 +29925,8 @@
       <c r="D289" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E289" s="3">
-        <v>29427</v>
+      <c r="E289" s="1">
+        <v>35319</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>1924</v>
@@ -29989,8 +29987,8 @@
       <c r="D290" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E290" s="3">
-        <v>29428</v>
+      <c r="E290" s="1">
+        <v>29400</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>1930</v>
@@ -30045,8 +30043,8 @@
       <c r="D291" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E291" s="3">
-        <v>29429</v>
+      <c r="E291" s="1">
+        <v>32156</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>1934</v>
@@ -30104,8 +30102,8 @@
       <c r="D292" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E292" s="3">
-        <v>29430</v>
+      <c r="E292" s="1">
+        <v>32796</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>1942</v>
@@ -30166,8 +30164,8 @@
       <c r="D293" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E293" s="3">
-        <v>29431</v>
+      <c r="E293" s="1">
+        <v>34197</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>1948</v>
@@ -30228,8 +30226,8 @@
       <c r="D294" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E294" s="3">
-        <v>29432</v>
+      <c r="E294" s="1">
+        <v>34680</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>1953</v>
@@ -30284,8 +30282,8 @@
       <c r="D295" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E295" s="3">
-        <v>29433</v>
+      <c r="E295" s="1">
+        <v>34819</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>1959</v>
@@ -30343,8 +30341,8 @@
       <c r="D296" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E296" s="3">
-        <v>29434</v>
+      <c r="E296" s="1">
+        <v>34876</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>1965</v>
@@ -30405,8 +30403,8 @@
       <c r="D297" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E297" s="3">
-        <v>29435</v>
+      <c r="E297" s="1">
+        <v>34878</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>1972</v>
@@ -30464,8 +30462,8 @@
       <c r="D298" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E298" s="3">
-        <v>29436</v>
+      <c r="E298" s="1">
+        <v>35241</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>1979</v>
@@ -30523,8 +30521,8 @@
       <c r="D299" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E299" s="3">
-        <v>29437</v>
+      <c r="E299" s="1">
+        <v>35579</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>1986</v>
@@ -30582,8 +30580,8 @@
       <c r="D300" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E300" s="3">
-        <v>29438</v>
+      <c r="E300" s="1">
+        <v>35793</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>1991</v>
@@ -30641,8 +30639,8 @@
       <c r="D301" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E301" s="3">
-        <v>29439</v>
+      <c r="E301" s="1">
+        <v>35794</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>1997</v>
@@ -30700,8 +30698,8 @@
       <c r="D302" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E302" s="3">
-        <v>29440</v>
+      <c r="E302" s="1">
+        <v>36214</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>2004</v>
@@ -30759,8 +30757,8 @@
       <c r="D303" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E303" s="3">
-        <v>29441</v>
+      <c r="E303" s="1">
+        <v>36426</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>2009</v>
@@ -30818,8 +30816,8 @@
       <c r="D304" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E304" s="3">
-        <v>29442</v>
+      <c r="E304" s="1">
+        <v>34376</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>2015</v>
@@ -30877,8 +30875,8 @@
       <c r="D305" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E305" s="3">
-        <v>29443</v>
+      <c r="E305" s="1">
+        <v>34411</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>2021</v>
@@ -30936,8 +30934,8 @@
       <c r="D306" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E306" s="3">
-        <v>29444</v>
+      <c r="E306" s="1">
+        <v>34927</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>2027</v>
@@ -30995,8 +30993,8 @@
       <c r="D307" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E307" s="3">
-        <v>29445</v>
+      <c r="E307" s="1">
+        <v>35488</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>2034</v>
@@ -31054,8 +31052,8 @@
       <c r="D308" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E308" s="3">
-        <v>29446</v>
+      <c r="E308" s="1">
+        <v>35535</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>2040</v>
@@ -31113,8 +31111,8 @@
       <c r="D309" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E309" s="3">
-        <v>29447</v>
+      <c r="E309" s="1">
+        <v>35595</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>2045</v>
@@ -31172,8 +31170,8 @@
       <c r="D310" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E310" s="3">
-        <v>29448</v>
+      <c r="E310" s="1">
+        <v>35972</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>2051</v>
@@ -31231,8 +31229,8 @@
       <c r="D311" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E311" s="3">
-        <v>29449</v>
+      <c r="E311" s="1">
+        <v>33061</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>2057</v>
@@ -31290,8 +31288,8 @@
       <c r="D312" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E312" s="3">
-        <v>29450</v>
+      <c r="E312" s="1">
+        <v>34832</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>2062</v>
@@ -31349,8 +31347,8 @@
       <c r="D313" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E313" s="3">
-        <v>29451</v>
+      <c r="E313" s="1">
+        <v>34916</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>2067</v>
@@ -31411,8 +31409,8 @@
       <c r="D314" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E314" s="3">
-        <v>29452</v>
+      <c r="E314" s="1">
+        <v>34922</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>2074</v>
@@ -31470,8 +31468,8 @@
       <c r="D315" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E315" s="3">
-        <v>29453</v>
+      <c r="E315" s="1">
+        <v>35093</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>2081</v>
@@ -31532,8 +31530,8 @@
       <c r="D316" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E316" s="3">
-        <v>29454</v>
+      <c r="E316" s="1">
+        <v>35230</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>2086</v>
@@ -31591,8 +31589,8 @@
       <c r="D317" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E317" s="3">
-        <v>29455</v>
+      <c r="E317" s="1">
+        <v>35696</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>2093</v>
@@ -31650,8 +31648,8 @@
       <c r="D318" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E318" s="3">
-        <v>29456</v>
+      <c r="E318" s="1">
+        <v>36112</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>2098</v>
@@ -31712,8 +31710,8 @@
       <c r="D319" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E319" s="3">
-        <v>29457</v>
+      <c r="E319" s="1">
+        <v>31547</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>2104</v>
@@ -31774,8 +31772,8 @@
       <c r="D320" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E320" s="3">
-        <v>29458</v>
+      <c r="E320" s="1">
+        <v>31907</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>2110</v>
@@ -31833,8 +31831,8 @@
       <c r="D321" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E321" s="3">
-        <v>29459</v>
+      <c r="E321" s="1">
+        <v>32823</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>2115</v>
@@ -31892,8 +31890,8 @@
       <c r="D322" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E322" s="3">
-        <v>29460</v>
+      <c r="E322" s="1">
+        <v>33924</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>2121</v>
@@ -31948,8 +31946,8 @@
       <c r="D323" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E323" s="3">
-        <v>29461</v>
+      <c r="E323" s="1">
+        <v>34822</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>2127</v>
@@ -32007,8 +32005,8 @@
       <c r="D324" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E324" s="3">
-        <v>29462</v>
+      <c r="E324" s="1">
+        <v>35019</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>2133</v>
@@ -32066,8 +32064,8 @@
       <c r="D325" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E325" s="3">
-        <v>29463</v>
+      <c r="E325" s="1">
+        <v>35618</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>2139</v>
@@ -32125,8 +32123,8 @@
       <c r="D326" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E326" s="3">
-        <v>29464</v>
+      <c r="E326" s="1">
+        <v>34023</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>2146</v>
@@ -32187,8 +32185,8 @@
       <c r="D327" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E327" s="3">
-        <v>29465</v>
+      <c r="E327" s="1">
+        <v>34779</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>2154</v>
@@ -32243,8 +32241,8 @@
       <c r="D328" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E328" s="3">
-        <v>29466</v>
+      <c r="E328" s="1">
+        <v>35264</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>2158</v>
@@ -32299,8 +32297,8 @@
       <c r="D329" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E329" s="3">
-        <v>29467</v>
+      <c r="E329" s="1">
+        <v>30360</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>2163</v>
@@ -32358,8 +32356,8 @@
       <c r="D330" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E330" s="3">
-        <v>29468</v>
+      <c r="E330" s="1">
+        <v>32071</v>
       </c>
       <c r="F330" s="1" t="s">
         <v>2170</v>
@@ -32420,8 +32418,8 @@
       <c r="D331" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E331" s="3">
-        <v>29469</v>
+      <c r="E331" s="1">
+        <v>35436</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>2176</v>
@@ -32485,8 +32483,8 @@
       <c r="D332" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E332" s="3">
-        <v>29470</v>
+      <c r="E332" s="1">
+        <v>35940</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>2183</v>
@@ -32547,8 +32545,8 @@
       <c r="D333" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E333" s="3">
-        <v>29471</v>
+      <c r="E333" s="1">
+        <v>36183</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>2191</v>
@@ -32603,8 +32601,8 @@
       <c r="D334" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E334" s="3">
-        <v>29472</v>
+      <c r="E334" s="1">
+        <v>35594</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>2197</v>
@@ -32662,8 +32660,8 @@
       <c r="D335" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E335" s="3">
-        <v>29473</v>
+      <c r="E335" s="1">
+        <v>35822</v>
       </c>
       <c r="F335" s="1" t="s">
         <v>2204</v>
@@ -32721,8 +32719,8 @@
       <c r="D336" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E336" s="3">
-        <v>29474</v>
+      <c r="E336" s="1">
+        <v>35803</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>2210</v>
@@ -32780,8 +32778,8 @@
       <c r="D337" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E337" s="3">
-        <v>29475</v>
+      <c r="E337" s="1">
+        <v>32788</v>
       </c>
       <c r="F337" s="1" t="s">
         <v>2217</v>
@@ -32836,8 +32834,8 @@
       <c r="D338" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E338" s="3">
-        <v>29476</v>
+      <c r="E338" s="1">
+        <v>35582</v>
       </c>
       <c r="F338" s="1" t="s">
         <v>2222</v>
@@ -32898,8 +32896,8 @@
       <c r="D339" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E339" s="3">
-        <v>29477</v>
+      <c r="E339" s="1">
+        <v>35850</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>2230</v>
@@ -32960,8 +32958,8 @@
       <c r="D340" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E340" s="3">
-        <v>29478</v>
+      <c r="E340" s="1">
+        <v>36405</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>2237</v>
@@ -33019,8 +33017,8 @@
       <c r="D341" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E341" s="3">
-        <v>29479</v>
+      <c r="E341" s="1">
+        <v>33252</v>
       </c>
       <c r="F341" s="1" t="s">
         <v>2243</v>
@@ -33078,8 +33076,8 @@
       <c r="D342" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E342" s="3">
-        <v>29480</v>
+      <c r="E342" s="1">
+        <v>34538</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>2250</v>
@@ -33137,8 +33135,8 @@
       <c r="D343" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E343" s="3">
-        <v>29481</v>
+      <c r="E343" s="1">
+        <v>30786</v>
       </c>
       <c r="F343" s="1" t="s">
         <v>2257</v>
@@ -33196,8 +33194,8 @@
       <c r="D344" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E344" s="3">
-        <v>29482</v>
+      <c r="E344" s="1">
+        <v>26498</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>2265</v>
@@ -33258,8 +33256,8 @@
       <c r="D345" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E345" s="3">
-        <v>29483</v>
+      <c r="E345" s="1">
+        <v>35583</v>
       </c>
       <c r="F345" s="1" t="s">
         <v>2270</v>
@@ -33317,8 +33315,8 @@
       <c r="D346" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E346" s="3">
-        <v>29484</v>
+      <c r="E346" s="1">
+        <v>33997</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>2277</v>
@@ -33376,8 +33374,8 @@
       <c r="D347" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E347" s="3">
-        <v>29485</v>
+      <c r="E347" s="1">
+        <v>35020</v>
       </c>
       <c r="F347" s="1" t="s">
         <v>2284</v>
@@ -33435,8 +33433,8 @@
       <c r="D348" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E348" s="3">
-        <v>29486</v>
+      <c r="E348" s="1">
+        <v>35753</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>2291</v>
@@ -33491,8 +33489,8 @@
       <c r="D349" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E349" s="3">
-        <v>29487</v>
+      <c r="E349" s="1">
+        <v>35656</v>
       </c>
       <c r="F349" s="1" t="s">
         <v>2296</v>
@@ -33550,8 +33548,8 @@
       <c r="D350" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E350" s="3">
-        <v>29488</v>
+      <c r="E350" s="1">
+        <v>24674</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>2303</v>
@@ -33609,8 +33607,8 @@
       <c r="D351" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E351" s="3">
-        <v>29489</v>
+      <c r="E351" s="1">
+        <v>35067</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>2309</v>
@@ -33671,8 +33669,8 @@
       <c r="D352" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E352" s="3">
-        <v>29490</v>
+      <c r="E352" s="1">
+        <v>35746</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>2315</v>
@@ -33730,8 +33728,8 @@
       <c r="D353" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E353" s="3">
-        <v>29491</v>
+      <c r="E353" s="1">
+        <v>35177</v>
       </c>
       <c r="F353" s="1" t="s">
         <v>2320</v>
@@ -33789,8 +33787,8 @@
       <c r="D354" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E354" s="3">
-        <v>29492</v>
+      <c r="E354" s="1">
+        <v>35197</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>2327</v>
@@ -33848,8 +33846,8 @@
       <c r="D355" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E355" s="3">
-        <v>29493</v>
+      <c r="E355" s="1">
+        <v>35470</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>2334</v>
@@ -33907,8 +33905,8 @@
       <c r="D356" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E356" s="3">
-        <v>29494</v>
+      <c r="E356" s="1">
+        <v>33307</v>
       </c>
       <c r="F356" s="1" t="s">
         <v>2339</v>
@@ -33966,8 +33964,8 @@
       <c r="D357" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E357" s="3">
-        <v>29495</v>
+      <c r="E357" s="1">
+        <v>35919</v>
       </c>
       <c r="F357" s="1" t="s">
         <v>2345</v>
@@ -34025,8 +34023,8 @@
       <c r="D358" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E358" s="3">
-        <v>29496</v>
+      <c r="E358" s="1">
+        <v>35476</v>
       </c>
       <c r="F358" s="1" t="s">
         <v>2352</v>
@@ -34084,8 +34082,8 @@
       <c r="D359" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E359" s="3">
-        <v>29497</v>
+      <c r="E359" s="1">
+        <v>33114</v>
       </c>
       <c r="F359" s="1" t="s">
         <v>2358</v>
@@ -34146,8 +34144,8 @@
       <c r="D360" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E360" s="3">
-        <v>29498</v>
+      <c r="E360" s="1">
+        <v>31186</v>
       </c>
       <c r="F360" s="1" t="s">
         <v>2364</v>
@@ -34205,8 +34203,8 @@
       <c r="D361" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E361" s="3">
-        <v>29499</v>
+      <c r="E361" s="1">
+        <v>34564</v>
       </c>
       <c r="F361" s="1" t="s">
         <v>2370</v>
@@ -34267,8 +34265,8 @@
       <c r="D362" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E362" s="3">
-        <v>29500</v>
+      <c r="E362" s="1">
+        <v>35513</v>
       </c>
       <c r="F362" s="1" t="s">
         <v>2378</v>
@@ -34326,8 +34324,8 @@
       <c r="D363" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E363" s="3">
-        <v>29501</v>
+      <c r="E363" s="1">
+        <v>34262</v>
       </c>
       <c r="F363" s="1" t="s">
         <v>2384</v>
@@ -34382,8 +34380,8 @@
       <c r="D364" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E364" s="3">
-        <v>29502</v>
+      <c r="E364" s="1">
+        <v>35381</v>
       </c>
       <c r="F364" s="1" t="s">
         <v>2390</v>
@@ -34444,8 +34442,8 @@
       <c r="D365" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E365" s="3">
-        <v>29503</v>
+      <c r="E365" s="1">
+        <v>28573</v>
       </c>
       <c r="F365" s="1" t="s">
         <v>2394</v>
@@ -34506,8 +34504,8 @@
       <c r="D366" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E366" s="3">
-        <v>29504</v>
+      <c r="E366" s="1">
+        <v>35213</v>
       </c>
       <c r="F366" s="1" t="s">
         <v>2402</v>
@@ -34565,8 +34563,8 @@
       <c r="D367" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E367" s="3">
-        <v>29505</v>
+      <c r="E367" s="1">
+        <v>35629</v>
       </c>
       <c r="F367" s="1" t="s">
         <v>2409</v>
@@ -34624,8 +34622,8 @@
       <c r="D368" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E368" s="3">
-        <v>29506</v>
+      <c r="E368" s="1">
+        <v>36262</v>
       </c>
       <c r="F368" s="1" t="s">
         <v>2414</v>
@@ -34680,8 +34678,8 @@
       <c r="D369" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E369" s="3">
-        <v>29507</v>
+      <c r="E369" s="1">
+        <v>35591</v>
       </c>
       <c r="F369" s="1" t="s">
         <v>2418</v>
@@ -34736,8 +34734,8 @@
       <c r="D370" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E370" s="3">
-        <v>29508</v>
+      <c r="E370" s="1">
+        <v>34680</v>
       </c>
       <c r="F370" s="1" t="s">
         <v>2424</v>
@@ -34798,8 +34796,8 @@
       <c r="D371" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E371" s="3">
-        <v>29509</v>
+      <c r="E371" s="1">
+        <v>35695</v>
       </c>
       <c r="F371" s="1" t="s">
         <v>2430</v>
@@ -34854,8 +34852,8 @@
       <c r="D372" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E372" s="3">
-        <v>29510</v>
+      <c r="E372" s="1">
+        <v>32201</v>
       </c>
       <c r="F372" s="1" t="s">
         <v>2435</v>
@@ -34913,8 +34911,8 @@
       <c r="D373" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E373" s="3">
-        <v>29511</v>
+      <c r="E373" s="1">
+        <v>35672</v>
       </c>
       <c r="F373" s="1" t="s">
         <v>2442</v>
@@ -34972,8 +34970,8 @@
       <c r="D374" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E374" s="3">
-        <v>29512</v>
+      <c r="E374" s="1">
+        <v>36103</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>2448</v>
@@ -35034,8 +35032,8 @@
       <c r="D375" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E375" s="3">
-        <v>29513</v>
+      <c r="E375" s="1">
+        <v>36409</v>
       </c>
       <c r="F375" s="1" t="s">
         <v>2454</v>
@@ -35096,8 +35094,8 @@
       <c r="D376" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E376" s="3">
-        <v>29514</v>
+      <c r="E376" s="1">
+        <v>34440</v>
       </c>
       <c r="F376" s="1" t="s">
         <v>2458</v>
@@ -35158,8 +35156,8 @@
       <c r="D377" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E377" s="3">
-        <v>29515</v>
+      <c r="E377" s="1">
+        <v>35489</v>
       </c>
       <c r="F377" s="1" t="s">
         <v>2464</v>
@@ -35214,8 +35212,8 @@
       <c r="D378" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E378" s="3">
-        <v>29516</v>
+      <c r="E378" s="1">
+        <v>36167</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>2469</v>
@@ -35276,8 +35274,8 @@
       <c r="D379" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E379" s="3">
-        <v>29517</v>
+      <c r="E379" s="1">
+        <v>35868</v>
       </c>
       <c r="F379" s="1" t="s">
         <v>2474</v>
@@ -35335,8 +35333,8 @@
       <c r="D380" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E380" s="3">
-        <v>29518</v>
+      <c r="E380" s="1">
+        <v>33706</v>
       </c>
       <c r="F380" s="1" t="s">
         <v>2481</v>
@@ -35394,8 +35392,8 @@
       <c r="D381" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E381" s="3">
-        <v>29519</v>
+      <c r="E381" s="1">
+        <v>28703</v>
       </c>
       <c r="F381" s="1" t="s">
         <v>2487</v>
@@ -35450,8 +35448,8 @@
       <c r="D382" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E382" s="3">
-        <v>29520</v>
+      <c r="E382" s="1">
+        <v>34128</v>
       </c>
       <c r="F382" s="1" t="s">
         <v>2492</v>
@@ -35515,8 +35513,8 @@
       <c r="D383" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E383" s="3">
-        <v>29521</v>
+      <c r="E383" s="1">
+        <v>35005</v>
       </c>
       <c r="F383" s="1" t="s">
         <v>2498</v>
@@ -35574,8 +35572,8 @@
       <c r="D384" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E384" s="3">
-        <v>29522</v>
+      <c r="E384" s="1">
+        <v>35074</v>
       </c>
       <c r="F384" s="1" t="s">
         <v>2505</v>
@@ -35636,8 +35634,8 @@
       <c r="D385" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E385" s="3">
-        <v>29523</v>
+      <c r="E385" s="1">
+        <v>34600</v>
       </c>
       <c r="F385" s="1" t="s">
         <v>2511</v>
@@ -35695,8 +35693,8 @@
       <c r="D386" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E386" s="3">
-        <v>29524</v>
+      <c r="E386" s="1">
+        <v>35658</v>
       </c>
       <c r="F386" s="1" t="s">
         <v>2518</v>
@@ -35754,8 +35752,8 @@
       <c r="D387" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E387" s="3">
-        <v>29525</v>
+      <c r="E387" s="1">
+        <v>35845</v>
       </c>
       <c r="F387" s="1" t="s">
         <v>2524</v>
@@ -35816,8 +35814,8 @@
       <c r="D388" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E388" s="3">
-        <v>29526</v>
+      <c r="E388" s="1">
+        <v>35880</v>
       </c>
       <c r="F388" s="1" t="s">
         <v>2531</v>
@@ -35875,8 +35873,8 @@
       <c r="D389" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E389" s="3">
-        <v>29527</v>
+      <c r="E389" s="1">
+        <v>33181</v>
       </c>
       <c r="F389" s="1" t="s">
         <v>2537</v>
@@ -35934,8 +35932,8 @@
       <c r="D390" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E390" s="3">
-        <v>29528</v>
+      <c r="E390" s="1">
+        <v>34781</v>
       </c>
       <c r="F390" s="1" t="s">
         <v>2543</v>
@@ -35993,8 +35991,8 @@
       <c r="D391" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E391" s="3">
-        <v>29529</v>
+      <c r="E391" s="1">
+        <v>35332</v>
       </c>
       <c r="F391" s="1" t="s">
         <v>2550</v>
@@ -36052,8 +36050,8 @@
       <c r="D392" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E392" s="3">
-        <v>29530</v>
+      <c r="E392" s="1">
+        <v>35387</v>
       </c>
       <c r="F392" s="1" t="s">
         <v>2555</v>
@@ -36108,8 +36106,8 @@
       <c r="D393" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E393" s="3">
-        <v>29531</v>
+      <c r="E393" s="1">
+        <v>36510</v>
       </c>
       <c r="F393" s="1" t="s">
         <v>2560</v>
@@ -36167,8 +36165,8 @@
       <c r="D394" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E394" s="3">
-        <v>29532</v>
+      <c r="E394" s="1">
+        <v>35951</v>
       </c>
       <c r="F394" s="1" t="s">
         <v>2565</v>
@@ -36229,8 +36227,8 @@
       <c r="D395" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E395" s="3">
-        <v>29533</v>
+      <c r="E395" s="1">
+        <v>35471</v>
       </c>
       <c r="F395" s="1" t="s">
         <v>2572</v>
@@ -36288,8 +36286,8 @@
       <c r="D396" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E396" s="3">
-        <v>29534</v>
+      <c r="E396" s="1">
+        <v>34501</v>
       </c>
       <c r="F396" s="1" t="s">
         <v>2577</v>
@@ -36347,8 +36345,8 @@
       <c r="D397" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E397" s="3">
-        <v>29535</v>
+      <c r="E397" s="1">
+        <v>34979</v>
       </c>
       <c r="F397" s="1" t="s">
         <v>2584</v>
@@ -36406,8 +36404,8 @@
       <c r="D398" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E398" s="3">
-        <v>29536</v>
+      <c r="E398" s="1">
+        <v>36140</v>
       </c>
       <c r="F398" s="1" t="s">
         <v>2590</v>
@@ -36465,8 +36463,8 @@
       <c r="D399" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E399" s="3">
-        <v>29537</v>
+      <c r="E399" s="1">
+        <v>35937</v>
       </c>
       <c r="F399" s="1" t="s">
         <v>2597</v>
@@ -36524,8 +36522,8 @@
       <c r="D400" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E400" s="3">
-        <v>29538</v>
+      <c r="E400" s="1">
+        <v>35990</v>
       </c>
       <c r="F400" s="1" t="s">
         <v>2604</v>
@@ -36580,8 +36578,8 @@
       <c r="D401" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E401" s="3">
-        <v>29539</v>
+      <c r="E401" s="1">
+        <v>35622</v>
       </c>
       <c r="F401" s="1" t="s">
         <v>2610</v>
@@ -36639,8 +36637,8 @@
       <c r="D402" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E402" s="3">
-        <v>29540</v>
+      <c r="E402" s="1">
+        <v>26532</v>
       </c>
       <c r="F402" s="1" t="s">
         <v>2617</v>
@@ -36701,8 +36699,8 @@
       <c r="D403" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E403" s="3">
-        <v>29541</v>
+      <c r="E403" s="1">
+        <v>36344</v>
       </c>
       <c r="F403" s="1" t="s">
         <v>2624</v>
@@ -36763,8 +36761,8 @@
       <c r="D404" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E404" s="3">
-        <v>29542</v>
+      <c r="E404" s="1">
+        <v>32034</v>
       </c>
       <c r="F404" s="1" t="s">
         <v>2630</v>
@@ -36825,8 +36823,8 @@
       <c r="D405" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E405" s="3">
-        <v>29543</v>
+      <c r="E405" s="1">
+        <v>35914</v>
       </c>
       <c r="F405" s="1" t="s">
         <v>2636</v>
@@ -36881,8 +36879,8 @@
       <c r="D406" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E406" s="3">
-        <v>29544</v>
+      <c r="E406" s="1">
+        <v>32498</v>
       </c>
       <c r="F406" s="1" t="s">
         <v>2642</v>
@@ -36940,8 +36938,8 @@
       <c r="D407" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E407" s="3">
-        <v>29545</v>
+      <c r="E407" s="1">
+        <v>34398</v>
       </c>
       <c r="F407" s="1" t="s">
         <v>2647</v>
@@ -36999,8 +36997,8 @@
       <c r="D408" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E408" s="3">
-        <v>29546</v>
+      <c r="E408" s="1">
+        <v>36107</v>
       </c>
       <c r="F408" s="1" t="s">
         <v>2654</v>
@@ -37055,8 +37053,8 @@
       <c r="D409" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E409" s="3">
-        <v>29547</v>
+      <c r="E409" s="1">
+        <v>35480</v>
       </c>
       <c r="F409" s="1" t="s">
         <v>2659</v>
@@ -37117,8 +37115,8 @@
       <c r="D410" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E410" s="3">
-        <v>29548</v>
+      <c r="E410" s="1">
+        <v>36462</v>
       </c>
       <c r="F410" s="1" t="s">
         <v>2665</v>
@@ -37176,8 +37174,8 @@
       <c r="D411" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E411" s="3">
-        <v>29549</v>
+      <c r="E411" s="1">
+        <v>34423</v>
       </c>
       <c r="F411" s="1" t="s">
         <v>2670</v>
@@ -37235,8 +37233,8 @@
       <c r="D412" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E412" s="3">
-        <v>29550</v>
+      <c r="E412" s="1">
+        <v>35176</v>
       </c>
       <c r="F412" s="1" t="s">
         <v>2676</v>
@@ -37294,8 +37292,8 @@
       <c r="D413" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E413" s="3">
-        <v>29551</v>
+      <c r="E413" s="1">
+        <v>36191</v>
       </c>
       <c r="F413" s="1" t="s">
         <v>2682</v>
@@ -37353,8 +37351,8 @@
       <c r="D414" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E414" s="3">
-        <v>29552</v>
+      <c r="E414" s="1">
+        <v>36276</v>
       </c>
       <c r="F414" s="1" t="s">
         <v>2689</v>
@@ -37415,8 +37413,8 @@
       <c r="D415" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E415" s="3">
-        <v>29553</v>
+      <c r="E415" s="1">
+        <v>32027</v>
       </c>
       <c r="F415" s="1" t="s">
         <v>2696</v>
@@ -37474,8 +37472,8 @@
       <c r="D416" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E416" s="3">
-        <v>29554</v>
+      <c r="E416" s="1">
+        <v>34982</v>
       </c>
       <c r="F416" s="1" t="s">
         <v>2702</v>
@@ -37536,8 +37534,8 @@
       <c r="D417" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E417" s="3">
-        <v>29555</v>
+      <c r="E417" s="1">
+        <v>34927</v>
       </c>
       <c r="F417" s="1" t="s">
         <v>2708</v>
@@ -37598,8 +37596,8 @@
       <c r="D418" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E418" s="3">
-        <v>29556</v>
+      <c r="E418" s="1">
+        <v>35927</v>
       </c>
       <c r="F418" s="1" t="s">
         <v>2714</v>
@@ -37657,8 +37655,8 @@
       <c r="D419" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E419" s="3">
-        <v>29557</v>
+      <c r="E419" s="1">
+        <v>27185</v>
       </c>
       <c r="F419" s="1" t="s">
         <v>2720</v>
@@ -37716,8 +37714,8 @@
       <c r="D420" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E420" s="3">
-        <v>29558</v>
+      <c r="E420" s="1">
+        <v>36351</v>
       </c>
       <c r="F420" s="1" t="s">
         <v>2726</v>
@@ -37778,8 +37776,8 @@
       <c r="D421" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E421" s="3">
-        <v>29559</v>
+      <c r="E421" s="1">
+        <v>35297</v>
       </c>
       <c r="F421" s="1" t="s">
         <v>2733</v>
@@ -37837,8 +37835,8 @@
       <c r="D422" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E422" s="3">
-        <v>29560</v>
+      <c r="E422" s="1">
+        <v>35700</v>
       </c>
       <c r="F422" s="1" t="s">
         <v>2738</v>
@@ -37896,8 +37894,8 @@
       <c r="D423" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E423" s="3">
-        <v>29561</v>
+      <c r="E423" s="1">
+        <v>36343</v>
       </c>
       <c r="F423" s="1" t="s">
         <v>2745</v>
@@ -37955,8 +37953,8 @@
       <c r="D424" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E424" s="3">
-        <v>29562</v>
+      <c r="E424" s="1">
+        <v>34808</v>
       </c>
       <c r="F424" s="1" t="s">
         <v>2752</v>
@@ -38014,8 +38012,8 @@
       <c r="D425" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E425" s="3">
-        <v>29563</v>
+      <c r="E425" s="1">
+        <v>32944</v>
       </c>
       <c r="F425" s="1" t="s">
         <v>2759</v>
@@ -38073,8 +38071,8 @@
       <c r="D426" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E426" s="3">
-        <v>29564</v>
+      <c r="E426" s="1">
+        <v>31913</v>
       </c>
       <c r="F426" s="1" t="s">
         <v>2765</v>
@@ -38129,8 +38127,8 @@
       <c r="D427" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E427" s="3">
-        <v>29565</v>
+      <c r="E427" s="1">
+        <v>36538</v>
       </c>
       <c r="F427" s="1" t="s">
         <v>2770</v>
@@ -38191,8 +38189,8 @@
       <c r="D428" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E428" s="3">
-        <v>29566</v>
+      <c r="E428" s="1">
+        <v>31587</v>
       </c>
       <c r="F428" s="1" t="s">
         <v>2778</v>
@@ -38253,8 +38251,8 @@
       <c r="D429" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E429" s="3">
-        <v>29567</v>
+      <c r="E429" s="1">
+        <v>32839</v>
       </c>
       <c r="F429" s="1" t="s">
         <v>2783</v>
@@ -38312,8 +38310,8 @@
       <c r="D430" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E430" s="3">
-        <v>29568</v>
+      <c r="E430" s="1">
+        <v>33646</v>
       </c>
       <c r="F430" s="1" t="s">
         <v>2788</v>
@@ -38371,8 +38369,8 @@
       <c r="D431" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E431" s="3">
-        <v>29569</v>
+      <c r="E431" s="1">
+        <v>36234</v>
       </c>
       <c r="F431" s="1" t="s">
         <v>2795</v>
@@ -38430,8 +38428,8 @@
       <c r="D432" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E432" s="3">
-        <v>29570</v>
+      <c r="E432" s="1">
+        <v>30218</v>
       </c>
       <c r="F432" s="1" t="s">
         <v>2801</v>
@@ -38489,8 +38487,8 @@
       <c r="D433" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E433" s="3">
-        <v>29571</v>
+      <c r="E433" s="1">
+        <v>33581</v>
       </c>
       <c r="F433" s="1" t="s">
         <v>2808</v>
@@ -38548,8 +38546,8 @@
       <c r="D434" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E434" s="3">
-        <v>29572</v>
+      <c r="E434" s="1">
+        <v>35130</v>
       </c>
       <c r="F434" s="1" t="s">
         <v>2814</v>
@@ -38604,8 +38602,8 @@
       <c r="D435" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E435" s="3">
-        <v>29573</v>
+      <c r="E435" s="1">
+        <v>35250</v>
       </c>
       <c r="F435" s="1" t="s">
         <v>2819</v>
@@ -38663,8 +38661,8 @@
       <c r="D436" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E436" s="3">
-        <v>29574</v>
+      <c r="E436" s="1">
+        <v>35481</v>
       </c>
       <c r="F436" s="1" t="s">
         <v>2826</v>
@@ -38722,8 +38720,8 @@
       <c r="D437" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E437" s="3">
-        <v>29575</v>
+      <c r="E437" s="1">
+        <v>36455</v>
       </c>
       <c r="F437" s="1" t="s">
         <v>2832</v>
@@ -38784,8 +38782,8 @@
       <c r="D438" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E438" s="3">
-        <v>29576</v>
+      <c r="E438" s="1">
+        <v>26498</v>
       </c>
       <c r="F438" s="1" t="s">
         <v>2838</v>
@@ -38846,8 +38844,8 @@
       <c r="D439" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E439" s="3">
-        <v>29577</v>
+      <c r="E439" s="1">
+        <v>30860</v>
       </c>
       <c r="F439" s="1" t="s">
         <v>2846</v>
@@ -38905,8 +38903,8 @@
       <c r="D440" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E440" s="3">
-        <v>29578</v>
+      <c r="E440" s="1">
+        <v>31865</v>
       </c>
       <c r="F440" s="1" t="s">
         <v>2851</v>
@@ -38964,8 +38962,8 @@
       <c r="D441" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E441" s="3">
-        <v>29579</v>
+      <c r="E441" s="1">
+        <v>32683</v>
       </c>
       <c r="F441" s="1" t="s">
         <v>2858</v>
@@ -39020,8 +39018,8 @@
       <c r="D442" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E442" s="3">
-        <v>29580</v>
+      <c r="E442" s="1">
+        <v>33067</v>
       </c>
       <c r="F442" s="1" t="s">
         <v>2863</v>
@@ -39082,8 +39080,8 @@
       <c r="D443" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E443" s="3">
-        <v>29581</v>
+      <c r="E443" s="1">
+        <v>33198</v>
       </c>
       <c r="F443" s="1" t="s">
         <v>2871</v>
@@ -39141,8 +39139,8 @@
       <c r="D444" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E444" s="3">
-        <v>29582</v>
+      <c r="E444" s="1">
+        <v>33795</v>
       </c>
       <c r="F444" s="1" t="s">
         <v>2877</v>
@@ -39200,8 +39198,8 @@
       <c r="D445" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E445" s="3">
-        <v>29583</v>
+      <c r="E445" s="1">
+        <v>33840</v>
       </c>
       <c r="F445" s="1" t="s">
         <v>2884</v>
@@ -39262,8 +39260,8 @@
       <c r="D446" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E446" s="3">
-        <v>29584</v>
+      <c r="E446" s="1">
+        <v>33973</v>
       </c>
       <c r="F446" s="1" t="s">
         <v>2891</v>
@@ -39324,8 +39322,8 @@
       <c r="D447" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E447" s="3">
-        <v>29585</v>
+      <c r="E447" s="1">
+        <v>34556</v>
       </c>
       <c r="F447" s="1" t="s">
         <v>2895</v>
@@ -39383,8 +39381,8 @@
       <c r="D448" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E448" s="3">
-        <v>29586</v>
+      <c r="E448" s="1">
+        <v>34729</v>
       </c>
       <c r="F448" s="1" t="s">
         <v>2901</v>
@@ -39445,8 +39443,8 @@
       <c r="D449" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E449" s="3">
-        <v>29587</v>
+      <c r="E449" s="1">
+        <v>36388</v>
       </c>
       <c r="F449" s="1" t="s">
         <v>2907</v>
@@ -39507,8 +39505,8 @@
       <c r="D450" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E450" s="3">
-        <v>29588</v>
+      <c r="E450" s="1">
+        <v>27547</v>
       </c>
       <c r="F450" s="1" t="s">
         <v>2913</v>
@@ -39569,8 +39567,8 @@
       <c r="D451" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E451" s="3">
-        <v>29589</v>
+      <c r="E451" s="1">
+        <v>29624</v>
       </c>
       <c r="F451" s="1" t="s">
         <v>2920</v>
@@ -39628,8 +39626,8 @@
       <c r="D452" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E452" s="3">
-        <v>29590</v>
+      <c r="E452" s="1">
+        <v>29732</v>
       </c>
       <c r="F452" s="1" t="s">
         <v>2926</v>
@@ -39687,8 +39685,8 @@
       <c r="D453" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E453" s="3">
-        <v>29591</v>
+      <c r="E453" s="1">
+        <v>30506</v>
       </c>
       <c r="F453" s="1" t="s">
         <v>2932</v>
@@ -39746,8 +39744,8 @@
       <c r="D454" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E454" s="3">
-        <v>29592</v>
+      <c r="E454" s="1">
+        <v>30646</v>
       </c>
       <c r="F454" s="1" t="s">
         <v>2938</v>
@@ -39805,8 +39803,8 @@
       <c r="D455" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E455" s="3">
-        <v>29593</v>
+      <c r="E455" s="1">
+        <v>31757</v>
       </c>
       <c r="F455" s="1" t="s">
         <v>2943</v>
@@ -39867,8 +39865,8 @@
       <c r="D456" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E456" s="3">
-        <v>29594</v>
+      <c r="E456" s="1">
+        <v>32195</v>
       </c>
       <c r="F456" s="1" t="s">
         <v>2948</v>
@@ -39926,8 +39924,8 @@
       <c r="D457" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E457" s="3">
-        <v>29595</v>
+      <c r="E457" s="1">
+        <v>32616</v>
       </c>
       <c r="F457" s="1" t="s">
         <v>2954</v>
@@ -39985,8 +39983,8 @@
       <c r="D458" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E458" s="3">
-        <v>29596</v>
+      <c r="E458" s="1">
+        <v>33472</v>
       </c>
       <c r="F458" s="1" t="s">
         <v>2960</v>
@@ -40047,8 +40045,8 @@
       <c r="D459" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E459" s="3">
-        <v>29597</v>
+      <c r="E459" s="1">
+        <v>33722</v>
       </c>
       <c r="F459" s="1" t="s">
         <v>2966</v>
@@ -40106,8 +40104,8 @@
       <c r="D460" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E460" s="3">
-        <v>29598</v>
+      <c r="E460" s="1">
+        <v>34305</v>
       </c>
       <c r="F460" s="1" t="s">
         <v>2971</v>
@@ -40168,8 +40166,8 @@
       <c r="D461" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E461" s="3">
-        <v>29599</v>
+      <c r="E461" s="1">
+        <v>34929</v>
       </c>
       <c r="F461" s="1" t="s">
         <v>2976</v>
@@ -40227,8 +40225,8 @@
       <c r="D462" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E462" s="3">
-        <v>29600</v>
+      <c r="E462" s="1">
+        <v>35271</v>
       </c>
       <c r="F462" s="1" t="s">
         <v>2982</v>
@@ -40286,8 +40284,8 @@
       <c r="D463" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E463" s="3">
-        <v>29601</v>
+      <c r="E463" s="1">
+        <v>35632</v>
       </c>
       <c r="F463" s="1" t="s">
         <v>2986</v>
@@ -40345,8 +40343,8 @@
       <c r="D464" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E464" s="3">
-        <v>29602</v>
+      <c r="E464" s="1">
+        <v>35873</v>
       </c>
       <c r="F464" s="1" t="s">
         <v>2990</v>
@@ -40404,8 +40402,8 @@
       <c r="D465" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E465" s="3">
-        <v>29603</v>
+      <c r="E465" s="1">
+        <v>29478</v>
       </c>
       <c r="F465" s="1" t="s">
         <v>2995</v>
@@ -40463,8 +40461,8 @@
       <c r="D466" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E466" s="3">
-        <v>29604</v>
+      <c r="E466" s="1">
+        <v>29628</v>
       </c>
       <c r="F466" s="1" t="s">
         <v>3002</v>
@@ -40522,8 +40520,8 @@
       <c r="D467" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E467" s="3">
-        <v>29605</v>
+      <c r="E467" s="1">
+        <v>30546</v>
       </c>
       <c r="F467" s="1" t="s">
         <v>3008</v>
@@ -40581,8 +40579,8 @@
       <c r="D468" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E468" s="3">
-        <v>29606</v>
+      <c r="E468" s="1">
+        <v>31551</v>
       </c>
       <c r="F468" s="1" t="s">
         <v>3015</v>
@@ -40643,8 +40641,8 @@
       <c r="D469" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E469" s="3">
-        <v>29607</v>
+      <c r="E469" s="1">
+        <v>31591</v>
       </c>
       <c r="F469" s="1" t="s">
         <v>3021</v>
@@ -40702,8 +40700,8 @@
       <c r="D470" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E470" s="3">
-        <v>29608</v>
+      <c r="E470" s="1">
+        <v>31939</v>
       </c>
       <c r="F470" s="1" t="s">
         <v>3027</v>
@@ -40764,8 +40762,8 @@
       <c r="D471" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E471" s="3">
-        <v>29609</v>
+      <c r="E471" s="1">
+        <v>32879</v>
       </c>
       <c r="F471" s="1" t="s">
         <v>3033</v>
@@ -40823,8 +40821,8 @@
       <c r="D472" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E472" s="3">
-        <v>29610</v>
+      <c r="E472" s="1">
+        <v>32898</v>
       </c>
       <c r="F472" s="1" t="s">
         <v>3038</v>
@@ -40882,8 +40880,8 @@
       <c r="D473" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E473" s="3">
-        <v>29611</v>
+      <c r="E473" s="1">
+        <v>33682</v>
       </c>
       <c r="F473" s="1" t="s">
         <v>3045</v>
@@ -40944,8 +40942,8 @@
       <c r="D474" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E474" s="3">
-        <v>29612</v>
+      <c r="E474" s="1">
+        <v>35411</v>
       </c>
       <c r="F474" s="1" t="s">
         <v>3052</v>
@@ -41003,8 +41001,8 @@
       <c r="D475" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E475" s="3">
-        <v>29613</v>
+      <c r="E475" s="1">
+        <v>35435</v>
       </c>
       <c r="F475" s="1" t="s">
         <v>3058</v>
@@ -41062,8 +41060,8 @@
       <c r="D476" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E476" s="3">
-        <v>29614</v>
+      <c r="E476" s="1">
+        <v>35749</v>
       </c>
       <c r="F476" s="1" t="s">
         <v>3064</v>
@@ -41121,8 +41119,8 @@
       <c r="D477" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E477" s="3">
-        <v>29615</v>
+      <c r="E477" s="1">
+        <v>36016</v>
       </c>
       <c r="F477" s="1" t="s">
         <v>3071</v>
@@ -41180,8 +41178,8 @@
       <c r="D478" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E478" s="3">
-        <v>29616</v>
+      <c r="E478" s="1">
+        <v>36127</v>
       </c>
       <c r="F478" s="1" t="s">
         <v>3076</v>
@@ -41242,8 +41240,8 @@
       <c r="D479" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E479" s="3">
-        <v>29617</v>
+      <c r="E479" s="1">
+        <v>36180</v>
       </c>
       <c r="F479" s="1" t="s">
         <v>3083</v>
@@ -41304,8 +41302,8 @@
       <c r="D480" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E480" s="3">
-        <v>29618</v>
+      <c r="E480" s="1">
+        <v>36453</v>
       </c>
       <c r="F480" s="1" t="s">
         <v>3089</v>
@@ -41366,8 +41364,8 @@
       <c r="D481" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E481" s="3">
-        <v>29619</v>
+      <c r="E481" s="1">
+        <v>20997</v>
       </c>
       <c r="F481" s="1" t="s">
         <v>3097</v>
@@ -41425,8 +41423,8 @@
       <c r="D482" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E482" s="3">
-        <v>29620</v>
+      <c r="E482" s="1">
+        <v>24402</v>
       </c>
       <c r="F482" s="1" t="s">
         <v>3104</v>
@@ -41487,8 +41485,8 @@
       <c r="D483" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E483" s="3">
-        <v>29621</v>
+      <c r="E483" s="1">
+        <v>26554</v>
       </c>
       <c r="F483" s="1" t="s">
         <v>3112</v>
@@ -41549,8 +41547,8 @@
       <c r="D484" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E484" s="3">
-        <v>29622</v>
+      <c r="E484" s="1">
+        <v>29540</v>
       </c>
       <c r="F484" s="1" t="s">
         <v>3118</v>
@@ -41611,8 +41609,8 @@
       <c r="D485" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E485" s="3">
-        <v>29623</v>
+      <c r="E485" s="1">
+        <v>30305</v>
       </c>
       <c r="F485" s="1" t="s">
         <v>3125</v>
@@ -41670,8 +41668,8 @@
       <c r="D486" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E486" s="3">
-        <v>29624</v>
+      <c r="E486" s="1">
+        <v>30631</v>
       </c>
       <c r="F486" s="1" t="s">
         <v>3131</v>
@@ -41735,8 +41733,8 @@
       <c r="D487" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E487" s="3">
-        <v>29625</v>
+      <c r="E487" s="1">
+        <v>30782</v>
       </c>
       <c r="F487" s="1" t="s">
         <v>3139</v>
@@ -41794,8 +41792,8 @@
       <c r="D488" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E488" s="3">
-        <v>29626</v>
+      <c r="E488" s="1">
+        <v>31107</v>
       </c>
       <c r="F488" s="1" t="s">
         <v>3146</v>
@@ -41856,8 +41854,8 @@
       <c r="D489" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E489" s="3">
-        <v>29627</v>
+      <c r="E489" s="1">
+        <v>31836</v>
       </c>
       <c r="F489" s="1" t="s">
         <v>3153</v>
@@ -41915,8 +41913,8 @@
       <c r="D490" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E490" s="3">
-        <v>29628</v>
+      <c r="E490" s="1">
+        <v>32823</v>
       </c>
       <c r="F490" s="1" t="s">
         <v>3158</v>
@@ -41974,8 +41972,8 @@
       <c r="D491" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E491" s="3">
-        <v>29629</v>
+      <c r="E491" s="1">
+        <v>33597</v>
       </c>
       <c r="F491" s="1" t="s">
         <v>3163</v>
@@ -42033,8 +42031,8 @@
       <c r="D492" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E492" s="3">
-        <v>29630</v>
+      <c r="E492" s="1">
+        <v>34604</v>
       </c>
       <c r="F492" s="1" t="s">
         <v>3168</v>
@@ -42092,8 +42090,8 @@
       <c r="D493" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E493" s="3">
-        <v>29631</v>
+      <c r="E493" s="1">
+        <v>34646</v>
       </c>
       <c r="F493" s="1" t="s">
         <v>3175</v>
@@ -42154,8 +42152,8 @@
       <c r="D494" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E494" s="3">
-        <v>29632</v>
+      <c r="E494" s="1">
+        <v>35014</v>
       </c>
       <c r="F494" s="1" t="s">
         <v>3181</v>
@@ -42216,8 +42214,8 @@
       <c r="D495" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E495" s="3">
-        <v>29633</v>
+      <c r="E495" s="1">
+        <v>35035</v>
       </c>
       <c r="F495" s="1" t="s">
         <v>3187</v>
@@ -42275,8 +42273,8 @@
       <c r="D496" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E496" s="3">
-        <v>29634</v>
+      <c r="E496" s="1">
+        <v>35901</v>
       </c>
       <c r="F496" s="1" t="s">
         <v>3194</v>
@@ -42331,8 +42329,8 @@
       <c r="D497" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E497" s="3">
-        <v>29635</v>
+      <c r="E497" s="1">
+        <v>36380</v>
       </c>
       <c r="F497" s="1" t="s">
         <v>3199</v>
@@ -42390,8 +42388,8 @@
       <c r="D498" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E498" s="3">
-        <v>29636</v>
+      <c r="E498" s="1">
+        <v>25651</v>
       </c>
       <c r="F498" s="1" t="s">
         <v>3206</v>
@@ -42452,8 +42450,8 @@
       <c r="D499" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E499" s="3">
-        <v>29637</v>
+      <c r="E499" s="1">
+        <v>28706</v>
       </c>
       <c r="F499" s="1" t="s">
         <v>3212</v>
@@ -42514,8 +42512,8 @@
       <c r="D500" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E500" s="3">
-        <v>29638</v>
+      <c r="E500" s="1">
+        <v>29958</v>
       </c>
       <c r="F500" s="1" t="s">
         <v>3220</v>
@@ -42576,8 +42574,8 @@
       <c r="D501" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E501" s="3">
-        <v>29639</v>
+      <c r="E501" s="1">
+        <v>31214</v>
       </c>
       <c r="F501" s="1" t="s">
         <v>3226</v>
@@ -42638,8 +42636,8 @@
       <c r="D502" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E502" s="3">
-        <v>29640</v>
+      <c r="E502" s="1">
+        <v>33014</v>
       </c>
       <c r="F502" s="1" t="s">
         <v>3232</v>
@@ -42700,8 +42698,8 @@
       <c r="D503" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E503" s="3">
-        <v>29641</v>
+      <c r="E503" s="1">
+        <v>34503</v>
       </c>
       <c r="F503" s="1" t="s">
         <v>3238</v>
@@ -42759,8 +42757,8 @@
       <c r="D504" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E504" s="3">
-        <v>29642</v>
+      <c r="E504" s="1">
+        <v>34860</v>
       </c>
       <c r="F504" s="1" t="s">
         <v>3244</v>
@@ -42821,8 +42819,8 @@
       <c r="D505" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E505" s="3">
-        <v>29643</v>
+      <c r="E505" s="1">
+        <v>34946</v>
       </c>
       <c r="F505" s="1" t="s">
         <v>3249</v>
@@ -42877,8 +42875,8 @@
       <c r="D506" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E506" s="3">
-        <v>29644</v>
+      <c r="E506" s="1">
+        <v>35079</v>
       </c>
       <c r="F506" s="1" t="s">
         <v>3254</v>
@@ -42939,8 +42937,8 @@
       <c r="D507" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E507" s="3">
-        <v>29645</v>
+      <c r="E507" s="1">
+        <v>35753</v>
       </c>
       <c r="F507" s="1" t="s">
         <v>3261</v>
@@ -42998,8 +42996,8 @@
       <c r="D508" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E508" s="3">
-        <v>29646</v>
+      <c r="E508" s="1">
+        <v>35833</v>
       </c>
       <c r="F508" s="1" t="s">
         <v>3267</v>
@@ -43060,8 +43058,8 @@
       <c r="D509" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E509" s="3">
-        <v>29647</v>
+      <c r="E509" s="1">
+        <v>36031</v>
       </c>
       <c r="F509" s="1" t="s">
         <v>3274</v>
@@ -43122,8 +43120,8 @@
       <c r="D510" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E510" s="3">
-        <v>29648</v>
+      <c r="E510" s="1">
+        <v>36128</v>
       </c>
       <c r="F510" s="1" t="s">
         <v>3282</v>
@@ -43184,8 +43182,8 @@
       <c r="D511" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E511" s="3">
-        <v>29649</v>
+      <c r="E511" s="1">
+        <v>23664</v>
       </c>
       <c r="F511" s="1" t="s">
         <v>3290</v>
@@ -43246,8 +43244,8 @@
       <c r="D512" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E512" s="3">
-        <v>29650</v>
+      <c r="E512" s="1">
+        <v>28753</v>
       </c>
       <c r="F512" s="1" t="s">
         <v>3297</v>
@@ -43305,8 +43303,8 @@
       <c r="D513" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E513" s="3">
-        <v>29651</v>
+      <c r="E513" s="1">
+        <v>29817</v>
       </c>
       <c r="F513" s="1" t="s">
         <v>3303</v>
@@ -43364,8 +43362,8 @@
       <c r="D514" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E514" s="3">
-        <v>29652</v>
+      <c r="E514" s="1">
+        <v>29877</v>
       </c>
       <c r="F514" s="1" t="s">
         <v>3309</v>
@@ -43423,8 +43421,8 @@
       <c r="D515" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E515" s="3">
-        <v>29653</v>
+      <c r="E515" s="1">
+        <v>30514</v>
       </c>
       <c r="F515" s="1" t="s">
         <v>3314</v>
@@ -43482,8 +43480,8 @@
       <c r="D516" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E516" s="3">
-        <v>29654</v>
+      <c r="E516" s="1">
+        <v>30526</v>
       </c>
       <c r="F516" s="1" t="s">
         <v>3319</v>
@@ -43541,8 +43539,8 @@
       <c r="D517" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E517" s="3">
-        <v>29655</v>
+      <c r="E517" s="1">
+        <v>31561</v>
       </c>
       <c r="F517" s="1" t="s">
         <v>3325</v>
@@ -43600,8 +43598,8 @@
       <c r="D518" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E518" s="3">
-        <v>29656</v>
+      <c r="E518" s="1">
+        <v>31636</v>
       </c>
       <c r="F518" s="1" t="s">
         <v>3330</v>
@@ -43662,8 +43660,8 @@
       <c r="D519" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E519" s="3">
-        <v>29657</v>
+      <c r="E519" s="1">
+        <v>32156</v>
       </c>
       <c r="F519" s="1" t="s">
         <v>3336</v>
@@ -43721,8 +43719,8 @@
       <c r="D520" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E520" s="3">
-        <v>29658</v>
+      <c r="E520" s="1">
+        <v>32760</v>
       </c>
       <c r="F520" s="1" t="s">
         <v>3343</v>
@@ -43780,8 +43778,8 @@
       <c r="D521" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E521" s="3">
-        <v>29659</v>
+      <c r="E521" s="1">
+        <v>33233</v>
       </c>
       <c r="F521" s="1" t="s">
         <v>3349</v>
@@ -43842,8 +43840,8 @@
       <c r="D522" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E522" s="3">
-        <v>29660</v>
+      <c r="E522" s="1">
+        <v>34128</v>
       </c>
       <c r="F522" s="1" t="s">
         <v>3356</v>
@@ -43904,8 +43902,8 @@
       <c r="D523" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E523" s="3">
-        <v>29661</v>
+      <c r="E523" s="1">
+        <v>34388</v>
       </c>
       <c r="F523" s="1" t="s">
         <v>3363</v>
@@ -43966,8 +43964,8 @@
       <c r="D524" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E524" s="3">
-        <v>29662</v>
+      <c r="E524" s="1">
+        <v>34556</v>
       </c>
       <c r="F524" s="1" t="s">
         <v>3369</v>
@@ -44022,8 +44020,8 @@
       <c r="D525" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E525" s="3">
-        <v>29663</v>
+      <c r="E525" s="1">
+        <v>34606</v>
       </c>
       <c r="F525" s="1" t="s">
         <v>3373</v>
@@ -44081,8 +44079,8 @@
       <c r="D526" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E526" s="3">
-        <v>29664</v>
+      <c r="E526" s="1">
+        <v>34626</v>
       </c>
       <c r="F526" s="1" t="s">
         <v>3379</v>
@@ -44143,8 +44141,8 @@
       <c r="D527" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E527" s="3">
-        <v>29665</v>
+      <c r="E527" s="1">
+        <v>34996</v>
       </c>
       <c r="F527" s="1" t="s">
         <v>3384</v>
@@ -44199,8 +44197,8 @@
       <c r="D528" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E528" s="3">
-        <v>29666</v>
+      <c r="E528" s="1">
+        <v>35433</v>
       </c>
       <c r="F528" s="1" t="s">
         <v>3389</v>
@@ -44258,8 +44256,8 @@
       <c r="D529" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E529" s="3">
-        <v>29667</v>
+      <c r="E529" s="1">
+        <v>35516</v>
       </c>
       <c r="F529" s="1" t="s">
         <v>3396</v>
@@ -44317,8 +44315,8 @@
       <c r="D530" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E530" s="3">
-        <v>29668</v>
+      <c r="E530" s="1">
+        <v>35821</v>
       </c>
       <c r="F530" s="1" t="s">
         <v>3402</v>
@@ -44379,8 +44377,8 @@
       <c r="D531" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E531" s="3">
-        <v>29669</v>
+      <c r="E531" s="1">
+        <v>35933</v>
       </c>
       <c r="F531" s="1" t="s">
         <v>3410</v>
@@ -44438,8 +44436,8 @@
       <c r="D532" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E532" s="3">
-        <v>29670</v>
+      <c r="E532" s="1">
+        <v>36123</v>
       </c>
       <c r="F532" s="1" t="s">
         <v>3417</v>
@@ -44497,8 +44495,8 @@
       <c r="D533" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E533" s="3">
-        <v>29671</v>
+      <c r="E533" s="1">
+        <v>13909</v>
       </c>
       <c r="F533" s="1" t="s">
         <v>3424</v>
@@ -44556,8 +44554,8 @@
       <c r="D534" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E534" s="3">
-        <v>29672</v>
+      <c r="E534" s="1">
+        <v>28900</v>
       </c>
       <c r="F534" s="1" t="s">
         <v>3428</v>
@@ -44615,8 +44613,8 @@
       <c r="D535" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E535" s="3">
-        <v>29673</v>
+      <c r="E535" s="1">
+        <v>29653</v>
       </c>
       <c r="F535" s="1" t="s">
         <v>3434</v>
@@ -44671,8 +44669,8 @@
       <c r="D536" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E536" s="3">
-        <v>29674</v>
+      <c r="E536" s="1">
+        <v>29795</v>
       </c>
       <c r="F536" s="1" t="s">
         <v>3440</v>
@@ -44730,8 +44728,8 @@
       <c r="D537" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E537" s="3">
-        <v>29675</v>
+      <c r="E537" s="1">
+        <v>29993</v>
       </c>
       <c r="F537" s="1" t="s">
         <v>3446</v>
@@ -44789,8 +44787,8 @@
       <c r="D538" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E538" s="3">
-        <v>29676</v>
+      <c r="E538" s="1">
+        <v>30090</v>
       </c>
       <c r="F538" s="1" t="s">
         <v>3452</v>
@@ -44848,8 +44846,8 @@
       <c r="D539" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E539" s="3">
-        <v>29677</v>
+      <c r="E539" s="1">
+        <v>30134</v>
       </c>
       <c r="F539" s="1" t="s">
         <v>3458</v>
@@ -44913,8 +44911,8 @@
       <c r="D540" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E540" s="3">
-        <v>29678</v>
+      <c r="E540" s="1">
+        <v>30138</v>
       </c>
       <c r="F540" s="1" t="s">
         <v>3464</v>
@@ -44972,8 +44970,8 @@
       <c r="D541" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E541" s="3">
-        <v>29679</v>
+      <c r="E541" s="1">
+        <v>30910</v>
       </c>
       <c r="F541" s="1" t="s">
         <v>3470</v>
@@ -45034,8 +45032,8 @@
       <c r="D542" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E542" s="3">
-        <v>29680</v>
+      <c r="E542" s="1">
+        <v>31670</v>
       </c>
       <c r="F542" s="1" t="s">
         <v>3477</v>
@@ -45093,8 +45091,8 @@
       <c r="D543" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E543" s="3">
-        <v>29681</v>
+      <c r="E543" s="1">
+        <v>32129</v>
       </c>
       <c r="F543" s="1" t="s">
         <v>3481</v>
@@ -45155,8 +45153,8 @@
       <c r="D544" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E544" s="3">
-        <v>29682</v>
+      <c r="E544" s="1">
+        <v>32131</v>
       </c>
       <c r="F544" s="1" t="s">
         <v>3486</v>
@@ -45214,8 +45212,8 @@
       <c r="D545" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E545" s="3">
-        <v>29683</v>
+      <c r="E545" s="1">
+        <v>32288</v>
       </c>
       <c r="F545" s="1" t="s">
         <v>3492</v>
@@ -45276,8 +45274,8 @@
       <c r="D546" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E546" s="3">
-        <v>29684</v>
+      <c r="E546" s="1">
+        <v>33022</v>
       </c>
       <c r="F546" s="1" t="s">
         <v>3499</v>
@@ -45338,8 +45336,8 @@
       <c r="D547" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E547" s="3">
-        <v>29685</v>
+      <c r="E547" s="1">
+        <v>33197</v>
       </c>
       <c r="F547" s="1" t="s">
         <v>3505</v>
@@ -45397,8 +45395,8 @@
       <c r="D548" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E548" s="3">
-        <v>29686</v>
+      <c r="E548" s="1">
+        <v>33743</v>
       </c>
       <c r="F548" s="1" t="s">
         <v>3509</v>
@@ -45456,8 +45454,8 @@
       <c r="D549" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E549" s="3">
-        <v>29687</v>
+      <c r="E549" s="1">
+        <v>35097</v>
       </c>
       <c r="F549" s="1" t="s">
         <v>3515</v>
@@ -45518,8 +45516,8 @@
       <c r="D550" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E550" s="3">
-        <v>29688</v>
+      <c r="E550" s="1">
+        <v>35630</v>
       </c>
       <c r="F550" s="1" t="s">
         <v>3520</v>
@@ -45580,8 +45578,8 @@
       <c r="D551" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E551" s="3">
-        <v>29689</v>
+      <c r="E551" s="1">
+        <v>35988</v>
       </c>
       <c r="F551" s="1" t="s">
         <v>3526</v>
@@ -45642,8 +45640,8 @@
       <c r="D552" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E552" s="3">
-        <v>29690</v>
+      <c r="E552" s="1">
+        <v>36172</v>
       </c>
       <c r="F552" s="1" t="s">
         <v>3532</v>
@@ -45704,8 +45702,8 @@
       <c r="D553" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E553" s="3">
-        <v>29691</v>
+      <c r="E553" s="1">
+        <v>36202</v>
       </c>
       <c r="F553" s="1" t="s">
         <v>3539</v>
@@ -45766,8 +45764,8 @@
       <c r="D554" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E554" s="3">
-        <v>29692</v>
+      <c r="E554" s="1">
+        <v>36347</v>
       </c>
       <c r="F554" s="1" t="s">
         <v>3547</v>
@@ -45828,8 +45826,8 @@
       <c r="D555" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E555" s="3">
-        <v>29693</v>
+      <c r="E555" s="1">
+        <v>36390</v>
       </c>
       <c r="F555" s="1" t="s">
         <v>3553</v>
@@ -45887,8 +45885,8 @@
       <c r="D556" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E556" s="3">
-        <v>29694</v>
+      <c r="E556" s="1">
+        <v>32223</v>
       </c>
       <c r="F556" s="1" t="s">
         <v>3557</v>
@@ -45946,8 +45944,8 @@
       <c r="D557" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E557" s="3">
-        <v>29695</v>
+      <c r="E557" s="1">
+        <v>32161</v>
       </c>
       <c r="F557" s="1" t="s">
         <v>3562</v>
@@ -46008,8 +46006,8 @@
       <c r="D558" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E558" s="3">
-        <v>29696</v>
+      <c r="E558" s="1">
+        <v>34529</v>
       </c>
       <c r="F558" s="1" t="s">
         <v>3567</v>
@@ -46067,8 +46065,8 @@
       <c r="D559" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E559" s="3">
-        <v>29697</v>
+      <c r="E559" s="1">
+        <v>34768</v>
       </c>
       <c r="F559" s="1" t="s">
         <v>3572</v>
@@ -46126,8 +46124,8 @@
       <c r="D560" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E560" s="3">
-        <v>29698</v>
+      <c r="E560" s="1">
+        <v>35289</v>
       </c>
       <c r="F560" s="1" t="s">
         <v>3579</v>
@@ -46185,8 +46183,8 @@
       <c r="D561" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E561" s="3">
-        <v>29699</v>
+      <c r="E561" s="1">
+        <v>32658</v>
       </c>
       <c r="F561" s="1" t="s">
         <v>3585</v>
@@ -46244,8 +46242,8 @@
       <c r="D562" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E562" s="3">
-        <v>29700</v>
+      <c r="E562" s="1">
+        <v>35779</v>
       </c>
       <c r="F562" s="1" t="s">
         <v>3590</v>
@@ -46306,8 +46304,8 @@
       <c r="D563" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E563" s="3">
-        <v>29701</v>
+      <c r="E563" s="1">
+        <v>35171</v>
       </c>
       <c r="F563" s="1" t="s">
         <v>3595</v>
@@ -46365,8 +46363,8 @@
       <c r="D564" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E564" s="3">
-        <v>29702</v>
+      <c r="E564" s="1">
+        <v>30077</v>
       </c>
       <c r="F564" s="1" t="s">
         <v>3601</v>
@@ -46424,8 +46422,8 @@
       <c r="D565" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E565" s="3">
-        <v>29703</v>
+      <c r="E565" s="1">
+        <v>36450</v>
       </c>
       <c r="F565" s="1" t="s">
         <v>3608</v>
@@ -46486,8 +46484,8 @@
       <c r="D566" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E566" s="3">
-        <v>29704</v>
+      <c r="E566" s="1">
+        <v>35139</v>
       </c>
       <c r="F566" s="1" t="s">
         <v>3614</v>
@@ -46548,8 +46546,8 @@
       <c r="D567" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E567" s="3">
-        <v>29705</v>
+      <c r="E567" s="1">
+        <v>35458</v>
       </c>
       <c r="F567" s="1" t="s">
         <v>3620</v>
@@ -46610,8 +46608,8 @@
       <c r="D568" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E568" s="3">
-        <v>29706</v>
+      <c r="E568" s="1">
+        <v>35841</v>
       </c>
       <c r="F568" s="1" t="s">
         <v>3626</v>
@@ -46669,8 +46667,8 @@
       <c r="D569" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E569" s="3">
-        <v>29707</v>
+      <c r="E569" s="1">
+        <v>34828</v>
       </c>
       <c r="F569" s="1" t="s">
         <v>3632</v>
@@ -46728,8 +46726,8 @@
       <c r="D570" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E570" s="3">
-        <v>29708</v>
+      <c r="E570" s="1">
+        <v>35506</v>
       </c>
       <c r="F570" s="1" t="s">
         <v>3637</v>
@@ -46790,8 +46788,8 @@
       <c r="D571" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E571" s="3">
-        <v>29709</v>
+      <c r="E571" s="1">
+        <v>27104</v>
       </c>
       <c r="F571" s="1" t="s">
         <v>3644</v>
@@ -46846,8 +46844,8 @@
       <c r="D572" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E572" s="3">
-        <v>29710</v>
+      <c r="E572" s="1">
+        <v>29696</v>
       </c>
       <c r="F572" s="1" t="s">
         <v>3650</v>
@@ -46905,8 +46903,8 @@
       <c r="D573" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E573" s="3">
-        <v>29711</v>
+      <c r="E573" s="1">
+        <v>31747</v>
       </c>
       <c r="F573" s="1" t="s">
         <v>3655</v>
@@ -46967,8 +46965,8 @@
       <c r="D574" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E574" s="3">
-        <v>29712</v>
+      <c r="E574" s="1">
+        <v>34036</v>
       </c>
       <c r="F574" s="1" t="s">
         <v>3663</v>
@@ -47026,8 +47024,8 @@
       <c r="D575" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E575" s="3">
-        <v>29713</v>
+      <c r="E575" s="1">
+        <v>35533</v>
       </c>
       <c r="F575" s="1" t="s">
         <v>3668</v>
@@ -47085,8 +47083,8 @@
       <c r="D576" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E576" s="3">
-        <v>29714</v>
+      <c r="E576" s="1">
+        <v>35872</v>
       </c>
       <c r="F576" s="1" t="s">
         <v>3674</v>
@@ -47144,8 +47142,8 @@
       <c r="D577" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E577" s="3">
-        <v>29715</v>
+      <c r="E577" s="1">
+        <v>36270</v>
       </c>
       <c r="F577" s="1" t="s">
         <v>3678</v>
@@ -47203,8 +47201,8 @@
       <c r="D578" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E578" s="3">
-        <v>29716</v>
+      <c r="E578" s="1">
+        <v>32366</v>
       </c>
       <c r="F578" s="1" t="s">
         <v>3685</v>
@@ -47259,8 +47257,8 @@
       <c r="D579" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E579" s="3">
-        <v>29717</v>
+      <c r="E579" s="1">
+        <v>32463</v>
       </c>
       <c r="F579" s="1" t="s">
         <v>3690</v>
@@ -47318,8 +47316,8 @@
       <c r="D580" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E580" s="3">
-        <v>29718</v>
+      <c r="E580" s="1">
+        <v>33496</v>
       </c>
       <c r="F580" s="1" t="s">
         <v>3697</v>
@@ -47377,8 +47375,8 @@
       <c r="D581" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E581" s="3">
-        <v>29719</v>
+      <c r="E581" s="1">
+        <v>33662</v>
       </c>
       <c r="F581" s="1" t="s">
         <v>3703</v>
@@ -47436,8 +47434,8 @@
       <c r="D582" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E582" s="3">
-        <v>29720</v>
+      <c r="E582" s="1">
+        <v>34775</v>
       </c>
       <c r="F582" s="1" t="s">
         <v>3709</v>
@@ -47492,8 +47490,8 @@
       <c r="D583" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E583" s="3">
-        <v>29721</v>
+      <c r="E583" s="1">
+        <v>35240</v>
       </c>
       <c r="F583" s="1" t="s">
         <v>3715</v>
@@ -47554,8 +47552,8 @@
       <c r="D584" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E584" s="3">
-        <v>29722</v>
+      <c r="E584" s="1">
+        <v>35794</v>
       </c>
       <c r="F584" s="1" t="s">
         <v>3723</v>
@@ -47616,8 +47614,8 @@
       <c r="D585" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E585" s="3">
-        <v>29723</v>
+      <c r="E585" s="1">
+        <v>36115</v>
       </c>
       <c r="F585" s="1" t="s">
         <v>3730</v>
@@ -47678,8 +47676,8 @@
       <c r="D586" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E586" s="3">
-        <v>29724</v>
+      <c r="E586" s="1">
+        <v>36458</v>
       </c>
       <c r="F586" s="1" t="s">
         <v>3736</v>
@@ -47737,8 +47735,8 @@
       <c r="D587" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E587" s="3">
-        <v>29725</v>
+      <c r="E587" s="1">
+        <v>32118</v>
       </c>
       <c r="F587" s="1" t="s">
         <v>3742</v>
@@ -47796,8 +47794,8 @@
       <c r="D588" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E588" s="3">
-        <v>29726</v>
+      <c r="E588" s="1">
+        <v>33679</v>
       </c>
       <c r="F588" s="1" t="s">
         <v>3748</v>
@@ -47855,8 +47853,8 @@
       <c r="D589" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E589" s="3">
-        <v>29727</v>
+      <c r="E589" s="1">
+        <v>33922</v>
       </c>
       <c r="F589" s="1" t="s">
         <v>3753</v>
@@ -47914,8 +47912,8 @@
       <c r="D590" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E590" s="3">
-        <v>29728</v>
+      <c r="E590" s="1">
+        <v>35088</v>
       </c>
       <c r="F590" s="1" t="s">
         <v>3758</v>
@@ -47973,8 +47971,8 @@
       <c r="D591" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E591" s="3">
-        <v>29729</v>
+      <c r="E591" s="1">
+        <v>35137</v>
       </c>
       <c r="F591" s="1" t="s">
         <v>3763</v>
@@ -48035,8 +48033,8 @@
       <c r="D592" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E592" s="3">
-        <v>29730</v>
+      <c r="E592" s="1">
+        <v>36091</v>
       </c>
       <c r="F592" s="1" t="s">
         <v>3769</v>
@@ -48091,8 +48089,8 @@
       <c r="D593" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E593" s="3">
-        <v>29731</v>
+      <c r="E593" s="1">
+        <v>35292</v>
       </c>
       <c r="F593" s="1" t="s">
         <v>3774</v>
@@ -48150,8 +48148,8 @@
       <c r="D594" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E594" s="3">
-        <v>29732</v>
+      <c r="E594" s="1">
+        <v>34938</v>
       </c>
       <c r="F594" s="1" t="s">
         <v>3781</v>
@@ -48209,8 +48207,8 @@
       <c r="D595" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E595" s="3">
-        <v>29733</v>
+      <c r="E595" s="1">
+        <v>34646</v>
       </c>
       <c r="F595" s="1" t="s">
         <v>3787</v>
@@ -48268,8 +48266,8 @@
       <c r="D596" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E596" s="3">
-        <v>29734</v>
+      <c r="E596" s="1">
+        <v>30859</v>
       </c>
       <c r="F596" s="1" t="s">
         <v>3794</v>
@@ -48327,8 +48325,8 @@
       <c r="D597" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E597" s="3">
-        <v>29735</v>
+      <c r="E597" s="1">
+        <v>31059</v>
       </c>
       <c r="F597" s="1" t="s">
         <v>3798</v>
@@ -48392,8 +48390,8 @@
       <c r="D598" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E598" s="3">
-        <v>29736</v>
+      <c r="E598" s="1">
+        <v>35476</v>
       </c>
       <c r="F598" s="1" t="s">
         <v>3805</v>
@@ -48454,8 +48452,8 @@
       <c r="D599" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E599" s="3">
-        <v>29737</v>
+      <c r="E599" s="1">
+        <v>35444</v>
       </c>
       <c r="F599" s="1" t="s">
         <v>3811</v>
@@ -48516,8 +48514,8 @@
       <c r="D600" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E600" s="3">
-        <v>29738</v>
+      <c r="E600" s="1">
+        <v>29544</v>
       </c>
       <c r="F600" s="1" t="s">
         <v>3821</v>
@@ -48575,8 +48573,8 @@
       <c r="D601" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E601" s="3">
-        <v>29739</v>
+      <c r="E601" s="1">
+        <v>29808</v>
       </c>
       <c r="F601" s="1" t="s">
         <v>3827</v>
@@ -48634,8 +48632,8 @@
       <c r="D602" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E602" s="3">
-        <v>29740</v>
+      <c r="E602" s="1">
+        <v>36524</v>
       </c>
       <c r="F602" s="1" t="s">
         <v>3834</v>
@@ -48693,8 +48691,8 @@
       <c r="D603" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E603" s="3">
-        <v>29741</v>
+      <c r="E603" s="1">
+        <v>34045</v>
       </c>
       <c r="F603" s="1" t="s">
         <v>3840</v>
@@ -48755,8 +48753,8 @@
       <c r="D604" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E604" s="3">
-        <v>29742</v>
+      <c r="E604" s="1">
+        <v>28368</v>
       </c>
       <c r="F604" s="1" t="s">
         <v>3847</v>
@@ -48814,8 +48812,8 @@
       <c r="D605" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E605" s="3">
-        <v>29743</v>
+      <c r="E605" s="1">
+        <v>27646</v>
       </c>
       <c r="F605" s="1" t="s">
         <v>3853</v>
@@ -48873,8 +48871,8 @@
       <c r="D606" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E606" s="3">
-        <v>29744</v>
+      <c r="E606" s="1">
+        <v>35923</v>
       </c>
       <c r="F606" s="1" t="s">
         <v>3859</v>
@@ -48935,8 +48933,8 @@
       <c r="D607" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E607" s="3">
-        <v>29745</v>
+      <c r="E607" s="1">
+        <v>30428</v>
       </c>
       <c r="F607" s="1" t="s">
         <v>3867</v>
@@ -48994,8 +48992,8 @@
       <c r="D608" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E608" s="3">
-        <v>29746</v>
+      <c r="E608" s="1">
+        <v>28956</v>
       </c>
       <c r="F608" s="1" t="s">
         <v>3872</v>
@@ -49053,8 +49051,8 @@
       <c r="D609" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E609" s="3">
-        <v>29747</v>
+      <c r="E609" s="1">
+        <v>35859</v>
       </c>
       <c r="F609" s="1" t="s">
         <v>3878</v>
@@ -49115,8 +49113,8 @@
       <c r="D610" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E610" s="3">
-        <v>29748</v>
+      <c r="E610" s="1">
+        <v>36810</v>
       </c>
       <c r="F610" s="1" t="s">
         <v>3885</v>
@@ -49174,8 +49172,8 @@
       <c r="D611" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E611" s="3">
-        <v>29749</v>
+      <c r="E611" s="1">
+        <v>33468</v>
       </c>
       <c r="F611" s="1" t="s">
         <v>3890</v>
@@ -49236,8 +49234,8 @@
       <c r="D612" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E612" s="3">
-        <v>29750</v>
+      <c r="E612" s="1">
+        <v>36430</v>
       </c>
       <c r="F612" s="1" t="s">
         <v>3896</v>
@@ -49292,8 +49290,8 @@
       <c r="D613" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E613" s="3">
-        <v>29751</v>
+      <c r="E613" s="1">
+        <v>33704</v>
       </c>
       <c r="F613" s="1" t="s">
         <v>3900</v>
@@ -49354,8 +49352,8 @@
       <c r="D614" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E614" s="3">
-        <v>29752</v>
+      <c r="E614" s="1">
+        <v>35713</v>
       </c>
       <c r="F614" s="1" t="s">
         <v>3908</v>
@@ -49416,8 +49414,8 @@
       <c r="D615" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E615" s="3">
-        <v>29753</v>
+      <c r="E615" s="1">
+        <v>35247</v>
       </c>
       <c r="F615" s="1" t="s">
         <v>3913</v>
@@ -49478,8 +49476,8 @@
       <c r="D616" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E616" s="3">
-        <v>29754</v>
+      <c r="E616" s="1">
+        <v>33342</v>
       </c>
       <c r="F616" s="1" t="s">
         <v>3919</v>
